--- a/Datos/Database by set/Set with text box/Xlsx sets/Commander 2021 (C21).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Commander 2021 (C21).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,26 +451,313 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('Breena, the Demagogue', ['{1}{W}{B}', 'Legendary Creature — Bird Warlock', 'Flying', 'Whenever a player attacks one of your opponents, if that opponent has more life than another of your opponents, that attacking player draws a card and you put two +1/+1 counters on a creature you control.', '1/3'])</t>
+          <t>('Alibou, Ancient Witness', ['{3}{R}{W}', 'Legendary Artifact Creature — Golem', 'Other artifact creatures you control have haste.', 'Whenever one or more artifact creatures you control attack, Alibou, Ancient Witness deals X damage to any target and you scry X, where X is the number of tapped artifacts you control.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('Osgir, the Reconstructor', ['{2}{R}{W}', 'Legendary Creature — Giant Artificer', 'Vigilance', '{1}, Sacrifice an artifact: Target creature you control gets +2/+0 until end of turn.', '{X}, {T}, Exile an artifact with mana value X from your graveyard: Create two tokens that are copies of the exiled card. Activate only as a sorcery.', '4/4'])</t>
+          <t>('Ancient Den', ['Artifact Land', '{T}: Add {W}.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('Willowdusk, Essence Seer', ['{1}{B}{G}', 'Legendary Creature — Dryad Druid', '{1}, {T}: Choose another target creature. Put a number of +1/+1 counters on it equal to the amount of life you gained this turn or the amount of life you lost this turn, whichever is greater. Activate only as a sorcery.', '3/3'])</t>
+          <t>('Angel of the Ruins', ['{5}{W}{W}', 'Artifact Creature — Angel', 'Flying', 'When Angel of the Ruins enters the battlefield, exile up to two target artifacts and/or enchantments.', 'Plainscycling {2} ({2}, Discard this card: Search your library for a Plains card, reveal it, put it into your hand, then shuffle.)', '5/7'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
+        <is>
+          <t>('Arcane Signet', ['{2}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>("Archaeomancer's Map", ['{2}{W}', 'Artifact', 'When Archaeomancer’s Map enters the battlefield, search your library for up to two basic Plains cards, reveal them, put them into your hand, then shuffle.', 'Whenever a land enters the battlefield under an opponent’s control, if that player controls more lands than you, you may put a land card from your hand onto the battlefield.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>('Audacious Reshapers', ['{2}{R}', 'Creature — Human Artificer', '{T}, Sacrifice an artifact: Reveal cards from the top of your library until you reveal an artifact card. Put that card onto the battlefield and the rest on the bottom of your library in a random order. Audacious Reshapers deals damage to you equal to the number of cards revealed this way.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>("Battlemage's Bracers", ['{2}{R}', 'Artifact — Equipment', 'Equipped creature has haste.', 'Whenever an ability of equipped creature is activated, if it isn’t a mana ability, you may pay {1}. If you do, copy that ability. You may choose new targets for the copy.', 'Equip {2}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>('Boros Locket', ['{3}', 'Artifact', '{T}: Add {R} or {W}.', '{R/W}{R/W}{R/W}{R/W}, {T}, Sacrifice Boros Locket: Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>('Bosh, Iron Golem', ['{8}', 'Legendary Artifact Creature — Golem', 'Trample', '{3}{R}, Sacrifice an artifact: Bosh, Iron Golem deals damage equal to the sacrificed artifact’s converted mana cost to any target.', '6/7'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>('Breena, the Demagogue', ['{1}{W}{B}', 'Legendary Creature — Bird Warlock', 'Flying', 'Whenever a player attacks one of your opponents, if that opponent has more life than another of your opponents, that attacking player draws a card and you put two +1/+1 counters on a creature you control.', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>('Bronze Guardian', ['{4}{W}', 'Artifact Creature — Golem', 'Double strike', 'Ward {2} (Whenever this creature becomes the target of a spell or ability an opponent controls, counter it unless that player pays {2}.)', 'Other artifacts you control have ward {2}.', 'Bronze Guardian’s power is equal to the number of artifacts you control.', '*/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>('Combustible Gearhulk', ['{4}{R}{R}', 'Artifact Creature — Construct', 'First strike', 'When Combustible Gearhulk enters the battlefield, target opponent may have you draw three cards. If the player doesn’t, you mill three cards, then Combustible Gearhulk deals damage to that player equal to the total converted mana cost of those cards.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>("Commander's Sphere", ['{3}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.', 'Sacrifice Commander’s Sphere: Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>('Cursed Mirror', ['{2}{R}', 'Artifact', '{T}: Add {R}.', 'As Cursed Mirror enters the battlefield, you may have it become a copy of any creature on the battlefield until end of turn, except it has haste.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>('Daretti, Scrap Savant', ['{3}{R}', 'Legendary Planeswalker — Daretti', '+2: Discard up to two cards, then draw that many cards.', '−2: Sacrifice an artifact. If you do, return target artifact card from your graveyard to the battlefield.', '−10: You get an emblem with “Whenever an artifact is put into your graveyard from the battlefield, return that card to the battlefield at the beginning of the next end step.”', 'Daretti, Scrap Savant can be your commander.', 'Loyalty: 3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>('Darksteel Citadel', ['Artifact Land', 'Indestructible', '{T}: Add {C}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>('Digsite Engineer', ['{2}{W}', 'Creature — Dwarf Artificer', 'Whenever you cast an artifact spell, you may pay {2}. If you do, create a 0/0 colorless Construct artifact creature token with “This creature gets +1/+1 for each artifact you control.”', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>('Duplicant', ['{6}', 'Artifact Creature — Shapeshifter', 'Imprint — When Duplicant enters the battlefield, you may exile target nontoken creature.', 'As long as a card exiled with Duplicant is a creature card, Duplicant has the power, toughness, and creature types of the last creature card exiled with Duplicant. It’s still a Shapeshifter.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>('Excavation Technique', ['{3}{W}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Destroy target nonland permanent. Its controller creates two Treasure tokens.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>('Faithless Looting', ['{R}', 'Sorcery', 'Draw two cards, then discard two cards.', 'Flashback {2}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>('Feldon of the Third Path', ['{1}{R}{R}', 'Legendary Creature — Human Artificer', '{2}{R}, {T}: Create a token that’s a copy of target creature card in your graveyard, except it’s an artifact in addition to its other types. It gains haste. Sacrifice it at the beginning of the next end step.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>('Great Furnace', ['Artifact Land', '{T}: Add {R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>('Hedron Archive', ['{4}', 'Artifact', '{T}: Add {C}{C}.', '{2}, {T}, Sacrifice Hedron Archive: Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>('Hellkite Tyrant', ['{4}{R}{R}', 'Creature — Dragon', 'Flying, trample', 'Whenever Hellkite Tyrant deals combat damage to a player, gain control of all artifacts that player controls.', 'At the beginning of your upkeep, if you control twenty or more artifacts, you win the game.', '6/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>('Ichor Wellspring', ['{2}', 'Artifact', 'When Ichor Wellspring enters the battlefield or is put into a graveyard from the battlefield, draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>('Laelia, the Blade Reforged', ['{2}{R}', 'Legendary Creature — Spirit Warrior', 'Haste', 'Whenever Laelia, the Blade Reforged attacks, exile the top card of your library. You may play that card this turn.', 'Whenever you exile one or more cards from your library and/or your graveyard, put a +1/+1 counter on Laelia.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>('Losheel, Clockwork Scholar', ['{2}{W}', 'Legendary Creature — Elephant Artificer', 'Prevent all combat damage that would be dealt to attacking artifact creatures you control.', 'Whenever one or more artifact creatures enter the battlefield under your control, draw a card. This ability triggers only once each turn.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>('Meteor Golem', ['{7}', 'Artifact Creature — Golem', 'When Meteor Golem enters the battlefield, destroy target nonland permanent an opponent controls.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>('Mind Stone', ['{2}', 'Artifact', '{T}: Add {C}.', '{1}, {T}, Sacrifice Mind Stone: Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>('Monologue Tax', ['{2}{W}', 'Enchantment', 'Whenever an opponent casts their second spell each turn, you create a Treasure token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>('Myr Battlesphere', ['{7}', 'Artifact Creature — Myr Construct', 'When Myr Battlesphere enters the battlefield, create four 1/1 colorless Myr artifact creature tokens.', 'Whenever Myr Battlesphere attacks, you may tap X untapped Myr you control. If you do, Myr Battlesphere gets +X/+0 until end of turn and deals X damage to the player or planeswalker it’s attacking.', '4/7'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>('Osgir, the Reconstructor', ['{2}{R}{W}', 'Legendary Creature — Giant Artificer', 'Vigilance', '{1}, Sacrifice an artifact: Target creature you control gets +2/+0 until end of turn.', '{X}, {T}, Exile an artifact with mana value X from your graveyard: Create two tokens that are copies of the exiled card. Activate only as a sorcery.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>('Ruin Grinder', ['{5}{R}', 'Artifact Creature — Construct', 'Menace', 'When Ruin Grinder dies, each player may discard their hand and draw seven cards.', 'Mountaincycling {2} ({2}, Discard this card: Search your library for a Mountain card. Reveal it, put it into your hand, then shuffle.)', '7/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>('Sculpting Steel', ['{3}', 'Artifact', 'You may have Sculpting Steel enter the battlefield as a copy of any artifact on the battlefield.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>('Solemn Simulacrum', ['{4}', 'Artifact Creature — Golem', 'When Solemn Simulacrum enters the battlefield, you may search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.', 'When Solemn Simulacrum dies, you may draw a card.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>('Sol Ring', ['{1}', 'Artifact', '{T}: Add {C}{C}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>('Steel Hellkite', ['{6}', 'Artifact Creature — Dragon', 'Flying', '{2}: Steel Hellkite gets +1/+0 until end of turn.', '{X}: Destroy each nonland permanent with converted mana cost X whose controller was dealt combat damage by Steel Hellkite this turn. Activate this ability only once each turn.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>('Steel Overseer', ['{2}', 'Artifact Creature — Construct', '{T}: Put a +1/+1 counter on each artifact creature you control.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>('Study Hall', ['Land', '{T}: Add {C}.', '{1}, {T}: Add one mana of any color. When you spend this mana to cast your commander, scry X, where X is the number of times it’s been cast from the command zone this game.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>('Thopter Engineer', ['{2}{R}', 'Creature — Human Artificer', 'When Thopter Engineer enters the battlefield, create a 1/1 colorless Thopter artifact creature token with flying.', 'Artifact creatures you control have haste. (They can attack and {T} as soon as they come under your control.)', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>('Thousand-Year Elixir', ['{3}', 'Artifact', 'You may activate abilities of creatures you control as though those creatures had haste.', '{1}, {T}: Untap target creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>('Triplicate Titan', ['{9}', 'Artifact Creature — Golem', 'Flying, vigilance, trample', 'When Triplicate Titan dies, create a 3/3 colorless Golem artifact creature token with flying, a 3/3 colorless Golem artifact creature token with vigilance, and a 3/3 colorless Golem artifact creature token with trample.', '9/9'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>('Wake the Past', ['{5}{R}{W}', 'Sorcery', 'Return all artifact cards from your graveyard to the battlefield. They gain haste until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>('Willowdusk, Essence Seer', ['{1}{B}{G}', 'Legendary Creature — Dryad Druid', '{1}, {T}: Choose another target creature. Put a number of +1/+1 counters on it equal to the amount of life you gained this turn or the amount of life you lost this turn, whichever is greater. Activate only as a sorcery.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>('Zaffai, Thunder Conductor', ['{2}{U}{R}', 'Legendary Creature — Human Shaman', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, scry 1. If that spell’s mana value is 5 or greater, create a 4/4 blue and red Elemental creature token. If that spell’s mana value is 10 or greater, Zaffai, Thunder Conductor deals 10 damage to an opponent chosen at random.', '1/4'])</t>
         </is>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Commander 2021 (C21).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Commander 2021 (C21).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,315 +451,1876 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('Alibou, Ancient Witness', ['{3}{R}{W}', 'Legendary Artifact Creature — Golem', 'Other artifact creatures you control have haste.', 'Whenever one or more artifact creatures you control attack, Alibou, Ancient Witness deals X damage to any target and you scry X, where X is the number of tapped artifacts you control.', '4/5'])</t>
+          <t>('Aether Gale', ['{3}{U}{U}', 'Sorcery', 'Return six target nonland permanents to their owners’ hands.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('Ancient Den', ['Artifact Land', '{T}: Add {W}.'])</t>
+          <t>('Aetherspouts', ['{3}{U}{U}', 'Instant', 'For each attacking creature, its owner puts it on the top or bottom of their library.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('Angel of the Ruins', ['{5}{W}{W}', 'Artifact Creature — Angel', 'Flying', 'When Angel of the Ruins enters the battlefield, exile up to two target artifacts and/or enchantments.', 'Plainscycling {2} ({2}, Discard this card: Search your library for a Plains card, reveal it, put it into your hand, then shuffle.)', '5/7'])</t>
+          <t>('Alibou, Ancient Witness', ['{3}{R}{W}', 'Legendary Artifact Creature — Golem', 'Other artifact creatures you control have haste.', 'Whenever one or more artifact creatures you control attack, Alibou, Ancient Witness deals X damage to any target and you scry X, where X is the number of tapped artifacts you control.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('Arcane Signet', ['{2}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.'])</t>
+          <t>('Ancient Den', ['Artifact Land', '{T}: Add {W}.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>("Archaeomancer's Map", ['{2}{W}', 'Artifact', 'When Archaeomancer’s Map enters the battlefield, search your library for up to two basic Plains cards, reveal them, put them into your hand, then shuffle.', 'Whenever a land enters the battlefield under an opponent’s control, if that player controls more lands than you, you may put a land card from your hand onto the battlefield.'])</t>
+          <t>('Angel of Serenity', ['{4}{W}{W}{W}', 'Creature — Angel', 'Flying', 'When Angel of Serenity enters the battlefield, you may exile up to three other target creatures from the battlefield and/or creature cards from graveyards.', 'When Angel of Serenity leaves the battlefield, return the exiled cards to their owners’ hands.', '5/6'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('Audacious Reshapers', ['{2}{R}', 'Creature — Human Artificer', '{T}, Sacrifice an artifact: Reveal cards from the top of your library until you reveal an artifact card. Put that card onto the battlefield and the rest on the bottom of your library in a random order. Audacious Reshapers deals damage to you equal to the number of cards revealed this way.', '3/3'])</t>
+          <t>('Angel of the Ruins', ['{5}{W}{W}', 'Artifact Creature — Angel', 'Flying', 'When Angel of the Ruins enters the battlefield, exile up to two target artifacts and/or enchantments.', 'Plainscycling {2} ({2}, Discard this card: Search your library for a Plains card, reveal it, put it into your hand, then shuffle.)', '5/7'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>("Battlemage's Bracers", ['{2}{R}', 'Artifact — Equipment', 'Equipped creature has haste.', 'Whenever an ability of equipped creature is activated, if it isn’t a mana ability, you may pay {1}. If you do, copy that ability. You may choose new targets for the copy.', 'Equip {2}'])</t>
+          <t>('Apex of Power', ['{7}{R}{R}{R}', 'Sorcery', 'Exile the top seven cards of your library. Until end of turn, you may cast spells from among them.', 'If this spell was cast from your hand, add ten mana of any one color.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Boros Locket', ['{3}', 'Artifact', '{T}: Add {R} or {W}.', '{R/W}{R/W}{R/W}{R/W}, {T}, Sacrifice Boros Locket: Draw two cards.'])</t>
+          <t>('Arashi, the Sky Asunder', ['{3}{G}{G}', 'Legendary Creature — Spirit', '{X}{G}, {T}: Arashi, the Sky Asunder deals X damage to target creature with flying.', 'Channel — {X}{G}{G}, Discard Arashi: Arashi deals X damage to each creature with flying.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('Bosh, Iron Golem', ['{8}', 'Legendary Artifact Creature — Golem', 'Trample', '{3}{R}, Sacrifice an artifact: Bosh, Iron Golem deals damage equal to the sacrificed artifact’s converted mana cost to any target.', '6/7'])</t>
+          <t>('Arcane Signet', ['{2}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('Breena, the Demagogue', ['{1}{W}{B}', 'Legendary Creature — Bird Warlock', 'Flying', 'Whenever a player attacks one of your opponents, if that opponent has more life than another of your opponents, that attacking player draws a card and you put two +1/+1 counters on a creature you control.', '1/3'])</t>
+          <t>("Archaeomancer's Map", ['{2}{W}', 'Artifact', 'When Archaeomancer’s Map enters the battlefield, search your library for up to two basic Plains cards, reveal them, put them into your hand, then shuffle.', 'Whenever a land enters the battlefield under an opponent’s control, if that player controls more lands than you, you may put a land card from your hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('Bronze Guardian', ['{4}{W}', 'Artifact Creature — Golem', 'Double strike', 'Ward {2} (Whenever this creature becomes the target of a spell or ability an opponent controls, counter it unless that player pays {2}.)', 'Other artifacts you control have ward {2}.', 'Bronze Guardian’s power is equal to the number of artifacts you control.', '*/5'])</t>
+          <t>('Audacious Reshapers', ['{2}{R}', 'Creature — Human Artificer', '{T}, Sacrifice an artifact: Reveal cards from the top of your library until you reveal an artifact card. Put that card onto the battlefield and the rest on the bottom of your library in a random order. Audacious Reshapers deals damage to you equal to the number of cards revealed this way.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Combustible Gearhulk', ['{4}{R}{R}', 'Artifact Creature — Construct', 'First strike', 'When Combustible Gearhulk enters the battlefield, target opponent may have you draw three cards. If the player doesn’t, you mill three cards, then Combustible Gearhulk deals damage to that player equal to the total converted mana cost of those cards.', '6/6'])</t>
+          <t>('Author of Shadows', ['{4}{B}', 'Creature — Shade Warlock', 'When Author of Shadows enters the battlefield, exile all cards from all opponents’ graveyards. Choose a nonland card exiled this way. You may cast that card for as long as it remains exiled, and you may spend mana as though it were mana of any color to cast that spell.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>("Commander's Sphere", ['{3}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.', 'Sacrifice Commander’s Sphere: Draw a card.'])</t>
+          <t>('Barren Moor', ['Land', 'Barren Moor enters the battlefield tapped.', '{T}: Add {B}.', 'Cycling {B} ({B}, Discard this card: Draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('Cursed Mirror', ['{2}{R}', 'Artifact', '{T}: Add {R}.', 'As Cursed Mirror enters the battlefield, you may have it become a copy of any creature on the battlefield until end of turn, except it has haste.'])</t>
+          <t>('Battlefield Forge', ['Land', '{T}: Add {C}.', '{T}: Add {R} or {W}. Battlefield Forge deals 1 damage to you.'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('Daretti, Scrap Savant', ['{3}{R}', 'Legendary Planeswalker — Daretti', '+2: Discard up to two cards, then draw that many cards.', '−2: Sacrifice an artifact. If you do, return target artifact card from your graveyard to the battlefield.', '−10: You get an emblem with “Whenever an artifact is put into your graveyard from the battlefield, return that card to the battlefield at the beginning of the next end step.”', 'Daretti, Scrap Savant can be your commander.', 'Loyalty: 3'])</t>
+          <t>("Battlemage's Bracers", ['{2}{R}', 'Artifact — Equipment', 'Equipped creature has haste.', 'Whenever an ability of equipped creature is activated, if it isn’t a mana ability, you may pay {1}. If you do, copy that ability. You may choose new targets for the copy.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('Darksteel Citadel', ['Artifact Land', 'Indestructible', '{T}: Add {C}.'])</t>
+          <t>('Beast Within', ['{2}{G}', 'Instant', 'Destroy target permanent. Its controller creates a 3/3 green Beast creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('Digsite Engineer', ['{2}{W}', 'Creature — Dwarf Artificer', 'Whenever you cast an artifact spell, you may pay {2}. If you do, create a 0/0 colorless Construct artifact creature token with “This creature gets +1/+1 for each artifact you control.”', '3/3'])</t>
+          <t>('Biomass Mutation', ['{X}{G/U}{G/U}', 'Instant', 'Creatures you control have base power and toughness X/X until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('Duplicant', ['{6}', 'Artifact Creature — Shapeshifter', 'Imprint — When Duplicant enters the battlefield, you may exile target nontoken creature.', 'As long as a card exiled with Duplicant is a creature card, Duplicant has the power, toughness, and creature types of the last creature card exiled with Duplicant. It’s still a Shapeshifter.', '2/4'])</t>
+          <t>('Blasphemous Act', ['{8}{R}', 'Sorcery', 'This spell costs {1} less to cast for each creature on the battlefield.', 'Blasphemous Act deals 13 damage to each creature.'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('Excavation Technique', ['{3}{W}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Destroy target nonland permanent. Its controller creates two Treasure tokens.'])</t>
+          <t>('Blighted Cataract', ['Land', '{T}: Add {C}.', '{5}{U}, {T}, Sacrifice Blighted Cataract: Draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('Faithless Looting', ['{R}', 'Sorcery', 'Draw two cards, then discard two cards.', 'Flashback {2}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
+          <t>('Blight Mound', ['{2}{B}', 'Enchantment', 'Attacking Pests you control get +1/+0 and have menace.', 'Whenever a nontoken creature you control dies, create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('Feldon of the Third Path', ['{1}{R}{R}', 'Legendary Creature — Human Artificer', '{2}{R}, {T}: Create a token that’s a copy of target creature card in your graveyard, except it’s an artifact in addition to its other types. It gains haste. Sacrifice it at the beginning of the next end step.', '2/3'])</t>
+          <t>('Bloodthirsty Blade', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +2/+0 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', '{1}: Attach Bloodthirsty Blade to target creature an opponent controls. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('Great Furnace', ['Artifact Land', '{T}: Add {R}.'])</t>
+          <t>('Blossoming Bogbeast', ['{4}{G}', 'Creature — Beast', 'Whenever Blossoming Bogbeast attacks, you gain 2 life. Then creatures you control gain trample and get +X/+X until end of turn, where X is the amount of life you gained this turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Hedron Archive', ['{4}', 'Artifact', '{T}: Add {C}{C}.', '{2}, {T}, Sacrifice Hedron Archive: Draw two cards.'])</t>
+          <t>('Bojuka Bog', ['Land', 'Bojuka Bog enters the battlefield tapped.', 'When Bojuka Bog enters the battlefield, exile all cards from target player’s graveyard.', '{T}: Add {B}.'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Hellkite Tyrant', ['{4}{R}{R}', 'Creature — Dragon', 'Flying, trample', 'Whenever Hellkite Tyrant deals combat damage to a player, gain control of all artifacts that player controls.', 'At the beginning of your upkeep, if you control twenty or more artifacts, you win the game.', '6/5'])</t>
+          <t>('Bold Plagiarist', ['{3}{B}', 'Creature — Vampire Rogue', 'Flash', 'Whenever an opponent puts one or more counters on a creature they control, they put the same number and kind of counters on Bold Plagiarist.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('Ichor Wellspring', ['{2}', 'Artifact', 'When Ichor Wellspring enters the battlefield or is put into a graveyard from the battlefield, draw a card.'])</t>
+          <t>('Boreas Charger', ['{2}{W}', 'Creature — Pegasus', 'Flying', 'When Boreas Charger leaves the battlefield, choose an opponent who controls more lands than you. Search your library for a number of Plains cards equal to the difference and reveal them. Put one of them onto the battlefield tapped and the rest into your hand. Then shuffle your library.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('Laelia, the Blade Reforged', ['{2}{R}', 'Legendary Creature — Spirit Warrior', 'Haste', 'Whenever Laelia, the Blade Reforged attacks, exile the top card of your library. You may play that card this turn.', 'Whenever you exile one or more cards from your library and/or your graveyard, put a +1/+1 counter on Laelia.', '2/2'])</t>
+          <t>('Boros Charm', ['{R}{W}', 'Instant', 'Choose one —', '• Boros Charm deals 4 damage to target player or planeswalker.', '• Permanents you control gain indestructible until end of turn.', '• Target creature gains double strike until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Losheel, Clockwork Scholar', ['{2}{W}', 'Legendary Creature — Elephant Artificer', 'Prevent all combat damage that would be dealt to attacking artifact creatures you control.', 'Whenever one or more artifact creatures enter the battlefield under your control, draw a card. This ability triggers only once each turn.', '2/4'])</t>
+          <t>('Boros Garrison', ['Land', 'Boros Garrison enters the battlefield tapped.', 'When Boros Garrison enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {R}{W}.'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Meteor Golem', ['{7}', 'Artifact Creature — Golem', 'When Meteor Golem enters the battlefield, destroy target nonland permanent an opponent controls.', '3/3'])</t>
+          <t>('Boros Locket', ['{3}', 'Artifact', '{T}: Add {R} or {W}.', '{R/W}{R/W}{R/W}{R/W}, {T}, Sacrifice Boros Locket: Draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('Mind Stone', ['{2}', 'Artifact', '{T}: Add {C}.', '{1}, {T}, Sacrifice Mind Stone: Draw a card.'])</t>
+          <t>('Bosh, Iron Golem', ['{8}', 'Legendary Artifact Creature — Golem', 'Trample', '{3}{R}, Sacrifice an artifact: Bosh, Iron Golem deals damage equal to the sacrificed artifact’s converted mana cost to any target.', '6/7'])</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('Monologue Tax', ['{2}{W}', 'Enchantment', 'Whenever an opponent casts their second spell each turn, you create a Treasure token.'])</t>
+          <t>('Brainstorm', ['{U}', 'Instant', 'Draw three cards, then put two cards from your hand on top of your library in any order.'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('Myr Battlesphere', ['{7}', 'Artifact Creature — Myr Construct', 'When Myr Battlesphere enters the battlefield, create four 1/1 colorless Myr artifact creature tokens.', 'Whenever Myr Battlesphere attacks, you may tap X untapped Myr you control. If you do, Myr Battlesphere gets +X/+0 until end of turn and deals X damage to the player or planeswalker it’s attacking.', '4/7'])</t>
+          <t>("Brass's Bounty", ['{6}{R}', 'Sorcery', 'For each land you control, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Osgir, the Reconstructor', ['{2}{R}{W}', 'Legendary Creature — Giant Artificer', 'Vigilance', '{1}, Sacrifice an artifact: Target creature you control gets +2/+0 until end of turn.', '{X}, {T}, Exile an artifact with mana value X from your graveyard: Create two tokens that are copies of the exiled card. Activate only as a sorcery.', '4/4'])</t>
+          <t>('Breena, the Demagogue', ['{1}{W}{B}', 'Legendary Creature — Bird Warlock', 'Flying', 'Whenever a player attacks one of your opponents, if that opponent has more life than another of your opponents, that attacking player draws a card and you put two +1/+1 counters on a creature you control.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Ruin Grinder', ['{5}{R}', 'Artifact Creature — Construct', 'Menace', 'When Ruin Grinder dies, each player may discard their hand and draw seven cards.', 'Mountaincycling {2} ({2}, Discard this card: Search your library for a Mountain card. Reveal it, put it into your hand, then shuffle.)', '7/4'])</t>
+          <t>('Bronze Guardian', ['{4}{W}', 'Artifact Creature — Golem', 'Double strike', 'Ward {2} (Whenever this creature becomes the target of a spell or ability an opponent controls, counter it unless that player pays {2}.)', 'Other artifacts you control have ward {2}.', 'Bronze Guardian’s power is equal to the number of artifacts you control.', '*/5'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Sculpting Steel', ['{3}', 'Artifact', 'You may have Sculpting Steel enter the battlefield as a copy of any artifact on the battlefield.'])</t>
+          <t>('Burnished Hart', ['{3}', 'Artifact Creature — Elk', '{3}, Sacrifice Burnished Hart: Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Solemn Simulacrum', ['{4}', 'Artifact Creature — Golem', 'When Solemn Simulacrum enters the battlefield, you may search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.', 'When Solemn Simulacrum dies, you may draw a card.', '2/2'])</t>
+          <t>('Call the Skybreaker', ['{5}{U/R}{U/R}', 'Sorcery', 'Create a 5/5 blue and red Elemental creature token with flying.', 'Retrace (You may cast this card from your graveyard by discarding a land card in addition to paying its other costs.)'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Sol Ring', ['{1}', 'Artifact', '{T}: Add {C}{C}.'])</t>
+          <t>('Caves of Koilos', ['Land', '{T}: Add {C}.', '{T}: Add {W} or {B}. Caves of Koilos deals 1 damage to you.'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Steel Hellkite', ['{6}', 'Artifact Creature — Dragon', 'Flying', '{2}: Steel Hellkite gets +1/+0 until end of turn.', '{X}: Destroy each nonland permanent with converted mana cost X whose controller was dealt combat damage by Steel Hellkite this turn. Activate this ability only once each turn.', '5/5'])</t>
+          <t>('Chain Reaction', ['{2}{R}{R}', 'Sorcery', 'Chain Reaction deals X damage to each creature, where X is the number of creatures on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Steel Overseer', ['{2}', 'Artifact Creature — Construct', '{T}: Put a +1/+1 counter on each artifact creature you control.', '1/1'])</t>
+          <t>('Champion of Wits', ['{2}{U}', 'Creature — Naga Wizard', 'When Champion of Wits enters the battlefield, you may draw cards equal to its power. If you do, discard two cards.', 'Eternalize {5}{U}{U} ({5}{U}{U}, Exile this card from your graveyard: Create a token that’s a copy of it, except it’s a 4/4 black Zombie Naga Wizard with no mana cost. Eternalize only as a sorcery.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Study Hall', ['Land', '{T}: Add {C}.', '{1}, {T}: Add one mana of any color. When you spend this mana to cast your commander, scry X, where X is the number of times it’s been cast from the command zone this game.'])</t>
+          <t>('Charmbreaker Devils', ['{5}{R}', 'Creature — Devil', 'At the beginning of your upkeep, return an instant or sorcery card at random from your graveyard to your hand.', 'Whenever you cast an instant or sorcery spell, Charmbreaker Devils gets +4/+0 until end of turn.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Thopter Engineer', ['{2}{R}', 'Creature — Human Artificer', 'When Thopter Engineer enters the battlefield, create a 1/1 colorless Thopter artifact creature token with flying.', 'Artifact creatures you control have haste. (They can attack and {T} as soon as they come under your control.)', '1/3'])</t>
+          <t>('Citadel Siege', ['{2}{W}{W}', 'Enchantment', 'As Citadel Siege enters the battlefield, choose Khans or Dragons.', '• Khans — At the beginning of combat on your turn, put two +1/+1 counters on target creature you control.', '• Dragons — At the beginning of combat on each opponent’s turn, tap target creature that player controls.'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Thousand-Year Elixir', ['{3}', 'Artifact', 'You may activate abilities of creatures you control as though those creatures had haste.', '{1}, {T}: Untap target creature.'])</t>
+          <t>('Cleansing Nova', ['{3}{W}{W}', 'Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all artifacts and enchantments.'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Triplicate Titan', ['{9}', 'Artifact Creature — Golem', 'Flying, vigilance, trample', 'When Triplicate Titan dies, create a 3/3 colorless Golem artifact creature token with flying, a 3/3 colorless Golem artifact creature token with vigilance, and a 3/3 colorless Golem artifact creature token with trample.', '9/9'])</t>
+          <t>('Coiling Oracle', ['{G}{U}', 'Creature — Snake Elf Druid', 'When Coiling Oracle enters the battlefield, reveal the top card of your library. If it’s a land card, put it onto the battlefield. Otherwise, put that card into your hand.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Wake the Past', ['{5}{R}{W}', 'Sorcery', 'Return all artifact cards from your graveyard to the battlefield. They gain haste until end of turn.'])</t>
+          <t>('Combat Calligrapher', ['{3}{W}', 'Creature — Bird Cleric', 'Flyinh', 'Inklings can’t attack you or planeswalkers you control.', 'Whenever a player attacks one of your opponents, that attacking player creates a tapped 2/1 white and black Inkling creature token with flying that’s attacking that opponent.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Willowdusk, Essence Seer', ['{1}{B}{G}', 'Legendary Creature — Dryad Druid', '{1}, {T}: Choose another target creature. Put a number of +1/+1 counters on it equal to the amount of life you gained this turn or the amount of life you lost this turn, whichever is greater. Activate only as a sorcery.', '3/3'])</t>
+          <t>('Combustible Gearhulk', ['{4}{R}{R}', 'Artifact Creature — Construct', 'First strike', 'When Combustible Gearhulk enters the battlefield, target opponent may have you draw three cards. If the player doesn’t, you mill three cards, then Combustible Gearhulk deals damage to that player equal to the total converted mana cost of those cards.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>("Commander's Insight", ['{X}{U}{U}{U}', 'Instant', 'Target player draws X cards plus an additional card for each time they’ve cast a commander from the command zone this game.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>("Commander's Sphere", ['{3}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.', 'Sacrifice Commander’s Sphere: Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>('Coveted Jewel', ['{6}', 'Artifact', 'When Coveted Jewel enters the battlefield, draw three cards.', '{T}: Add three mana of any one color.', 'Whenever one or more creatures an opponent controls attack you and aren’t blocked, that player draws three cards and gains control of Coveted Jewel. Untap it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>('Crackling Drake', ['{U}{U}{R}{R}', 'Creature — Drake', 'Flying', 'Crackling Drake’s power is equal to the total number of instant and sorcery cards you own in exile and in your graveyard.', 'When Crackling Drake enters the battlefield, draw a card.', '*/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>('Crafty Cutpurse', ['{3}{U}', 'Creature — Human Pirate', 'Flash', 'When Crafty Cutpurse enters the battlefield, each token that would be created under an opponent’s control this turn is created under your control instead.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>('Creative Technique', ['{4}{R}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it.)', 'Shuffle your library, then reveal cards from the top of it until you reveal a nonland card. Exile that card and put the rest on the bottom of your library in a random order. You may cast the exiled card without paying its mana cost.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>('Cunning Rhetoric', ['{2}{B}', 'Enchantment', 'Whenever an opponent attacks you and/or one or more planeswalkers you control, exile the top card of that player’s library. You may play that card for as long as it remains exiled, and you may spend mana as though it were mana of any color to cast it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>('Curiosity Crafter', ['{3}{U}', 'Creature — Bird Wizard', 'Flying', 'You have no maximum hand size.', 'Whenever a creature token you control deals combat damage to a player, draw a card.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>('Cursed Mirror', ['{2}{R}', 'Artifact', '{T}: Add {R}.', 'As Cursed Mirror enters the battlefield, you may have it become a copy of any creature on the battlefield until end of turn, except it has haste.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>('Curse of Disturbance', ['{2}{B}', 'Enchantment — Aura Curse', 'Enchant player', 'Whenever enchanted player is attacked, create a 2/2 black Zombie creature token. Each opponent attacking that player does the same.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>('Curse of the Swine', ['{X}{U}{U}', 'Sorcery', 'Exile X target creatures. For each creature exiled this way, its controller creates a 2/2 green Boar creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>('Daretti, Scrap Savant', ['{3}{R}', 'Legendary Planeswalker — Daretti', '+2: Discard up to two cards, then draw that many cards.', '−2: Sacrifice an artifact. If you do, return target artifact card from your graveyard to the battlefield.', '−10: You get an emblem with “Whenever an artifact is put into your graveyard from the battlefield, return that card to the battlefield at the beginning of the next end step.”', 'Daretti, Scrap Savant can be your commander.', 'Loyalty: 3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>('Darksteel Citadel', ['Artifact Land', 'Indestructible', '{T}: Add {C}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>('Darksteel Mutation', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature is an Insect artifact creature with base power and toughness 0/1 and has indestructible, and it loses all other abilities, card types, and creature types.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>('Dazzling Sphinx', ['{3}{U}{U}', 'Creature — Sphinx', 'Flying', 'Whenever Dazzling Sphinx deals combat damage to a player, that player exiles cards from the top of their library until they exile an instant or sorcery card. You may cast that card without paying its mana cost. Then that player puts the exiled cards that weren’t cast this way on the bottom of their library in a random order.', '4/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>('Deathbringer Liege', ['{2}{W/B}{W/B}{W/B}', 'Creature — Horror', 'Other white creatures you control get +1/+1.', 'Other black creatures you control get +1/+1.', 'Whenever you cast a white spell, you may tap target creature.', 'Whenever you cast a black spell, you may destroy target creature if it’s tapped.', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>('Deathbringer Regent', ['{5}{B}{B}', 'Creature — Dragon', 'Flying', 'When Deathbringer Regent enters the battlefield, if you cast it from your hand and there are five or more other creatures on the battlefield, destroy all other creatures.', '5/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>("Debtors' Knell", ['{4}{W/B}{W/B}{W/B}', 'Enchantment', '({W/B} can be paid with either {W} or {B}.)', 'At the beginning of your upkeep, put target creature card from a graveyard onto the battlefield under your control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>('Deekah, Fractal Theorist', ['{4}{U}', 'Legendary Creature — Human Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is that spell’s mana value.', '{3}{U}: Target creature token can’t be blocked this turn.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>('Desert of the Fervent', ['Land — Desert', 'Desert of the Fervent enters the battlefield tapped.', '{T}: Add {R}.', 'Cycling {1}{R} ({1}{R}, Discard this card: Draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>('Desert of the Mindful', ['Land — Desert', 'Desert of the Mindful enters the battlefield tapped.', '{T}: Add {U}.', 'Cycling {1}{U} ({1}{U}, Discard this card: Draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>('Desolation Twin', ['{10}', 'Creature — Eldrazi', 'When you cast this spell, create a 10/10 colorless Eldrazi creature token.', '10/10'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>('Digsite Engineer', ['{2}{W}', 'Creature — Dwarf Artificer', 'Whenever you cast an artifact spell, you may pay {2}. If you do, create a 0/0 colorless Construct artifact creature token with “This creature gets +1/+1 for each artifact you control.”', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>('Dig Through Time', ['{6}{U}{U}', 'Instant', 'Delve (Each card you exile from your graveyard while casting this spell pays for {1}.)', 'Look at the top seven cards of your library. Put two of them into your hand and the rest on the bottom of your library in any order.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>('Diluvian Primordial', ['{5}{U}{U}', 'Creature — Avatar', 'Flying', 'When Diluvian Primordial enters the battlefield, for each opponent, you may cast up to one target instant or sorcery card from that player’s graveyard without paying its mana cost. If a spell cast this way would be put into a graveyard this turn, exile it instead.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>('Dispatch', ['{W}', 'Instant', 'Tap target creature.', 'Metalcraft — If you control three or more artifacts, exile that creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>("Dispeller's Capsule", ['{W}', 'Artifact', '{2}{W}, {T}, Sacrifice Dispeller’s Capsule: Destroy target artifact or enchantment.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>('Dualcaster Mage', ['{1}{R}{R}', 'Creature — Human Wizard', 'Flash', 'When Dualcaster Mage enters the battlefield, copy target instant or sorcery spell. You may choose new targets for the copy.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>("Duelist's Heritage", ['{2}{W}', 'Enchantment', 'Whenever one or more creatures attack, you may have target attacking creature gain double strike until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>('Duplicant', ['{6}', 'Artifact Creature — Shapeshifter', 'Imprint — When Duplicant enters the battlefield, you may exile target nontoken creature.', 'As long as a card exiled with Duplicant is a creature card, Duplicant has the power, toughness, and creature types of the last creature card exiled with Duplicant. It’s still a Shapeshifter.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>("Elementalist's Palette", ['{3}', 'Artifact', 'Whenever you cast a spell with {X} in its mana cost, put two charge counters on Elementalist’s Palette.', '{T}: Add one mana of any color.', '{T}: Add {C} for each charge counter on Elementalist’s Palette. Spend this mana only on costs that contain {X}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>('Elite Scaleguard', ['{4}{W}', 'Creature — Human Soldier', 'When Elite Scaleguard enters the battlefield, bolster 2. (Choose a creature with the least toughness among creatures you control and put two +1/+1 counters on it.)', 'Whenever a creature you control with a +1/+1 counter on it attacks, tap target creature defending player controls.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>('Epic Experiment', ['{X}{U}{R}', 'Sorcery', 'Exile the top X cards of your library. You may cast instant and sorcery spells with converted mana cost X or less from among them without paying their mana costs. Then put all cards exiled this way that weren’t cast into your graveyard.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>('Erratic Cyclops', ['{3}{R}', 'Creature — Cyclops Shaman', 'Trample', 'Whenever you cast an instant or sorcery spell, Erratic Cyclops gets +X/+0 until end of turn, where X is that spell’s converted mana cost.', '0/8'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>('Esix, Fractal Bloom', ['{4}{G}{U}', 'Legendary Creature — Fractal', 'Flying', 'The first time you would create one or more tokens during each of your turns, you may instead choose a creature other than Esix, Fractal Bloom and create that many tokens that are copies of that creature.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>('Essence Pulse', ['{3}{B}', 'Sorcery', 'You gain 2 life. Each creature gets -X/-X until end of turn, where X is the amount of life you gained this turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>('Etali, Primal Storm', ['{4}{R}{R}', 'Legendary Creature — Elder Dinosaur', 'Whenever Etali, Primal Storm attacks, exile the top card of each player’s library, then you may cast any number of spells from among those cards without paying their mana costs.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>('Excavation Technique', ['{3}{W}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Destroy target nonland permanent. Its controller creates two Treasure tokens.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>("Ezuri's Predation", ['{5}{G}{G}{G}', 'Sorcery', 'For each creature your opponents control, create a 4/4 green Beast creature token. Each of those Beasts fights a different one of those creatures.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>('Ezzaroot Channeler', ['{5}{G}', 'Creature — Treefolk Druid', 'Reach', 'Creature spells you cast cost {X} less to cast, where X is the amount of life you gained this turn.', '{T}: You gain 2 life.', '4/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>('Fain, the Broker', ['{2}{B}', 'Legendary Creature — Human Warlock', '{T}, Sacrifice a creature: Put two +1/+1 counters on target creature.', '{T}, Remove a counter from a creature you control: Create a Treasure token.', '{T}, Sacrifice an artifact: Create a 2/1 white and black Inkling creature token with flying.', '{3}{B}: Untap Fain, the Broker.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>('Faithless Looting', ['{R}', 'Sorcery', 'Draw two cards, then discard two cards.', 'Flashback {2}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>('Feldon of the Third Path', ['{1}{R}{R}', 'Legendary Creature — Human Artificer', '{2}{R}, {T}: Create a token that’s a copy of target creature card in your graveyard, except it’s an artifact in addition to its other types. It gains haste. Sacrifice it at the beginning of the next end step.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>('Felisa, Fang of Silverquill', ['{2}{W}{B}', 'Legendary Creature — Vampire Wizard', 'Flying', 'Mentor (Whenever this creature attacks, put a +1/+1 counter on target attacking creature with lesser power.)', 'Whenever a nontoken creature you control dies, if it had counters on it, create X tapped 2/1 white and black Inkling creature tokens with flying, where X is the number of counters it had on it.', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>('Fiery Encore', ['{4}{R}', 'Sorcery', 'Discard a card, then draw a card. When you discard a nonland card this way, Fiery Encore deals damage equal to that card’s mana value to target creature or planeswalker.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>('Fiery Fall', ['{5}{R}', 'Instant', 'Fiery Fall deals 5 damage to target creature.', 'Basic landcycling {1}{R} ({1}{R}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>('Forgotten Ancient', ['{3}{G}', 'Creature — Elemental', 'Whenever a player casts a spell, you may put a +1/+1 counter on Forgotten Ancient.', 'At the beginning of your upkeep, you may move any number of +1/+1 counters from Forgotten Ancient onto other creatures.', '0/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>('Fractal Harness', ['{X}{2}{G}', 'Artifact — Equipment', 'When Fractal Harness enters the battlefield, create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it and attach Fractal Harness to it.', 'Whenever equipped creature attacks, double the number of +1/+1 counters on it.', 'Equip {2}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>('Garruk, Primal Hunter', ['{2}{G}{G}{G}', 'Legendary Planeswalker — Garruk', '+1: Create a 3/3 green Beast creature token.', '−3: Draw cards equal to the greatest power among creatures you control.', '−6: Create a 6/6 green Wurm creature token for each land you control.', 'Loyalty: 3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>('Geometric Nexus', ['{2}', 'Artifact', 'Whenever a player casts an instant or sorcery spell, put a number of charge counters on Geometric Nexus equal to that spell’s mana value.', '{6}, {T}, Remove all charge counters from Geometric Nexus: Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is the number of charge counters removed this way.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>('Ghostly Prison', ['{2}{W}', 'Enchantment', 'Creatures can’t attack you unless their controller pays {2} for each creature they control that’s attacking you.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>('Gideon, Champion of Justice', ['{2}{W}{W}', 'Legendary Planeswalker — Gideon', '+1: Put a loyalty counter on Gideon, Champion of Justice for each creature target opponent controls.', '0: Until end of turn, Gideon, Champion of Justice becomes a Human Soldier creature with power and toughness each equal to the number of loyalty counters on him and gains indestructible. He’s still a planeswalker. Prevent all damage that would be dealt to him this turn.', '−15: Exile all other permanents.', 'Loyalty: 4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>('Great Furnace', ['Artifact Land', '{T}: Add {R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>('Guardian Archon', ['{4}{W}{W}', 'Creature — Archon', 'Flying', 'As Guardian Archon enters the battlefield, secretly choose an opponent.', 'Reveal the player you chose: You and target permanent you control each gain protection from the chosen player until end of turn. Activate only once.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>('Guardian Augmenter', ['{2}{G}', 'Creature — Troll Wizard', 'Flash', 'Commander creatures you control get +2/+2.', 'Commanders you control have hexproof.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>('Gyome, Master Chef', ['{2}{B}{G}', 'Legendary Creature — Troll Warlock', 'Trample', 'At the beginning of your end step, create a number of Food tokens equal to the number of nontoken creatures you had enter the battlefield under your control this turn.', '{1}, Sacrifice a Food: Target creature gains indestructible until end of turn. Tap it.', '5/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>('Healing Technique', ['{3}{G}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Return target card from your graveyard to your hand. You gain life equal to that card’s mana value. Exile Healing Technique.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>('Hedron Archive', ['{4}', 'Artifact', '{T}: Add {C}{C}.', '{2}, {T}, Sacrifice Hedron Archive: Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>('Hellkite Igniter', ['{5}{R}{R}', 'Creature — Dragon', 'Flying, haste', '{1}{R}: Hellkite Igniter gets +X/+0 until end of turn, where X is the number of artifacts you control.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>('Hellkite Tyrant', ['{4}{R}{R}', 'Creature — Dragon', 'Flying, trample', 'Whenever Hellkite Tyrant deals combat damage to a player, gain control of all artifacts that player controls.', 'At the beginning of your upkeep, if you control twenty or more artifacts, you win the game.', '6/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>('Hoard-Smelter Dragon', ['{4}{R}{R}', 'Creature — Dragon', 'Flying', '{3}{R}: Destroy target artifact. Hoard-Smelter Dragon gets +X/+0 until end of turn, where X is that artifact’s converted mana cost.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>('Hornet Nest', ['{2}{G}', 'Creature — Insect', 'Defender (This creature can’t attack.)', 'Whenever Hornet Nest is dealt damage, create that many 1/1 green Insect creature tokens with flying and deathtouch. (Any amount of damage a creature with deathtouch deals to a creature is enough to destroy it.)', '0/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>('Hornet Queen', ['{4}{G}{G}{G}', 'Creature — Insect', 'Flying', 'Deathtouch (Any amount of damage this deals to a creature is enough to destroy it.)', 'When Hornet Queen enters the battlefield, create four 1/1 green Insect creature tokens with flying and deathtouch.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>('Humble Defector', ['{1}{R}', 'Creature — Human Rogue', '{T}: Draw two cards. Target opponent gains control of Humble Defector. Activate this ability only during your turn.', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>('Hunted Lammasu', ['{2}{W}{W}', 'Creature — Lammasu', 'Flying', 'When Hunted Lammasu enters the battlefield, target opponent creates a 4/4 black Horror creature token.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>('Hydra Broodmaster', ['{4}{G}{G}', 'Creature — Hydra', '{X}{X}{G}: Monstrosity X. (If this creature isn’t monstrous, put X +1/+1 counters on it and it becomes monstrous.)', 'When Hydra Broodmaster becomes monstrous, create X X/X green Hydra creature tokens.', '7/7'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>('Ichor Wellspring', ['{2}', 'Artifact', 'When Ichor Wellspring enters the battlefield or is put into a graveyard from the battlefield, draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>('Idol of Oblivion', ['{2}', 'Artifact', '{T}: Draw a card. Activate this ability only if you created a token this turn.', '{8}, {T}, Sacrifice Idol of Oblivion: Create a 10/10 colorless Eldrazi creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>('Incarnation Technique', ['{4}{B}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it.)', 'Mill five cards, then return a creature card from your graveyard to the battlefield.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>('Incubation Druid', ['{1}{G}', 'Creature — Elf Druid', '{T}: Add one mana of any type that a land you control could produce. If Incubation Druid has a +1/+1 counter on it, add three mana of that type instead.', '{3}{G}{G}: Adapt 3. (If this creature has no +1/+1 counters on it, put three +1/+1 counters on it.)', '0/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>('Incubation', ['{G/U}', 'Sorcery', 'Look at the top five cards of your library. You may reveal a creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', 'Incongruity', '{1}{G}{U}', 'Instant', 'Exile target creature. That creature’s controller creates a 3/3 green Frog Lizard creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>('Infernal Offering', ['{4}{B}', 'Sorcery', 'Choose an opponent. You and that player each sacrifice a creature. Each player who sacrificed a creature this way draws two cards.', 'Choose an opponent. Return a creature card from your graveyard to the battlefield, then that player returns a creature card from their graveyard to the battlefield.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>('Inferno Project', ['{6}{R}', 'Creature — Elemental', 'Trample', 'Inferno Project enters the battlefield with X +1/+1 counters on it, where X is the total mana value of instant and sorcery cards in your graveyard.', '0/0'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>('Inkshield', ['{3}{W}{B}', 'Instant', 'Prevent all combat damage that would be dealt to you this turn. For each 1 damage prevented this way, create a 2/1 white and black Inkling creature token with flying.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>('Inspiring Refrain', ['{4}{U}{U}', 'Sorcery', 'Draw two cards. Exile Inspiring Refrain with three time counters on it.', 'Suspend 3—{2}{U} (Rather than cast this card from your hand, pay {2}{U} and exile it with four time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>('Izzet Boilerworks', ['Land', 'Izzet Boilerworks enters the battlefield tapped.', 'When Izzet Boilerworks enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {U}{R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>('Izzet Signet', ['{2}', 'Artifact', '{1}, {T}: Add {U}{R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>('Jaya Ballard', ['{2}{R}{R}{R}', 'Legendary Planeswalker — Jaya', '+1: Add {R}{R}{R}. Spend this mana only to cast instant or sorcery spells.', '+1: Discard up to three cards, then draw that many cards.', '−8: You get an emblem with “You may cast instant and sorcery spells from your graveyard. If a spell cast this way would be put into your graveyard, exile it instead.”', 'Loyalty: 5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>('Jor Kadeen, the Prevailer', ['{3}{R}{W}', 'Legendary Creature — Human Warrior', 'First strike', 'Metalcraft — Creatures you control get +3/+0 as long as you control three or more artifacts.', '5/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>('Kaseto, Orochi Archmage', ['{1}{G}{U}', 'Legendary Creature — Snake Wizard', '{G}{U}: Target creature can’t be blocked this turn. If that creature is a Snake, it gets +2/+2 until end of turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>('Kazandu Tuskcaller', ['{1}{G}', 'Creature — Human Shaman', 'Level up {1}{G} ({1}{G}: Put a level counter on this. Level up only as a sorcery.)', 'LEVEL 2-5', '1/1', '{T}: Create a 3/3 green Elephant creature token.', 'LEVEL 6+', '1/1', '{T}: Create two 3/3 green Elephant creature tokens.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>('Keen Duelist', ['{1}{B}', 'Creature — Human Wizard', 'At the beginning of your upkeep, you and target opponent each reveal the top card of your library. You each lose life equal to the mana value of the card revealed by the other player. You each put the card you revealed into your hand.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>('Key to the City', ['{2}', 'Artifact', '{T}, Discard a card: Up to one target creature can’t be blocked this turn.', 'Whenever Key to the City becomes untapped, you may pay {2}. If you do, draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>('Knight of the White Orchid', ['{W}{W}', 'Creature — Human Knight', 'First strike', 'When Knight of the White Orchid enters the battlefield, if an opponent controls more lands than you, you may search your library for a Plains card, put it onto the battlefield, then shuffle your library.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>("Kodama's Reach", ['{2}{G}', 'Sorcery — Arcane', 'Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>('Krosan Grip', ['{2}{G}', 'Instant', 'Split second (As long as this spell is on the stack, players can’t cast spells or activate abilities that aren’t mana abilities.)', 'Destroy target artifact or enchantment.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>('Laelia, the Blade Reforged', ['{2}{R}', 'Legendary Creature — Spirit Warrior', 'Haste', 'Whenever Laelia, the Blade Reforged attacks, exile the top card of your library. You may play that card this turn.', 'Whenever you exile one or more cards from your library and/or your graveyard, put a +1/+1 counter on Laelia.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>('Living Lore', ['{3}{U}', 'Creature — Avatar', 'As Living Lore enters the battlefield, exile an instant or sorcery card from your graveyard.', 'Living Lore’s power and toughness are each equal to the exiled card’s converted mana cost.', 'Whenever Living Lore deals combat damage, you may sacrifice it. If you do, you may cast the exiled card without paying its mana cost.', '*/*'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>('Llanowar Reborn', ['Land', 'Llanowar Reborn enters the battlefield tapped.', '{T}: Add {G}.', 'Graft 1 (This land enters the battlefield with a +1/+1 counter on it. Whenever a creature enters the battlefield, you may move a +1/+1 counter from this land onto it.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>('Losheel, Clockwork Scholar', ['{2}{W}', 'Legendary Creature — Elephant Artificer', 'Prevent all combat damage that would be dealt to attacking artifact creatures you control.', 'Whenever one or more artifact creatures enter the battlefield under your control, draw a card. This ability triggers only once each turn.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>('Lumbering Falls', ['Land', 'Lumbering Falls enters the battlefield tapped.', '{T}: Add {G} or {U}.', '{2}{G}{U}: Lumbering Falls becomes a 3/3 green and blue Elemental creature with hexproof until end of turn. It’s still a land.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>('Mage-Ring Network', ['Land', '{T}: Add {C}.', '{1}, {T}: Put a storage counter on Mage-Ring Network.', '{T}, Remove any number of storage counters from Mage-Ring Network: Add {C} for each storage counter removed this way.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>('Magister of Worth', ['{4}{W}{B}', 'Creature — Angel', 'Flying', 'Will of the council — When Magister of Worth enters the battlefield, starting with you, each player votes for grace or condemnation. If grace gets more votes, each player returns each creature card from their graveyard to the battlefield. If condemnation gets more votes or the vote is tied, destroy all creatures other than Magister of Worth.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>('Mana Geyser', ['{3}{R}{R}', 'Sorcery', 'Add {R} for each tapped land your opponents control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>('Managorger Hydra', ['{2}{G}', 'Creature — Hydra', 'Trample', 'Whenever a player casts a spell, put a +1/+1 counter on Managorger Hydra.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>('Marshland Bloodcaster', ['{4}{B}', 'Creature — Vampire Warlock', 'Flying', '{1}{B}, {T}: Rather than pay the mana cost of the next spell you cast this turn, you may pay life equal to that spell’s mana value.', '3/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>('Martial Impetus', ['{2}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +1/+1 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', 'Whenever enchanted creature attacks, each other creature that’s attacking one of your opponents gets +1/+1 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>('Master Biomancer', ['{2}{G}{U}', 'Creature — Elf Wizard', 'Each other creature you control enters the battlefield with a number of additional +1/+1 counters on it equal to Master Biomancer’s power and as a Mutant in addition to its other types.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>('Memorial to Genius', ['Land', 'Memorial to Genius enters the battlefield tapped.', '{T}: Add {U}.', '{4}{U}, {T}, Sacrifice Memorial to Genius: Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>('Metallurgic Summonings', ['{3}{U}{U}', 'Enchantment', 'Whenever you cast an instant or sorcery spell, create an X/X colorless Construct artifact creature token, where X is that spell’s converted mana cost.', '{3}{U}{U}, Exile Metallurgic Summonings: Return all instant and sorcery cards from your graveyard to your hand. Activate this ability only if you control six or more artifacts.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>('Meteor Golem', ['{7}', 'Artifact Creature — Golem', 'When Meteor Golem enters the battlefield, destroy target nonland permanent an opponent controls.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>('Mikokoro, Center of the Sea', ['Legendary Land', '{T}: Add {C}.', '{2}, {T}: Each player draws a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>('Mind Stone', ['{2}', 'Artifact', '{T}: Add {C}.', '{1}, {T}, Sacrifice Mind Stone: Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>('Monologue Tax', ['{2}{W}', 'Enchantment', 'Whenever an opponent casts their second spell each turn, you create a Treasure token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>('Mosswort Bridge', ['Land', 'Hideaway (This land enters the battlefield tapped. When it does, look at the top four cards of your library, exile one face down, then put the rest on the bottom of your library.)', '{T}: Add {G}.', '{G}, {T}: You may play the exiled card without paying its mana cost if creatures you control have total power 10 or greater.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>('Muse Vortex', ['{X}{U}{U}', 'Sorcery', 'Exile the top X cards of your library. You may cast an instant or sorcery spell with mana value X or less from among them without paying its mana cost. Then put the exiled instant or sorcery cards that weren’t cast this way into your hand the rest on the bottom of your library in a random order.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>('Mycosynth Wellspring', ['{2}', 'Artifact', 'When Mycosynth Wellspring enters the battlefield or is put into a graveyard from the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>('Myr Battlesphere', ['{7}', 'Artifact Creature — Myr Construct', 'When Myr Battlesphere enters the battlefield, create four 1/1 colorless Myr artifact creature tokens.', 'Whenever Myr Battlesphere attacks, you may tap X untapped Myr you control. If you do, Myr Battlesphere gets +X/+0 until end of turn and deals X damage to the player or planeswalker it’s attacking.', '4/7'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>('Naru Meha, Master Wizard', ['{2}{U}{U}', 'Legendary Creature — Human Wizard', 'Flash', 'When Naru Meha, Master Wizard enters the battlefield, copy target instant or sorcery spell you control. You may choose new targets for the copy.', 'Other Wizards you control get +1/+1.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>('Necropolis Regent', ['{3}{B}{B}{B}', 'Creature — Vampire', 'Flying', 'Whenever a creature you control deals combat damage to a player, put that many +1/+1 counters on it.', '6/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>('Nils, Discipline Enforcer', ['{2}{W}', 'Legendary Creature — Human Cleric', 'At the beginning of your end step, for each player, put a +1/+1 counter on up to one target creature that player controls.', 'Each creature with one or more counters on it can’t attack you or planeswalkers you control unless its controller pays {X}, where X is the number of counters on that creature.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>("Nissa's Expedition", ['{4}{G}', 'Sorcery', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>('Novijen, Heart of Progress', ['Land', '{T}: Add {C}.', '{G}{U}, {T}: Put a +1/+1 counter on each creature that entered the battlefield this turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>('Oblation', ['{2}{W}', 'Instant', 'The owner of target nonland permanent shuffles it into their library, then draws two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>('Octavia, Living Thesis', ['{8}{U}{U}', 'Legendary Creature — Elemental Octopus', 'This spell costs {8} less to cast if you have eight or more instant and/or sorcery cards in your graveyard.', 'Ward {8}', 'Magecraft — Whenever you cast an instant or sorcery spell, target creature has base power and toughness 8/8 until end of turn.', '8/8'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>('Oran-Rief, the Vastwood', ['Land', 'Oran-Rief, the Vastwood enters the battlefield tapped.', '{T}: Add {G}.', '{T}: Put a +1/+1 counter on each green creature that entered the battlefield this turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>('Oreskos Explorer', ['{1}{W}', 'Creature — Cat Scout', 'When Oreskos Explorer enters the battlefield, search your library for up to X Plains cards, where X is the number of players who control more lands than you. Reveal those cards, put them into your hand, then shuffle your library.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>('Orzhov Advokist', ['{2}{W}', 'Creature — Human Advisor', 'At the beginning of your upkeep, each player may put two +1/+1 counters on a creature they control. If a player does, creatures that player controls can’t attack you or a planeswalker you control until your next turn.', '1/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>('Orzhov Basilica', ['Land', 'Orzhov Basilica enters the battlefield tapped.', 'When Orzhov Basilica enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {W}{B}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>('Orzhov Signet', ['{2}', 'Artifact', '{1}, {T}: Add {W}{B}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>('Osgir, the Reconstructor', ['{2}{R}{W}', 'Legendary Creature — Giant Artificer', 'Vigilance', '{1}, Sacrifice an artifact: Target creature you control gets +2/+0 until end of turn.', '{X}, {T}, Exile an artifact with mana value X from your graveyard: Create two tokens that are copies of the exiled card. Activate only as a sorcery.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>('Oversimplify', ['{3}{G}{U}', 'Sorcery', 'Exile all creatures. Each player creates a 0/0 green and blue Fractal creature token and puts a number of +1/+1 counters on it equal to the total power of creatures they controlled that were exiled this way.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>('Paradox Zone', ['{4}{G}', 'Enchantment', 'Paradox Zone enters the battlefield with a growth counter on it.', 'At the beginning of your end step, double the number of growth counters on Paradox Zone. Then create a 0/0 blue and green Fractal creature token. Put X +1/+1 counters on it, where X is the number of growth counters on Paradox Zone.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>('Parasitic Impetus', ['{2}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', 'Whenever enchanted creature attacks, its controller loses 2 life and you gain 2 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>('Pendant of Prosperity', ['{3}', 'Artifact', 'Pendant of Prosperity enters the battlefield under the control of an opponent of your choice.', '{2}, {T}: Draw a card, then you may put a land card from your hand onto the battlefield. Pendant of Prosperity’s owner draws a card, then that player may put a land card from their hand onto the battlefield.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>('Perplexing Test', ['{3}{U}{U}', 'Instant', 'Choose one —', '• Return all creature tokens to their owners’ hands.', '• Return all nontoken creatures to their owners’ hands.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>('Pest Infestation', ['{X}{X}{G}', 'Sorcery', 'Destroy up to X target artifacts and/or enchantments. Create twice X 1/1 black and green Pest creature tokens with “When this creature dies, you gain 1 life.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>("Phyrexia's Core", ['Land', '{T}: Add {C}.', '{1}, {T}, Sacrifice an artifact: You gain 1 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>('Pia Nalaar', ['{2}{R}', 'Legendary Creature — Human Artificer', 'When Pia Nalaar enters the battlefield, create a 1/1 colorless Thopter artifact creature token with flying.', '{1}{R}: Target artifact creature gets +1/+0 until end of turn.', '{1}, Sacrifice an artifact: Target creature can’t block this turn.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>("Pilgrim's Eye", ['{3}', 'Artifact Creature — Thopter', 'Flying', 'When Pilgrim’s Eye enters the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>('Plaxcaster Frogling', ['{1}{G}{U}', 'Creature — Frog Mutant', 'Graft 3 (This creature enters the battlefield with three +1/+1 counters on it. Whenever another creature enters the battlefield, you may move a +1/+1 counter from this creature onto it.)', '{2}: Target creature with a +1/+1 counter on it gains shroud until end of turn. (It can’t be the target of spells or abilities.)', '0/0'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>('Ponder', ['{U}', 'Sorcery', 'Look at the top three cards of your library, then put them back in any order. You may shuffle your library.', 'Draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>('Primal Empathy', ['{1}{G}{U}', 'Enchantment', 'At the beginning of your upkeep, draw a card if you control a creature with the greatest power among creatures on the battlefield. Otherwise, put a +1/+1 counter on a creature you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>('Promise of Loyalty', ['{4}{W}', 'Sorcery', 'Each player puts a vow counter on a creature they control and sacrifices the rest. Each of those creatures can’t attack you for as long as it has a vow counter on it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>("Pyromancer's Goggles", ['{5}', 'Legendary Artifact', '{T}: Add {R}. When that mana is spent to cast a red instant or sorcery spell, copy that spell and you may choose new targets for the copy.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>('Quicksmith Genius', ['{2}{R}', 'Creature — Human Artificer', 'Whenever an artifact enters the battlefield under your control, you may discard a card. If you do, draw a card.', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>('Radiant Performer', ['{3}{R}{R}', 'Creature — Human Wizard', 'Flash', 'When Radiant Performer enters the battlefield, if you cast it from your hand, choose target spell or ability that targets only a single permanent or player. Copy that spell or ability for each other permanent or player the spell or ability could target. Each copy targets a different one of those permanents and players.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>('Rampaging Baloths', ['{4}{G}{G}', 'Creature — Beast', 'Trample', 'Landfall — Whenever a land enters the battlefield under your control, you may create a 4/4 green Beast creature token.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>('Rapid Hybridization', ['{U}', 'Instant', 'Destroy target creature. It can’t be regenerated. That creature’s controller creates a 3/3 green Frog Lizard creature token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>('Reef Worm', ['{3}{U}', 'Creature — Worm', 'When Reef Worm dies, create a 3/3 blue Fish creature token with “When this creature dies, create a 6/6 blue Whale creature token with ‘When this creature dies, create a 9/9 blue Kraken creature token.’”', '0/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>('Reinterpret', ['{2}{U}{R}', 'Instant', 'Counter target spell. You may cast a spell with an equal or lesser mana value from your hand without paying its mana cost.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>('Reliquary Tower', ['Land', 'You have no maximum hand size.', '{T}: Add {C}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>('Replication Technique', ['{4}{U}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Create a token that’s a copy of target permanent you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>('Return of the Wildspeaker', ['{4}{G}', 'Instant', 'Choose one —', '• Draw cards equal to the greatest power among non-Human creatures you control.', '• Non-Human creatures you control get +3/+3 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>('Return to Dust', ['{2}{W}{W}', 'Instant', 'Exile target artifact or enchantment. If you cast this spell during your main phase, you may exile up to one other target artifact or enchantment.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>('Revival Experiment', ['{4}{B}{G}', 'Sorcery', 'For each permanent type, return up to one card of that type from your graveyard to the battlefield. You lose 3 life for each card returned this way. Exile Revival Experiment.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>('Rionya, Fire Dancer', ['{3}{R}{R}', 'Legendary Creature — Human Wizard', 'At the beginning of combat on your turn, create X tokens that are copies of another target creature you control, where X is one plus the number of instant and sorcery spells you’ve cast this turn. They gain haste. Exile them at the beginning of the next end step.', '3/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>('Rite of Replication', ['{2}{U}{U}', 'Sorcery', 'Kicker {5} (You may pay an additional {5} as you cast this spell.)', 'Create a token that’s a copy of target creature. If this spell was kicked, create five of those tokens instead.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>('Rousing Refrain', ['{3}{R}{R}', 'Sorcery', 'Add {R} for each card in target opponent’s hand. Until end of turn, you don’t lose this mana as steps and phases end. Exile Rousing Refrain with three time counters on it.', 'Suspend 3—{1}{R} (Rather than cast this card from your hand, you may pay {1}{R} and exile it with three time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>('Rout', ['{3}{W}{W}', 'Sorcery', 'You may cast Rout as though it had flash if you pay {2} more to cast it. (You may cast it any time you could cast an instant.)', 'Destroy all creatures. They can’t be regenerated.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>('Ruin Grinder', ['{5}{R}', 'Artifact Creature — Construct', 'Menace', 'When Ruin Grinder dies, each player may discard their hand and draw seven cards.', 'Mountaincycling {2} ({2}, Discard this card: Search your library for a Mountain card. Reveal it, put it into your hand, then shuffle.)', '7/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>('Ruxa, Patient Professor', ['{2}{G}{G}', 'Legendary Creature — Bear Druid', 'Whenever Ruxa, Patient Professor enters the battlefield or attacks, return target creature card with no abilities from your graveyard to your hand.', 'Creatures you control with no abilities get +1/+1.', 'You may have creatures you control with no abilities assign their combat damage as though they weren’t blocked.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>('Sanctum Gargoyle', ['{3}{W}', 'Artifact Creature — Gargoyle', 'Flying', 'When Sanctum Gargoyle enters the battlefield, you may return target artifact card from your graveyard to your hand.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>('Scavenger Grounds', ['Land — Desert', '{T}: Add {C}.', '{2}, {T}, Sacrifice a Desert: Exile all cards from all graveyards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>('Scholarship Sponsor', ['{3}{W}', 'Creature — Human Advisor', 'When Scholarship Sponsor enters the battlefield, each player who controls fewer lands than the player who controls the most lands searches their library for a number of basic land cards less than or equal to the difference, puts those cards onto the battlefield tapped, then shuffles.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>('Scrap Trawler', ['{3}', 'Artifact Creature — Construct', 'Whenever Scrap Trawler or another artifact you control is put into a graveyard from the battlefield, return to your hand target artifact card in your graveyard with lesser converted mana cost.', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>('Sculpting Steel', ['{3}', 'Artifact', 'You may have Sculpting Steel enter the battlefield as a copy of any artifact on the battlefield.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>('Seething Song', ['{2}{R}', 'Instant', 'Add {R}{R}{R}{R}{R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>('Selfless Squire', ['{3}{W}', 'Creature — Human Soldier', 'Flash', 'When Selfless Squire enters the battlefield, prevent all damage that would be dealt to you this turn.', 'Whenever damage that would be dealt to you is prevented, put that many +1/+1 counters on Selfless Squire.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>('Sequence Engine', ['{2}{G}', 'Artifact', '{X}, {T}: Exile target creature card with mana value X from a graveyard. Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it. Activate only as a sorcery.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>('Serum Visions', ['{U}', 'Sorcery', 'Draw a card. Scry 2.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>('Shamanic Revelation', ['{3}{G}{G}', 'Sorcery', 'Draw a card for each creature you control.', 'Ferocious — You gain 4 life for each creature you control with power 4 or greater.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>('Shivan Reef', ['Land', '{T}: Add {C}.', '{T}: Add {U} or {R}. Shivan Reef deals 1 damage to you.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>('Simic Growth Chamber', ['Land', 'Simic Growth Chamber enters the battlefield tapped.', 'When Simic Growth Chamber enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {G}{U}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>('Simic Signet', ['{2}', 'Artifact', '{1}, {T}: Add {G}{U}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>("Slayers' Stronghold", ['Land', '{T}: Add {C}.', '{R}{W}, {T}: Target creature gets +2/+0 and gains vigilance and haste until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>('Sly Instigator', ['{3}{U}', 'Creature — Human Wizard', '{U}, {T}: Until your next turn, target creature an opponent controls can’t be blocked. Goad that creature. (Until your next turn, that creature attacks each combat if able and attacks a player other than you if able.)', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>('Solemn Simulacrum', ['{4}', 'Artifact Creature — Golem', 'When Solemn Simulacrum enters the battlefield, you may search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.', 'When Solemn Simulacrum dies, you may draw a card.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>('Sol Ring', ['{1}', 'Artifact', '{T}: Add {C}{C}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>('Soul Snare', ['{W}', 'Enchantment', '{W}, Sacrifice Soul Snare: Exile target creature that’s attacking you or a planeswalker you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>('Spawning Kraken', ['{5}{U}', 'Creature — Kraken', 'Whenever a Kraken, Leviathan, Octopus, or Serpent you control deals combat damage to a player, create a 9/9 blue Kraken creature token.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>('Spectral Searchlight', ['{3}', 'Artifact', '{T}: Choose a player. That player adds one mana of any color they choose.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>('Spitting Image', ['{4}{G/U}{G/U}', 'Sorcery', 'Create a token that’s a copy of target creature.', 'Retrace (You may cast this card from your graveyard by discarding a land card in addition to paying its other costs.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>('Sproutback Trudge', ['{7}{G}{G}', 'Creature — Fungus Beast', 'This spell costs {X} less to cast, where X is the amount of life you gained this turn.', 'Trample', 'At the beginning of your end step, if you gained life this turn, you may cast Sproutback Trudge from your graveyard.', '9/7'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>('Stalking Leonin', ['{2}{W}', 'Creature — Cat Archer', 'When Stalking Leonin enters the battlefield, secretly choose an opponent.', 'Reveal the player you chose: Exile target creature that’s attacking you if it’s controlled by the chosen player. Activate this ability only once.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>('Steel Hellkite', ['{6}', 'Artifact Creature — Dragon', 'Flying', '{2}: Steel Hellkite gets +1/+0 until end of turn.', '{X}: Destroy each nonland permanent with converted mana cost X whose controller was dealt combat damage by Steel Hellkite this turn. Activate this ability only once each turn.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>('Steel Overseer', ['{2}', 'Artifact Creature — Construct', '{T}: Put a +1/+1 counter on each artifact creature you control.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>('Stinging Study', ['{4}{B}', 'Instant', 'You draw X cards and you lose X life, where X is the mana value of a commander you own on the battlefield or in the command zone.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>('Study Hall', ['Land', '{T}: Add {C}.', '{1}, {T}: Add one mana of any color. When you spend this mana to cast your commander, scry X, where X is the number of times it’s been cast from the command zone this game.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>("Sunbird's Invocation", ['{5}{R}', 'Enchantment', 'Whenever you cast a spell from your hand, reveal the top X cards of your library, where X is that spell’s converted mana cost. You may cast a spell with converted mana cost X or less from among cards revealed this way without paying its mana cost. Put the rest on the bottom of your library in a random order.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>('Sunhome, Fortress of the Legion', ['Land', '{T}: Add {C}.', '{2}{R}{W}, {T}: Target creature gains double strike until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>('Sunscorch Regent', ['{3}{W}{W}', 'Creature — Dragon', 'Flying', 'Whenever an opponent casts a spell, put a +1/+1 counter on Sunscorch Regent and you gain 1 life.', '4/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>('Sun Titan', ['{4}{W}{W}', 'Creature — Giant', 'Vigilance', 'Whenever Sun Titan enters the battlefield or attacks, you may return target permanent card with converted mana cost 3 or less from your graveyard to the battlefield.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>('Surge to Victory', ['{4}{R}{R}', 'Sorcery', 'Exile target instant or sorcery card from your graveyard. Creatures you control get +X/+0 until end of turn, where X is that card’s mana value. Whenever a creature you control deals combat damage to a player this turn, copy the exiled card. You may cast the copy without paying its mana cost.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>('Swarm Intelligence', ['{6}{U}', 'Enchantment', 'Whenever you cast an instant or sorcery spell, you may copy that spell. You may choose new targets for the copy.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>('Tainted Field', ['Land', '{T}: Add {C}.', '{T}: Add {W} or {B}. Activate this ability only if you control a Swamp.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>('Talisman of Creativity', ['{2}', 'Artifact', '{T}: Add {C}.', '{T}: Add {U} or {R}. Talisman of Creativity deals 1 damage to you.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>('Talrand, Sky Summoner', ['{2}{U}{U}', 'Legendary Creature — Merfolk Wizard', 'Whenever you cast an instant or sorcery spell, create a 2/2 blue Drake creature token with flying.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>('Temple of Epiphany', ['Land', 'Temple of Epiphany enters the battlefield tapped.', 'When Temple of Epiphany enters the battlefield, scry 1.', '{T}: Add {U} or {R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>('Temple of Mystery', ['Land', 'Temple of Mystery enters the battlefield tapped.', 'When Temple of Mystery enters the battlefield, scry 1.', '{T}: Add {G} or {U}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>('Temple of Silence', ['Land', 'Temple of Silence enters the battlefield tapped.', 'When Temple of Silence enters the battlefield, scry 1.', '{T}: Add {W} or {B}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>('Temple of Triumph', ['Land', 'Temple of Triumph enters the battlefield tapped.', 'When Temple of Triumph enters the battlefield, scry 1.', '{T}: Add {R} or {W}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>('Tempting Contract', ['{4}', 'Artifact', 'At the beginning of your upkeep, each opponent may create a Treasure token. For each opponent who does, you create a Treasure token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>('Terastodon', ['{6}{G}{G}', 'Creature — Elephant', 'When Terastodon enters the battlefield, you may destroy up to three target noncreature permanents. For each permanent put into a graveyard this way, its controller creates a 3/3 green Elephant creature token.', '9/9'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>('Teysa, Envoy of Ghosts', ['{5}{W}{B}', 'Legendary Creature — Human Advisor', 'Vigilance, protection from creatures', 'Whenever a creature deals combat damage to you, destroy that creature. Create a 1/1 white and black Spirit creature token with flying.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>('Theoretical Duplication', ['{2}{U}', 'Instant', 'Whenever a nontoken creature enters the battlefield under an opponent’s control this turn, create a token that’s a copy of that creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>('Thopter Engineer', ['{2}{R}', 'Creature — Human Artificer', 'When Thopter Engineer enters the battlefield, create a 1/1 colorless Thopter artifact creature token with flying.', 'Artifact creatures you control have haste. (They can attack and {T} as soon as they come under your control.)', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>('Thousand-Year Elixir', ['{3}', 'Artifact', 'You may activate abilities of creatures you control as though those creatures had haste.', '{1}, {T}: Untap target creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>('Tivash, Gloom Summoner', ['{4}{B}', 'Legendary Creature — Human Warlock', 'Lifelink', 'At the beginning of your end step, if you gained life this turn, you may pay X life, where X is the amount of life you gained this turn. If you do, create an X/X black Demon creature token with flying.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>('Together Forever', ['{W}{W}', 'Enchantment', 'When Together Forever enters the battlefield, support 2. (Put a +1/+1 counter on each of up to two target creatures.)', '{1}: Choose target creature with a counter on it. When that creature dies this turn, return that card to its owner’s hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>('Tragic Arrogance', ['{3}{W}{W}', 'Sorcery', 'For each player, you choose from among the permanents that player controls an artifact, a creature, an enchantment, and a planeswalker. Then each player sacrifices all other nonland permanents they control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>('Tranquil Thicket', ['Land', 'Tranquil Thicket enters the battlefield tapped.', '{T}: Add {G}.', 'Cycling {G} ({G}, Discard this card: Draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>('Traumatic Visions', ['{3}{U}{U}', 'Instant', 'Counter target spell.', 'Basic landcycling {1}{U} ({1}{U}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>('Treasure Cruise', ['{7}{U}', 'Sorcery', 'Delve (Each card you exile from your graveyard while casting this spell pays for {1}.)', 'Draw three cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>('Triplicate Titan', ['{9}', 'Artifact Creature — Golem', 'Flying, vigilance, trample', 'When Triplicate Titan dies, create a 3/3 colorless Golem artifact creature token with flying, a 3/3 colorless Golem artifact creature token with vigilance, and a 3/3 colorless Golem artifact creature token with trample.', '9/9'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>('Trudge Garden', ['{2}{G}', 'Enchantment', 'Whenever you gain life, you may pay {2}. If you do, create a 4/4 green Fungus Beast creature token with trample.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>('Trygon Predator', ['{1}{G}{U}', 'Creature — Beast', 'Flying', 'Whenever Trygon Predator deals combat damage to a player, you may destroy target artifact or enchantment that player controls.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>('Unstable Obelisk', ['{3}', 'Artifact', '{T}: Add {C}.', '{7}, {T}, Sacrifice Unstable Obelisk: Destroy target permanent.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>('Utter End', ['{2}{W}{B}', 'Instant', 'Exile target nonland permanent.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>('Veinwitch Coven', ['{2}{B}', 'Creature — Vampire Warlock', 'Menace', 'Whenever you gain life, you pay {B}. If you do, return target creature card from your graveyard to your hand.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>('Veyran, Voice of Duality', ['{1}{U}{R}', 'Legendary Creature — Efreet Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, Veyran, Voice of Duality gets +1/+1 until end of turn.', 'If you casting or copying an instant or sorcery spell causes a triggered ability of a permanent you control to trigger, that ability triggers an additional time.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>('Victory Chimes', ['{3}', 'Artifact', 'Untap Victory Chimes during each other player’s untap step.', '{T}: A player of your choice adds {C}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>('Volcanic Vision', ['{5}{R}{R}', 'Sorcery', 'Return target instant or sorcery card from your graveyard to your hand. Volcanic Vision deals damage equal to that card’s converted mana cost to each creature your opponents control. Exile Volcanic Vision.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>('Vow of Duty', ['{2}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2, has vigilance, and can’t attack you or a planeswalker you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>('Wake the Past', ['{5}{R}{W}', 'Sorcery', 'Return all artifact cards from your graveyard to the battlefield. They gain haste until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>('Wildfire Devils', ['{3}{R}', 'Creature — Devil', 'When Wildfire Devils enters the battlefield and at the beginning of your upkeep, choose a player at random. That player exiles an instant or sorcery card from their graveyard. Copy that card. You may cast the copy without paying its mana cost.', '4/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>('Willowdusk, Essence Seer', ['{1}{B}{G}', 'Legendary Creature — Dryad Druid', '{1}, {T}: Choose another target creature. Put a number of +1/+1 counters on it equal to the amount of life you gained this turn or the amount of life you lost this turn, whichever is greater. Activate only as a sorcery.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>('Windborn Muse', ['{3}{W}', 'Creature — Spirit', 'Flying', 'Creatures can’t attack you unless their controller pays {2} for each creature they control that’s attacking you.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>("Witch's Clinic", ['Land', '{T}: Add {C}.', '{2}, {T}: Target commander gains lifelink until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>('Yavimaya Coast', ['Land', '{T}: Add {C}.', '{T}: Add {G} or {U}. Yavimaya Coast deals 1 damage to you.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>('Yedora, Grave Gardener', ['{4}{G}', 'Legendary Creature — Treefolk Druid', 'Whenever another nontoken creature you control dies, you may return it to the battlefield face down under its owner’s control. It’s a Forest land. (It has no other types or abilities.)', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
           <t>('Zaffai, Thunder Conductor', ['{2}{U}{R}', 'Legendary Creature — Human Shaman', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, scry 1. If that spell’s mana value is 5 or greater, create a 4/4 blue and red Elemental creature token. If that spell’s mana value is 10 or greater, Zaffai, Thunder Conductor deals 10 damage to an opponent chosen at random.', '1/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>('Zetalpa, Primal Dawn', ['{6}{W}{W}', 'Legendary Creature — Elder Dinosaur', 'Flying, double strike, vigilance, trample, indestructible', '4/8'])</t>
         </is>
       </c>
     </row>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Commander 2021 (C21).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Commander 2021 (C21).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A270"/>
+  <dimension ref="A1:A330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,1860 +465,2280 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('Alibou, Ancient Witness', ['{3}{R}{W}', 'Legendary Artifact Creature — Golem', 'Other artifact creatures you control have haste.', 'Whenever one or more artifact creatures you control attack, Alibou, Ancient Witness deals X damage to any target and you scry X, where X is the number of tapped artifacts you control.', '4/5'])</t>
+          <t>('Ageless Entity', ['{3}{G}{G}', 'Creature — Elemental', 'Whenever you gain life, put that many +1/+1 counters on Ageless Entity.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('Ancient Den', ['Artifact Land', '{T}: Add {W}.'])</t>
+          <t>("Alhammarret's Archive", ['{5}', 'Legendary Artifact', 'If you would gain life, you gain twice that much life instead.', 'If you would draw a card except the first one you draw in each of your draw steps, draw two cards instead.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('Angel of Serenity', ['{4}{W}{W}{W}', 'Creature — Angel', 'Flying', 'When Angel of Serenity enters the battlefield, you may exile up to three other target creatures from the battlefield and/or creature cards from graveyards.', 'When Angel of Serenity leaves the battlefield, return the exiled cards to their owners’ hands.', '5/6'])</t>
+          <t>('Alibou, Ancient Witness', ['{3}{R}{W}', 'Legendary Artifact Creature — Golem', 'Other artifact creatures you control have haste.', 'Whenever one or more artifact creatures you control attack, Alibou, Ancient Witness deals X damage to any target and you scry X, where X is the number of tapped artifacts you control.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('Angel of the Ruins', ['{5}{W}{W}', 'Artifact Creature — Angel', 'Flying', 'When Angel of the Ruins enters the battlefield, exile up to two target artifacts and/or enchantments.', 'Plainscycling {2} ({2}, Discard this card: Search your library for a Plains card, reveal it, put it into your hand, then shuffle.)', '5/7'])</t>
+          <t>("Ambition's Cost", ['{3}{B}', 'Sorcery', 'You draw three cards and you lose 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('Apex of Power', ['{7}{R}{R}{R}', 'Sorcery', 'Exile the top seven cards of your library. Until end of turn, you may cast spells from among them.', 'If this spell was cast from your hand, add ten mana of any one color.'])</t>
+          <t>('Ancient Craving', ['{3}{B}', 'Sorcery', 'You draw three cards and you lose 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Arashi, the Sky Asunder', ['{3}{G}{G}', 'Legendary Creature — Spirit', '{X}{G}, {T}: Arashi, the Sky Asunder deals X damage to target creature with flying.', 'Channel — {X}{G}{G}, Discard Arashi: Arashi deals X damage to each creature with flying.', '5/5'])</t>
+          <t>('Ancient Den', ['Artifact Land', '{T}: Add {W}.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('Arcane Signet', ['{2}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.'])</t>
+          <t>('Angel of Serenity', ['{4}{W}{W}{W}', 'Creature — Angel', 'Flying', 'When Angel of Serenity enters the battlefield, you may exile up to three other target creatures from the battlefield and/or creature cards from graveyards.', 'When Angel of Serenity leaves the battlefield, return the exiled cards to their owners’ hands.', '5/6'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>("Archaeomancer's Map", ['{2}{W}', 'Artifact', 'When Archaeomancer’s Map enters the battlefield, search your library for up to two basic Plains cards, reveal them, put them into your hand, then shuffle.', 'Whenever a land enters the battlefield under an opponent’s control, if that player controls more lands than you, you may put a land card from your hand onto the battlefield.'])</t>
+          <t>('Angel of the Ruins', ['{5}{W}{W}', 'Artifact Creature — Angel', 'Flying', 'When Angel of the Ruins enters the battlefield, exile up to two target artifacts and/or enchantments.', 'Plainscycling {2} ({2}, Discard this card: Search your library for a Plains card, reveal it, put it into your hand, then shuffle.)', '5/7'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('Audacious Reshapers', ['{2}{R}', 'Creature — Human Artificer', '{T}, Sacrifice an artifact: Reveal cards from the top of your library until you reveal an artifact card. Put that card onto the battlefield and the rest on the bottom of your library in a random order. Audacious Reshapers deals damage to you equal to the number of cards revealed this way.', '3/3'])</t>
+          <t>('Apex of Power', ['{7}{R}{R}{R}', 'Sorcery', 'Exile the top seven cards of your library. Until end of turn, you may cast spells from among them.', 'If this spell was cast from your hand, add ten mana of any one color.'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Author of Shadows', ['{4}{B}', 'Creature — Shade Warlock', 'When Author of Shadows enters the battlefield, exile all cards from all opponents’ graveyards. Choose a nonland card exiled this way. You may cast that card for as long as it remains exiled, and you may spend mana as though it were mana of any color to cast that spell.', '3/3'])</t>
+          <t>('Arashi, the Sky Asunder', ['{3}{G}{G}', 'Legendary Creature — Spirit', '{X}{G}, {T}: Arashi, the Sky Asunder deals X damage to target creature with flying.', 'Channel — {X}{G}{G}, Discard Arashi: Arashi deals X damage to each creature with flying.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('Barren Moor', ['Land', 'Barren Moor enters the battlefield tapped.', '{T}: Add {B}.', 'Cycling {B} ({B}, Discard this card: Draw a card.)'])</t>
+          <t>('Arcane Signet', ['{2}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('Battlefield Forge', ['Land', '{T}: Add {C}.', '{T}: Add {R} or {W}. Battlefield Forge deals 1 damage to you.'])</t>
+          <t>("Archaeomancer's Map", ['{2}{W}', 'Artifact', 'When Archaeomancer’s Map enters the battlefield, search your library for up to two basic Plains cards, reveal them, put them into your hand, then shuffle.', 'Whenever a land enters the battlefield under an opponent’s control, if that player controls more lands than you, you may put a land card from your hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>("Battlemage's Bracers", ['{2}{R}', 'Artifact — Equipment', 'Equipped creature has haste.', 'Whenever an ability of equipped creature is activated, if it isn’t a mana ability, you may pay {1}. If you do, copy that ability. You may choose new targets for the copy.', 'Equip {2}'])</t>
+          <t>('Audacious Reshapers', ['{2}{R}', 'Creature — Human Artificer', '{T}, Sacrifice an artifact: Reveal cards from the top of your library until you reveal an artifact card. Put that card onto the battlefield and the rest on the bottom of your library in a random order. Audacious Reshapers deals damage to you equal to the number of cards revealed this way.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('Beast Within', ['{2}{G}', 'Instant', 'Destroy target permanent. Its controller creates a 3/3 green Beast creature token.'])</t>
+          <t>('Author of Shadows', ['{4}{B}', 'Creature — Shade Warlock', 'When Author of Shadows enters the battlefield, exile all cards from all opponents’ graveyards. Choose a nonland card exiled this way. You may cast that card for as long as it remains exiled, and you may spend mana as though it were mana of any color to cast that spell.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('Biomass Mutation', ['{X}{G/U}{G/U}', 'Instant', 'Creatures you control have base power and toughness X/X until end of turn.'])</t>
+          <t>('Barren Moor', ['Land', 'Barren Moor enters the battlefield tapped.', '{T}: Add {B}.', 'Cycling {B} ({B}, Discard this card: Draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('Blasphemous Act', ['{8}{R}', 'Sorcery', 'This spell costs {1} less to cast for each creature on the battlefield.', 'Blasphemous Act deals 13 damage to each creature.'])</t>
+          <t>('Battlefield Forge', ['Land', '{T}: Add {C}.', '{T}: Add {R} or {W}. Battlefield Forge deals 1 damage to you.'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('Blighted Cataract', ['Land', '{T}: Add {C}.', '{5}{U}, {T}, Sacrifice Blighted Cataract: Draw two cards.'])</t>
+          <t>("Battlemage's Bracers", ['{2}{R}', 'Artifact — Equipment', 'Equipped creature has haste.', 'Whenever an ability of equipped creature is activated, if it isn’t a mana ability, you may pay {1}. If you do, copy that ability. You may choose new targets for the copy.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('Blight Mound', ['{2}{B}', 'Enchantment', 'Attacking Pests you control get +1/+0 and have menace.', 'Whenever a nontoken creature you control dies, create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”'])</t>
+          <t>('Beast Within', ['{2}{G}', 'Instant', 'Destroy target permanent. Its controller creates a 3/3 green Beast creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('Bloodthirsty Blade', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +2/+0 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', '{1}: Attach Bloodthirsty Blade to target creature an opponent controls. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Biomass Mutation', ['{X}{G/U}{G/U}', 'Instant', 'Creatures you control have base power and toughness X/X until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('Blossoming Bogbeast', ['{4}{G}', 'Creature — Beast', 'Whenever Blossoming Bogbeast attacks, you gain 2 life. Then creatures you control gain trample and get +X/+X until end of turn, where X is the amount of life you gained this turn.', '3/3'])</t>
+          <t>('Blasphemous Act', ['{8}{R}', 'Sorcery', 'This spell costs {1} less to cast for each creature on the battlefield.', 'Blasphemous Act deals 13 damage to each creature.'])</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Bojuka Bog', ['Land', 'Bojuka Bog enters the battlefield tapped.', 'When Bojuka Bog enters the battlefield, exile all cards from target player’s graveyard.', '{T}: Add {B}.'])</t>
+          <t>('Blighted Cataract', ['Land', '{T}: Add {C}.', '{5}{U}, {T}, Sacrifice Blighted Cataract: Draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Bold Plagiarist', ['{3}{B}', 'Creature — Vampire Rogue', 'Flash', 'Whenever an opponent puts one or more counters on a creature they control, they put the same number and kind of counters on Bold Plagiarist.', '2/2'])</t>
+          <t>('Blighted Woodland', ['Land', '{T}: Add {C}.', '{3}{G}, {T}, Sacrifice Blighted Woodland: Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('Boreas Charger', ['{2}{W}', 'Creature — Pegasus', 'Flying', 'When Boreas Charger leaves the battlefield, choose an opponent who controls more lands than you. Search your library for a number of Plains cards equal to the difference and reveal them. Put one of them onto the battlefield tapped and the rest into your hand. Then shuffle your library.', '2/1'])</t>
+          <t>('Blight Mound', ['{2}{B}', 'Enchantment', 'Attacking Pests you control get +1/+0 and have menace.', 'Whenever a nontoken creature you control dies, create a 1/1 black and green Pest creature token with “When this creature dies, you gain 1 life.”'])</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('Boros Charm', ['{R}{W}', 'Instant', 'Choose one —', '• Boros Charm deals 4 damage to target player or planeswalker.', '• Permanents you control gain indestructible until end of turn.', '• Target creature gains double strike until end of turn.'])</t>
+          <t>('Bloodthirsty Aerialist', ['{1}{B}{B}', 'Creature — Vampire Rogue', 'Flying', 'Whenever you gain life, put a +1/+1 counter on Bloodthirsty Aerialist.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Boros Garrison', ['Land', 'Boros Garrison enters the battlefield tapped.', 'When Boros Garrison enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {R}{W}.'])</t>
+          <t>('Bloodthirsty Blade', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +2/+0 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', '{1}: Attach Bloodthirsty Blade to target creature an opponent controls. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Boros Locket', ['{3}', 'Artifact', '{T}: Add {R} or {W}.', '{R/W}{R/W}{R/W}{R/W}, {T}, Sacrifice Boros Locket: Draw two cards.'])</t>
+          <t>('Bloodtracker', ['{3}{B}', 'Creature — Vampire Wizard', 'Flying', '{B}, Pay 2 life: Put a +1/+1 counter on Bloodtracker.', 'When Bloodtracker leaves the battlefield, draw a card for each +1/+1 counter on it.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('Bosh, Iron Golem', ['{8}', 'Legendary Artifact Creature — Golem', 'Trample', '{3}{R}, Sacrifice an artifact: Bosh, Iron Golem deals damage equal to the sacrificed artifact’s converted mana cost to any target.', '6/7'])</t>
+          <t>('Blossoming Bogbeast', ['{4}{G}', 'Creature — Beast', 'Whenever Blossoming Bogbeast attacks, you gain 2 life. Then creatures you control gain trample and get +X/+X until end of turn, where X is the amount of life you gained this turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('Brainstorm', ['{U}', 'Instant', 'Draw three cards, then put two cards from your hand on top of your library in any order.'])</t>
+          <t>('Bojuka Bog', ['Land', 'Bojuka Bog enters the battlefield tapped.', 'When Bojuka Bog enters the battlefield, exile all cards from target player’s graveyard.', '{T}: Add {B}.'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>("Brass's Bounty", ['{6}{R}', 'Sorcery', 'For each land you control, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Bold Plagiarist', ['{3}{B}', 'Creature — Vampire Rogue', 'Flash', 'Whenever an opponent puts one or more counters on a creature they control, they put the same number and kind of counters on Bold Plagiarist.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Breena, the Demagogue', ['{1}{W}{B}', 'Legendary Creature — Bird Warlock', 'Flying', 'Whenever a player attacks one of your opponents, if that opponent has more life than another of your opponents, that attacking player draws a card and you put two +1/+1 counters on a creature you control.', '1/3'])</t>
+          <t>('Boreas Charger', ['{2}{W}', 'Creature — Pegasus', 'Flying', 'When Boreas Charger leaves the battlefield, choose an opponent who controls more lands than you. Search your library for a number of Plains cards equal to the difference and reveal them. Put one of them onto the battlefield tapped and the rest into your hand. Then shuffle your library.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Bronze Guardian', ['{4}{W}', 'Artifact Creature — Golem', 'Double strike', 'Ward {2} (Whenever this creature becomes the target of a spell or ability an opponent controls, counter it unless that player pays {2}.)', 'Other artifacts you control have ward {2}.', 'Bronze Guardian’s power is equal to the number of artifacts you control.', '*/5'])</t>
+          <t>('Boros Charm', ['{R}{W}', 'Instant', 'Choose one —', '• Boros Charm deals 4 damage to target player or planeswalker.', '• Permanents you control gain indestructible until end of turn.', '• Target creature gains double strike until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Burnished Hart', ['{3}', 'Artifact Creature — Elk', '{3}, Sacrifice Burnished Hart: Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.', '2/2'])</t>
+          <t>('Boros Garrison', ['Land', 'Boros Garrison enters the battlefield tapped.', 'When Boros Garrison enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {R}{W}.'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Call the Skybreaker', ['{5}{U/R}{U/R}', 'Sorcery', 'Create a 5/5 blue and red Elemental creature token with flying.', 'Retrace (You may cast this card from your graveyard by discarding a land card in addition to paying its other costs.)'])</t>
+          <t>('Boros Locket', ['{3}', 'Artifact', '{T}: Add {R} or {W}.', '{R/W}{R/W}{R/W}{R/W}, {T}, Sacrifice Boros Locket: Draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Caves of Koilos', ['Land', '{T}: Add {C}.', '{T}: Add {W} or {B}. Caves of Koilos deals 1 damage to you.'])</t>
+          <t>('Bosh, Iron Golem', ['{8}', 'Legendary Artifact Creature — Golem', 'Trample', '{3}{R}, Sacrifice an artifact: Bosh, Iron Golem deals damage equal to the sacrificed artifact’s converted mana cost to any target.', '6/7'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Chain Reaction', ['{2}{R}{R}', 'Sorcery', 'Chain Reaction deals X damage to each creature, where X is the number of creatures on the battlefield.'])</t>
+          <t>('Brainstorm', ['{U}', 'Instant', 'Draw three cards, then put two cards from your hand on top of your library in any order.'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Champion of Wits', ['{2}{U}', 'Creature — Naga Wizard', 'When Champion of Wits enters the battlefield, you may draw cards equal to its power. If you do, discard two cards.', 'Eternalize {5}{U}{U} ({5}{U}{U}, Exile this card from your graveyard: Create a token that’s a copy of it, except it’s a 4/4 black Zombie Naga Wizard with no mana cost. Eternalize only as a sorcery.)', '2/1'])</t>
+          <t>("Brass's Bounty", ['{6}{R}', 'Sorcery', 'For each land you control, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Charmbreaker Devils', ['{5}{R}', 'Creature — Devil', 'At the beginning of your upkeep, return an instant or sorcery card at random from your graveyard to your hand.', 'Whenever you cast an instant or sorcery spell, Charmbreaker Devils gets +4/+0 until end of turn.', '4/4'])</t>
+          <t>('Breena, the Demagogue', ['{1}{W}{B}', 'Legendary Creature — Bird Warlock', 'Flying', 'Whenever a player attacks one of your opponents, if that opponent has more life than another of your opponents, that attacking player draws a card and you put two +1/+1 counters on a creature you control.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Citadel Siege', ['{2}{W}{W}', 'Enchantment', 'As Citadel Siege enters the battlefield, choose Khans or Dragons.', '• Khans — At the beginning of combat on your turn, put two +1/+1 counters on target creature you control.', '• Dragons — At the beginning of combat on each opponent’s turn, tap target creature that player controls.'])</t>
+          <t>('Bronze Guardian', ['{4}{W}', 'Artifact Creature — Golem', 'Double strike', 'Ward {2} (Whenever this creature becomes the target of a spell or ability an opponent controls, counter it unless that player pays {2}.)', 'Other artifacts you control have ward {2}.', 'Bronze Guardian’s power is equal to the number of artifacts you control.', '*/5'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Cleansing Nova', ['{3}{W}{W}', 'Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all artifacts and enchantments.'])</t>
+          <t>('Burnished Hart', ['{3}', 'Artifact Creature — Elk', '{3}, Sacrifice Burnished Hart: Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Coiling Oracle', ['{G}{U}', 'Creature — Snake Elf Druid', 'When Coiling Oracle enters the battlefield, reveal the top card of your library. If it’s a land card, put it onto the battlefield. Otherwise, put that card into your hand.', '1/1'])</t>
+          <t>('Call the Skybreaker', ['{5}{U/R}{U/R}', 'Sorcery', 'Create a 5/5 blue and red Elemental creature token with flying.', 'Retrace (You may cast this card from your graveyard by discarding a land card in addition to paying its other costs.)'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Combat Calligrapher', ['{3}{W}', 'Creature — Bird Cleric', 'Flyinh', 'Inklings can’t attack you or planeswalkers you control.', 'Whenever a player attacks one of your opponents, that attacking player creates a tapped 2/1 white and black Inkling creature token with flying that’s attacking that opponent.', '3/3'])</t>
+          <t>('Caves of Koilos', ['Land', '{T}: Add {C}.', '{T}: Add {W} or {B}. Caves of Koilos deals 1 damage to you.'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Combustible Gearhulk', ['{4}{R}{R}', 'Artifact Creature — Construct', 'First strike', 'When Combustible Gearhulk enters the battlefield, target opponent may have you draw three cards. If the player doesn’t, you mill three cards, then Combustible Gearhulk deals damage to that player equal to the total converted mana cost of those cards.', '6/6'])</t>
+          <t>('Chain Reaction', ['{2}{R}{R}', 'Sorcery', 'Chain Reaction deals X damage to each creature, where X is the number of creatures on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>("Commander's Insight", ['{X}{U}{U}{U}', 'Instant', 'Target player draws X cards plus an additional card for each time they’ve cast a commander from the command zone this game.'])</t>
+          <t>('Champion of Wits', ['{2}{U}', 'Creature — Naga Wizard', 'When Champion of Wits enters the battlefield, you may draw cards equal to its power. If you do, discard two cards.', 'Eternalize {5}{U}{U} ({5}{U}{U}, Exile this card from your graveyard: Create a token that’s a copy of it, except it’s a 4/4 black Zombie Naga Wizard with no mana cost. Eternalize only as a sorcery.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>("Commander's Sphere", ['{3}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.', 'Sacrifice Commander’s Sphere: Draw a card.'])</t>
+          <t>('Charmbreaker Devils', ['{5}{R}', 'Creature — Devil', 'At the beginning of your upkeep, return an instant or sorcery card at random from your graveyard to your hand.', 'Whenever you cast an instant or sorcery spell, Charmbreaker Devils gets +4/+0 until end of turn.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('Coveted Jewel', ['{6}', 'Artifact', 'When Coveted Jewel enters the battlefield, draw three cards.', '{T}: Add three mana of any one color.', 'Whenever one or more creatures an opponent controls attack you and aren’t blocked, that player draws three cards and gains control of Coveted Jewel. Untap it.'])</t>
+          <t>('Citadel Siege', ['{2}{W}{W}', 'Enchantment', 'As Citadel Siege enters the battlefield, choose Khans or Dragons.', '• Khans — At the beginning of combat on your turn, put two +1/+1 counters on target creature you control.', '• Dragons — At the beginning of combat on each opponent’s turn, tap target creature that player controls.'])</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('Crackling Drake', ['{U}{U}{R}{R}', 'Creature — Drake', 'Flying', 'Crackling Drake’s power is equal to the total number of instant and sorcery cards you own in exile and in your graveyard.', 'When Crackling Drake enters the battlefield, draw a card.', '*/4'])</t>
+          <t>('Cleansing Nova', ['{3}{W}{W}', 'Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all artifacts and enchantments.'])</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Crafty Cutpurse', ['{3}{U}', 'Creature — Human Pirate', 'Flash', 'When Crafty Cutpurse enters the battlefield, each token that would be created under an opponent’s control this turn is created under your control instead.', '2/2'])</t>
+          <t>('Coiling Oracle', ['{G}{U}', 'Creature — Snake Elf Druid', 'When Coiling Oracle enters the battlefield, reveal the top card of your library. If it’s a land card, put it onto the battlefield. Otherwise, put that card into your hand.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('Creative Technique', ['{4}{R}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it.)', 'Shuffle your library, then reveal cards from the top of it until you reveal a nonland card. Exile that card and put the rest on the bottom of your library in a random order. You may cast the exiled card without paying its mana cost.'])</t>
+          <t>('Combat Calligrapher', ['{3}{W}', 'Creature — Bird Cleric', 'Flying', 'Inklings can’t attack you or planeswalkers you control.', 'Whenever a player attacks one of your opponents, that attacking player creates a tapped 2/1 white and black Inkling creature token with flying that’s attacking that opponent.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Cunning Rhetoric', ['{2}{B}', 'Enchantment', 'Whenever an opponent attacks you and/or one or more planeswalkers you control, exile the top card of that player’s library. You may play that card for as long as it remains exiled, and you may spend mana as though it were mana of any color to cast it.'])</t>
+          <t>('Combustible Gearhulk', ['{4}{R}{R}', 'Artifact Creature — Construct', 'First strike', 'When Combustible Gearhulk enters the battlefield, target opponent may have you draw three cards. If the player doesn’t, you mill three cards, then Combustible Gearhulk deals damage to that player equal to the total converted mana cost of those cards.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Curiosity Crafter', ['{3}{U}', 'Creature — Bird Wizard', 'Flying', 'You have no maximum hand size.', 'Whenever a creature token you control deals combat damage to a player, draw a card.', '3/3'])</t>
+          <t>("Commander's Insight", ['{X}{U}{U}{U}', 'Instant', 'Target player draws X cards plus an additional card for each time they’ve cast a commander from the command zone this game.'])</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Cursed Mirror', ['{2}{R}', 'Artifact', '{T}: Add {R}.', 'As Cursed Mirror enters the battlefield, you may have it become a copy of any creature on the battlefield until end of turn, except it has haste.'])</t>
+          <t>("Commander's Sphere", ['{3}', 'Artifact', '{T}: Add one mana of any color in your commander’s color identity.', 'Sacrifice Commander’s Sphere: Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('Curse of Disturbance', ['{2}{B}', 'Enchantment — Aura Curse', 'Enchant player', 'Whenever enchanted player is attacked, create a 2/2 black Zombie creature token. Each opponent attacking that player does the same.'])</t>
+          <t>('Command Tower', ['Land', '{T}: Add one mana of any color in your commander’s color identity.'])</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('Curse of the Swine', ['{X}{U}{U}', 'Sorcery', 'Exile X target creatures. For each creature exiled this way, its controller creates a 2/2 green Boar creature token.'])</t>
+          <t>('Coveted Jewel', ['{6}', 'Artifact', 'When Coveted Jewel enters the battlefield, draw three cards.', '{T}: Add three mana of any one color.', 'Whenever one or more creatures an opponent controls attack you and aren’t blocked, that player draws three cards and gains control of Coveted Jewel. Untap it.'])</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('Daretti, Scrap Savant', ['{3}{R}', 'Legendary Planeswalker — Daretti', '+2: Discard up to two cards, then draw that many cards.', '−2: Sacrifice an artifact. If you do, return target artifact card from your graveyard to the battlefield.', '−10: You get an emblem with “Whenever an artifact is put into your graveyard from the battlefield, return that card to the battlefield at the beginning of the next end step.”', 'Daretti, Scrap Savant can be your commander.', 'Loyalty: 3'])</t>
+          <t>('Crackling Drake', ['{U}{U}{R}{R}', 'Creature — Drake', 'Flying', 'Crackling Drake’s power is equal to the total number of instant and sorcery cards you own in exile and in your graveyard.', 'When Crackling Drake enters the battlefield, draw a card.', '*/4'])</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Darksteel Citadel', ['Artifact Land', 'Indestructible', '{T}: Add {C}.'])</t>
+          <t>('Crafty Cutpurse', ['{3}{U}', 'Creature — Human Pirate', 'Flash', 'When Crafty Cutpurse enters the battlefield, each token that would be created under an opponent’s control this turn is created under your control instead.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('Darksteel Mutation', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature is an Insect artifact creature with base power and toughness 0/1 and has indestructible, and it loses all other abilities, card types, and creature types.'])</t>
+          <t>('Creative Technique', ['{4}{R}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it.)', 'Shuffle your library, then reveal cards from the top of it until you reveal a nonland card. Exile that card and put the rest on the bottom of your library in a random order. You may cast the exiled card without paying its mana cost.'])</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('Dazzling Sphinx', ['{3}{U}{U}', 'Creature — Sphinx', 'Flying', 'Whenever Dazzling Sphinx deals combat damage to a player, that player exiles cards from the top of their library until they exile an instant or sorcery card. You may cast that card without paying its mana cost. Then that player puts the exiled cards that weren’t cast this way on the bottom of their library in a random order.', '4/5'])</t>
+          <t>('Cultivate', ['{2}{G}', 'Sorcery', 'Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('Deathbringer Liege', ['{2}{W/B}{W/B}{W/B}', 'Creature — Horror', 'Other white creatures you control get +1/+1.', 'Other black creatures you control get +1/+1.', 'Whenever you cast a white spell, you may tap target creature.', 'Whenever you cast a black spell, you may destroy target creature if it’s tapped.', '3/4'])</t>
+          <t>('Cunning Rhetoric', ['{2}{B}', 'Enchantment', 'Whenever an opponent attacks you and/or one or more planeswalkers you control, exile the top card of that player’s library. You may play that card for as long as it remains exiled, and you may spend mana as though it were mana of any color to cast it.'])</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('Deathbringer Regent', ['{5}{B}{B}', 'Creature — Dragon', 'Flying', 'When Deathbringer Regent enters the battlefield, if you cast it from your hand and there are five or more other creatures on the battlefield, destroy all other creatures.', '5/6'])</t>
+          <t>('Curiosity Crafter', ['{3}{U}', 'Creature — Bird Wizard', 'Flying', 'You have no maximum hand size.', 'Whenever a creature token you control deals combat damage to a player, draw a card.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>("Debtors' Knell", ['{4}{W/B}{W/B}{W/B}', 'Enchantment', '({W/B} can be paid with either {W} or {B}.)', 'At the beginning of your upkeep, put target creature card from a graveyard onto the battlefield under your control.'])</t>
+          <t>('Cursed Mirror', ['{2}{R}', 'Artifact', '{T}: Add {R}.', 'As Cursed Mirror enters the battlefield, you may have it become a copy of any creature on the battlefield until end of turn, except it has haste.'])</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('Deekah, Fractal Theorist', ['{4}{U}', 'Legendary Creature — Human Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is that spell’s mana value.', '{3}{U}: Target creature token can’t be blocked this turn.', '3/3'])</t>
+          <t>('Curse of Disturbance', ['{2}{B}', 'Enchantment — Aura Curse', 'Enchant player', 'Whenever enchanted player is attacked, create a 2/2 black Zombie creature token. Each opponent attacking that player does the same.'])</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('Desert of the Fervent', ['Land — Desert', 'Desert of the Fervent enters the battlefield tapped.', '{T}: Add {R}.', 'Cycling {1}{R} ({1}{R}, Discard this card: Draw a card.)'])</t>
+          <t>('Curse of the Swine', ['{X}{U}{U}', 'Sorcery', 'Exile X target creatures. For each creature exiled this way, its controller creates a 2/2 green Boar creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('Desert of the Mindful', ['Land — Desert', 'Desert of the Mindful enters the battlefield tapped.', '{T}: Add {U}.', 'Cycling {1}{U} ({1}{U}, Discard this card: Draw a card.)'])</t>
+          <t>('Damnable Pact', ['{X}{B}{B}', 'Sorcery', 'Target player draws X cards and loses X life.'])</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Desolation Twin', ['{10}', 'Creature — Eldrazi', 'When you cast this spell, create a 10/10 colorless Eldrazi creature token.', '10/10'])</t>
+          <t>('Daretti, Scrap Savant', ['{3}{R}', 'Legendary Planeswalker — Daretti', '+2: Discard up to two cards, then draw that many cards.', '−2: Sacrifice an artifact. If you do, return target artifact card from your graveyard to the battlefield.', '−10: You get an emblem with “Whenever an artifact is put into your graveyard from the battlefield, return that card to the battlefield at the beginning of the next end step.”', 'Daretti, Scrap Savant can be your commander.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('Digsite Engineer', ['{2}{W}', 'Creature — Dwarf Artificer', 'Whenever you cast an artifact spell, you may pay {2}. If you do, create a 0/0 colorless Construct artifact creature token with “This creature gets +1/+1 for each artifact you control.”', '3/3'])</t>
+          <t>('Darksteel Citadel', ['Artifact Land', 'Indestructible', '{T}: Add {C}.'])</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('Dig Through Time', ['{6}{U}{U}', 'Instant', 'Delve (Each card you exile from your graveyard while casting this spell pays for {1}.)', 'Look at the top seven cards of your library. Put two of them into your hand and the rest on the bottom of your library in any order.'])</t>
+          <t>('Darksteel Mutation', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature is an Insect artifact creature with base power and toughness 0/1 and has indestructible, and it loses all other abilities, card types, and creature types.'])</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('Diluvian Primordial', ['{5}{U}{U}', 'Creature — Avatar', 'Flying', 'When Diluvian Primordial enters the battlefield, for each opponent, you may cast up to one target instant or sorcery card from that player’s graveyard without paying its mana cost. If a spell cast this way would be put into a graveyard this turn, exile it instead.', '5/5'])</t>
+          <t>('Dazzling Sphinx', ['{3}{U}{U}', 'Creature — Sphinx', 'Flying', 'Whenever Dazzling Sphinx deals combat damage to a player, that player exiles cards from the top of their library until they exile an instant or sorcery card. You may cast that card without paying its mana cost. Then that player puts the exiled cards that weren’t cast this way on the bottom of their library in a random order.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('Dispatch', ['{W}', 'Instant', 'Tap target creature.', 'Metalcraft — If you control three or more artifacts, exile that creature.'])</t>
+          <t>('Deadly Tempest', ['{4}{B}{B}', 'Sorcery', 'Destroy all creatures. Each player loses life equal to the number of creatures they controlled that were destroyed this way.'])</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>("Dispeller's Capsule", ['{W}', 'Artifact', '{2}{W}, {T}, Sacrifice Dispeller’s Capsule: Destroy target artifact or enchantment.'])</t>
+          <t>('Deathbringer Liege', ['{2}{W/B}{W/B}{W/B}', 'Creature — Horror', 'Other white creatures you control get +1/+1.', 'Other black creatures you control get +1/+1.', 'Whenever you cast a white spell, you may tap target creature.', 'Whenever you cast a black spell, you may destroy target creature if it’s tapped.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>('Dualcaster Mage', ['{1}{R}{R}', 'Creature — Human Wizard', 'Flash', 'When Dualcaster Mage enters the battlefield, copy target instant or sorcery spell. You may choose new targets for the copy.', '2/2'])</t>
+          <t>('Deathbringer Regent', ['{5}{B}{B}', 'Creature — Dragon', 'Flying', 'When Deathbringer Regent enters the battlefield, if you cast it from your hand and there are five or more other creatures on the battlefield, destroy all other creatures.', '5/6'])</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>("Duelist's Heritage", ['{2}{W}', 'Enchantment', 'Whenever one or more creatures attack, you may have target attacking creature gain double strike until end of turn.'])</t>
+          <t>("Debtors' Knell", ['{4}{W/B}{W/B}{W/B}', 'Enchantment', '({W/B} can be paid with either {W} or {B}.)', 'At the beginning of your upkeep, put target creature card from a graveyard onto the battlefield under your control.'])</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('Duplicant', ['{6}', 'Artifact Creature — Shapeshifter', 'Imprint — When Duplicant enters the battlefield, you may exile target nontoken creature.', 'As long as a card exiled with Duplicant is a creature card, Duplicant has the power, toughness, and creature types of the last creature card exiled with Duplicant. It’s still a Shapeshifter.', '2/4'])</t>
+          <t>('Deekah, Fractal Theorist', ['{4}{U}', 'Legendary Creature — Human Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is that spell’s mana value.', '{3}{U}: Target creature token can’t be blocked this turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>("Elementalist's Palette", ['{3}', 'Artifact', 'Whenever you cast a spell with {X} in its mana cost, put two charge counters on Elementalist’s Palette.', '{T}: Add one mana of any color.', '{T}: Add {C} for each charge counter on Elementalist’s Palette. Spend this mana only on costs that contain {X}.'])</t>
+          <t>('Defiant Bloodlord', ['{5}{B}{B}', 'Creature — Vampire', 'Flying', 'Whenever you gain life, target opponent loses that much life.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('Elite Scaleguard', ['{4}{W}', 'Creature — Human Soldier', 'When Elite Scaleguard enters the battlefield, bolster 2. (Choose a creature with the least toughness among creatures you control and put two +1/+1 counters on it.)', 'Whenever a creature you control with a +1/+1 counter on it attacks, tap target creature defending player controls.', '2/3'])</t>
+          <t>('Desert of the Fervent', ['Land — Desert', 'Desert of the Fervent enters the battlefield tapped.', '{T}: Add {R}.', 'Cycling {1}{R} ({1}{R}, Discard this card: Draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('Epic Experiment', ['{X}{U}{R}', 'Sorcery', 'Exile the top X cards of your library. You may cast instant and sorcery spells with converted mana cost X or less from among them without paying their mana costs. Then put all cards exiled this way that weren’t cast into your graveyard.'])</t>
+          <t>('Desert of the Mindful', ['Land — Desert', 'Desert of the Mindful enters the battlefield tapped.', '{T}: Add {U}.', 'Cycling {1}{U} ({1}{U}, Discard this card: Draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('Erratic Cyclops', ['{3}{R}', 'Creature — Cyclops Shaman', 'Trample', 'Whenever you cast an instant or sorcery spell, Erratic Cyclops gets +X/+0 until end of turn, where X is that spell’s converted mana cost.', '0/8'])</t>
+          <t>('Desolation Twin', ['{10}', 'Creature — Eldrazi', 'When you cast this spell, create a 10/10 colorless Eldrazi creature token.', '10/10'])</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('Esix, Fractal Bloom', ['{4}{G}{U}', 'Legendary Creature — Fractal', 'Flying', 'The first time you would create one or more tokens during each of your turns, you may instead choose a creature other than Esix, Fractal Bloom and create that many tokens that are copies of that creature.', '4/4'])</t>
+          <t>('Digsite Engineer', ['{2}{W}', 'Creature — Dwarf Artificer', 'Whenever you cast an artifact spell, you may pay {2}. If you do, create a 0/0 colorless Construct artifact creature token with “This creature gets +1/+1 for each artifact you control.”', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('Essence Pulse', ['{3}{B}', 'Sorcery', 'You gain 2 life. Each creature gets -X/-X until end of turn, where X is the amount of life you gained this turn.'])</t>
+          <t>('Dig Through Time', ['{6}{U}{U}', 'Instant', 'Delve (Each card you exile from your graveyard while casting this spell pays for {1}.)', 'Look at the top seven cards of your library. Put two of them into your hand and the rest on the bottom of your library in any order.'])</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('Etali, Primal Storm', ['{4}{R}{R}', 'Legendary Creature — Elder Dinosaur', 'Whenever Etali, Primal Storm attacks, exile the top card of each player’s library, then you may cast any number of spells from among those cards without paying their mana costs.', '6/6'])</t>
+          <t>('Diluvian Primordial', ['{5}{U}{U}', 'Creature — Avatar', 'Flying', 'When Diluvian Primordial enters the battlefield, for each opponent, you may cast up to one target instant or sorcery card from that player’s graveyard without paying its mana cost. If a spell cast this way would be put into a graveyard this turn, exile it instead.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('Excavation Technique', ['{3}{W}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Destroy target nonland permanent. Its controller creates two Treasure tokens.'])</t>
+          <t>('Dispatch', ['{W}', 'Instant', 'Tap target creature.', 'Metalcraft — If you control three or more artifacts, exile that creature.'])</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>("Ezuri's Predation", ['{5}{G}{G}{G}', 'Sorcery', 'For each creature your opponents control, create a 4/4 green Beast creature token. Each of those Beasts fights a different one of those creatures.'])</t>
+          <t>("Dispeller's Capsule", ['{W}', 'Artifact', '{2}{W}, {T}, Sacrifice Dispeller’s Capsule: Destroy target artifact or enchantment.'])</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('Ezzaroot Channeler', ['{5}{G}', 'Creature — Treefolk Druid', 'Reach', 'Creature spells you cast cost {X} less to cast, where X is the amount of life you gained this turn.', '{T}: You gain 2 life.', '4/6'])</t>
+          <t>('Druidic Satchel', ['{3}', 'Artifact', '{2}, {T}: Reveal the top card of your library. If it’s a creature card, create a 1/1 green Saproling creature token. If it’s a land card, put that card onto the battlefield under your control. If it’s a noncreature, nonland card, you gain 2 life.'])</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('Fain, the Broker', ['{2}{B}', 'Legendary Creature — Human Warlock', '{T}, Sacrifice a creature: Put two +1/+1 counters on target creature.', '{T}, Remove a counter from a creature you control: Create a Treasure token.', '{T}, Sacrifice an artifact: Create a 2/1 white and black Inkling creature token with flying.', '{3}{B}: Untap Fain, the Broker.', '3/3'])</t>
+          <t>('Dualcaster Mage', ['{1}{R}{R}', 'Creature — Human Wizard', 'Flash', 'When Dualcaster Mage enters the battlefield, copy target instant or sorcery spell. You may choose new targets for the copy.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('Faithless Looting', ['{R}', 'Sorcery', 'Draw two cards, then discard two cards.', 'Flashback {2}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
+          <t>("Duelist's Heritage", ['{2}{W}', 'Enchantment', 'Whenever one or more creatures attack, you may have target attacking creature gain double strike until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('Feldon of the Third Path', ['{1}{R}{R}', 'Legendary Creature — Human Artificer', '{2}{R}, {T}: Create a token that’s a copy of target creature card in your graveyard, except it’s an artifact in addition to its other types. It gains haste. Sacrifice it at the beginning of the next end step.', '2/3'])</t>
+          <t>('Duplicant', ['{6}', 'Artifact Creature — Shapeshifter', 'Imprint — When Duplicant enters the battlefield, you may exile target nontoken creature.', 'As long as a card exiled with Duplicant is a creature card, Duplicant has the power, toughness, and creature types of the last creature card exiled with Duplicant. It’s still a Shapeshifter.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('Felisa, Fang of Silverquill', ['{2}{W}{B}', 'Legendary Creature — Vampire Wizard', 'Flying', 'Mentor (Whenever this creature attacks, put a +1/+1 counter on target attacking creature with lesser power.)', 'Whenever a nontoken creature you control dies, if it had counters on it, create X tapped 2/1 white and black Inkling creature tokens with flying, where X is the number of counters it had on it.', '3/2'])</t>
+          <t>("Elementalist's Palette", ['{3}', 'Artifact', 'Whenever you cast a spell with {X} in its mana cost, put two charge counters on Elementalist’s Palette.', '{T}: Add one mana of any color.', '{T}: Add {C} for each charge counter on Elementalist’s Palette. Spend this mana only on costs that contain {X}.'])</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('Fiery Encore', ['{4}{R}', 'Sorcery', 'Discard a card, then draw a card. When you discard a nonland card this way, Fiery Encore deals damage equal to that card’s mana value to target creature or planeswalker.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
+          <t>('Elite Scaleguard', ['{4}{W}', 'Creature — Human Soldier', 'When Elite Scaleguard enters the battlefield, bolster 2. (Choose a creature with the least toughness among creatures you control and put two +1/+1 counters on it.)', 'Whenever a creature you control with a +1/+1 counter on it attacks, tap target creature defending player controls.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('Fiery Fall', ['{5}{R}', 'Instant', 'Fiery Fall deals 5 damage to target creature.', 'Basic landcycling {1}{R} ({1}{R}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.)'])</t>
+          <t>('Elixir of Immortality', ['{1}', 'Artifact', '{2}, {T}: You gain 5 life. Shuffle Elixir of Immortality and your graveyard into their owner’s library.'])</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('Forgotten Ancient', ['{3}{G}', 'Creature — Elemental', 'Whenever a player casts a spell, you may put a +1/+1 counter on Forgotten Ancient.', 'At the beginning of your upkeep, you may move any number of +1/+1 counters from Forgotten Ancient onto other creatures.', '0/3'])</t>
+          <t>('Epic Experiment', ['{X}{U}{R}', 'Sorcery', 'Exile the top X cards of your library. You may cast instant and sorcery spells with converted mana cost X or less from among them without paying their mana costs. Then put all cards exiled this way that weren’t cast into your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('Fractal Harness', ['{X}{2}{G}', 'Artifact — Equipment', 'When Fractal Harness enters the battlefield, create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it and attach Fractal Harness to it.', 'Whenever equipped creature attacks, double the number of +1/+1 counters on it.', 'Equip {2}'])</t>
+          <t>('Epicure of Blood', ['{4}{B}', 'Creature — Vampire', 'Whenever you gain life, each opponent loses 1 life.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('Garruk, Primal Hunter', ['{2}{G}{G}{G}', 'Legendary Planeswalker — Garruk', '+1: Create a 3/3 green Beast creature token.', '−3: Draw cards equal to the greatest power among creatures you control.', '−6: Create a 6/6 green Wurm creature token for each land you control.', 'Loyalty: 3'])</t>
+          <t>('Erratic Cyclops', ['{3}{R}', 'Creature — Cyclops Shaman', 'Trample', 'Whenever you cast an instant or sorcery spell, Erratic Cyclops gets +X/+0 until end of turn, where X is that spell’s converted mana cost.', '0/8'])</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('Geometric Nexus', ['{2}', 'Artifact', 'Whenever a player casts an instant or sorcery spell, put a number of charge counters on Geometric Nexus equal to that spell’s mana value.', '{6}, {T}, Remove all charge counters from Geometric Nexus: Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is the number of charge counters removed this way.'])</t>
+          <t>('Esix, Fractal Bloom', ['{4}{G}{U}', 'Legendary Creature — Fractal', 'Flying', 'The first time you would create one or more tokens during each of your turns, you may instead choose a creature other than Esix, Fractal Bloom and create that many tokens that are copies of that creature.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('Ghostly Prison', ['{2}{W}', 'Enchantment', 'Creatures can’t attack you unless their controller pays {2} for each creature they control that’s attacking you.'])</t>
+          <t>('Essence Pulse', ['{3}{B}', 'Sorcery', 'You gain 2 life. Each creature gets -X/-X until end of turn, where X is the amount of life you gained this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('Gideon, Champion of Justice', ['{2}{W}{W}', 'Legendary Planeswalker — Gideon', '+1: Put a loyalty counter on Gideon, Champion of Justice for each creature target opponent controls.', '0: Until end of turn, Gideon, Champion of Justice becomes a Human Soldier creature with power and toughness each equal to the number of loyalty counters on him and gains indestructible. He’s still a planeswalker. Prevent all damage that would be dealt to him this turn.', '−15: Exile all other permanents.', 'Loyalty: 4'])</t>
+          <t>('Etali, Primal Storm', ['{4}{R}{R}', 'Legendary Creature — Elder Dinosaur', 'Whenever Etali, Primal Storm attacks, exile the top card of each player’s library, then you may cast any number of spells from among those cards without paying their mana costs.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('Great Furnace', ['Artifact Land', '{T}: Add {R}.'])</t>
+          <t>('Excavation Technique', ['{3}{W}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Destroy target nonland permanent. Its controller creates two Treasure tokens.'])</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('Guardian Archon', ['{4}{W}{W}', 'Creature — Archon', 'Flying', 'As Guardian Archon enters the battlefield, secretly choose an opponent.', 'Reveal the player you chose: You and target permanent you control each gain protection from the chosen player until end of turn. Activate only once.', '5/5'])</t>
+          <t>('Exotic Orchard', ['Land', '{T}: Add one mana of any color that a land an opponent controls could produce.'])</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('Guardian Augmenter', ['{2}{G}', 'Creature — Troll Wizard', 'Flash', 'Commander creatures you control get +2/+2.', 'Commanders you control have hexproof.', '2/2'])</t>
+          <t>("Ezuri's Predation", ['{5}{G}{G}{G}', 'Sorcery', 'For each creature your opponents control, create a 4/4 green Beast creature token. Each of those Beasts fights a different one of those creatures.'])</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('Gyome, Master Chef', ['{2}{B}{G}', 'Legendary Creature — Troll Warlock', 'Trample', 'At the beginning of your end step, create a number of Food tokens equal to the number of nontoken creatures you had enter the battlefield under your control this turn.', '{1}, Sacrifice a Food: Target creature gains indestructible until end of turn. Tap it.', '5/3'])</t>
+          <t>('Ezzaroot Channeler', ['{5}{G}', 'Creature — Treefolk Druid', 'Reach', 'Creature spells you cast cost {X} less to cast, where X is the amount of life you gained this turn.', '{T}: You gain 2 life.', '4/6'])</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('Healing Technique', ['{3}{G}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Return target card from your graveyard to your hand. You gain life equal to that card’s mana value. Exile Healing Technique.'])</t>
+          <t>('Fain, the Broker', ['{2}{B}', 'Legendary Creature — Human Warlock', '{T}, Sacrifice a creature: Put two +1/+1 counters on target creature.', '{T}, Remove a counter from a creature you control: Create a Treasure token.', '{T}, Sacrifice an artifact: Create a 2/1 white and black Inkling creature token with flying.', '{3}{B}: Untap Fain, the Broker.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('Hedron Archive', ['{4}', 'Artifact', '{T}: Add {C}{C}.', '{2}, {T}, Sacrifice Hedron Archive: Draw two cards.'])</t>
+          <t>('Faithless Looting', ['{R}', 'Sorcery', 'Draw two cards, then discard two cards.', 'Flashback {2}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('Hellkite Igniter', ['{5}{R}{R}', 'Creature — Dragon', 'Flying, haste', '{1}{R}: Hellkite Igniter gets +X/+0 until end of turn, where X is the number of artifacts you control.', '5/5'])</t>
+          <t>('Feed the Swarm', ['{1}{B}', 'Sorcery', 'Destroy target creature or enchantment an opponent controls. You lose life equal to that permanent’s converted mana cost.'])</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('Hellkite Tyrant', ['{4}{R}{R}', 'Creature — Dragon', 'Flying, trample', 'Whenever Hellkite Tyrant deals combat damage to a player, gain control of all artifacts that player controls.', 'At the beginning of your upkeep, if you control twenty or more artifacts, you win the game.', '6/5'])</t>
+          <t>('Feldon of the Third Path', ['{1}{R}{R}', 'Legendary Creature — Human Artificer', '{2}{R}, {T}: Create a token that’s a copy of target creature card in your graveyard, except it’s an artifact in addition to its other types. It gains haste. Sacrifice it at the beginning of the next end step.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('Hoard-Smelter Dragon', ['{4}{R}{R}', 'Creature — Dragon', 'Flying', '{3}{R}: Destroy target artifact. Hoard-Smelter Dragon gets +X/+0 until end of turn, where X is that artifact’s converted mana cost.', '5/5'])</t>
+          <t>('Felisa, Fang of Silverquill', ['{2}{W}{B}', 'Legendary Creature — Vampire Wizard', 'Flying', 'Mentor (Whenever this creature attacks, put a +1/+1 counter on target attacking creature with lesser power.)', 'Whenever a nontoken creature you control dies, if it had counters on it, create X tapped 2/1 white and black Inkling creature tokens with flying, where X is the number of counters it had on it.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('Hornet Nest', ['{2}{G}', 'Creature — Insect', 'Defender (This creature can’t attack.)', 'Whenever Hornet Nest is dealt damage, create that many 1/1 green Insect creature tokens with flying and deathtouch. (Any amount of damage a creature with deathtouch deals to a creature is enough to destroy it.)', '0/2'])</t>
+          <t>('Fiery Encore', ['{4}{R}', 'Sorcery', 'Discard a card, then draw a card. When you discard a nonland card this way, Fiery Encore deals damage equal to that card’s mana value to target creature or planeswalker.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('Hornet Queen', ['{4}{G}{G}{G}', 'Creature — Insect', 'Flying', 'Deathtouch (Any amount of damage this deals to a creature is enough to destroy it.)', 'When Hornet Queen enters the battlefield, create four 1/1 green Insect creature tokens with flying and deathtouch.', '2/2'])</t>
+          <t>('Fiery Fall', ['{5}{R}', 'Instant', 'Fiery Fall deals 5 damage to target creature.', 'Basic landcycling {1}{R} ({1}{R}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.)'])</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('Humble Defector', ['{1}{R}', 'Creature — Human Rogue', '{T}: Draw two cards. Target opponent gains control of Humble Defector. Activate this ability only during your turn.', '2/1'])</t>
+          <t>('Forgotten Ancient', ['{3}{G}', 'Creature — Elemental', 'Whenever a player casts a spell, you may put a +1/+1 counter on Forgotten Ancient.', 'At the beginning of your upkeep, you may move any number of +1/+1 counters from Forgotten Ancient onto other creatures.', '0/3'])</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('Hunted Lammasu', ['{2}{W}{W}', 'Creature — Lammasu', 'Flying', 'When Hunted Lammasu enters the battlefield, target opponent creates a 4/4 black Horror creature token.', '5/5'])</t>
+          <t>('Forgotten Cave', ['Land', 'Forgotten Cave enters the battlefield tapped.', '{T}: Add {R}.', 'Cycling {R} ({R}, Discard this card: Draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('Hydra Broodmaster', ['{4}{G}{G}', 'Creature — Hydra', '{X}{X}{G}: Monstrosity X. (If this creature isn’t monstrous, put X +1/+1 counters on it and it becomes monstrous.)', 'When Hydra Broodmaster becomes monstrous, create X X/X green Hydra creature tokens.', '7/7'])</t>
+          <t>('Fractal Harness', ['{X}{2}{G}', 'Artifact — Equipment', 'When Fractal Harness enters the battlefield, create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it and attach Fractal Harness to it.', 'Whenever equipped creature attacks, double the number of +1/+1 counters on it.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('Ichor Wellspring', ['{2}', 'Artifact', 'When Ichor Wellspring enters the battlefield or is put into a graveyard from the battlefield, draw a card.'])</t>
+          <t>('Garruk, Primal Hunter', ['{2}{G}{G}{G}', 'Legendary Planeswalker — Garruk', '+1: Create a 3/3 green Beast creature token.', '−3: Draw cards equal to the greatest power among creatures you control.', '−6: Create a 6/6 green Wurm creature token for each land you control.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('Idol of Oblivion', ['{2}', 'Artifact', '{T}: Draw a card. Activate this ability only if you created a token this turn.', '{8}, {T}, Sacrifice Idol of Oblivion: Create a 10/10 colorless Eldrazi creature token.'])</t>
+          <t>('Gaze of Granite', ['{X}{B}{B}{G}', 'Sorcery', 'Destroy each nonland permanent with converted mana cost X or less.'])</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('Incarnation Technique', ['{4}{B}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it.)', 'Mill five cards, then return a creature card from your graveyard to the battlefield.'])</t>
+          <t>('Geometric Nexus', ['{2}', 'Artifact', 'Whenever a player casts an instant or sorcery spell, put a number of charge counters on Geometric Nexus equal to that spell’s mana value.', '{6}, {T}, Remove all charge counters from Geometric Nexus: Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is the number of charge counters removed this way.'])</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('Incubation Druid', ['{1}{G}', 'Creature — Elf Druid', '{T}: Add one mana of any type that a land you control could produce. If Incubation Druid has a +1/+1 counter on it, add three mana of that type instead.', '{3}{G}{G}: Adapt 3. (If this creature has no +1/+1 counters on it, put three +1/+1 counters on it.)', '0/2'])</t>
+          <t>('Ghostly Prison', ['{2}{W}', 'Enchantment', 'Creatures can’t attack you unless their controller pays {2} for each creature they control that’s attacking you.'])</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>('Incubation', ['{G/U}', 'Sorcery', 'Look at the top five cards of your library. You may reveal a creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', 'Incongruity', '{1}{G}{U}', 'Instant', 'Exile target creature. That creature’s controller creates a 3/3 green Frog Lizard creature token.'])</t>
+          <t>('Gideon, Champion of Justice', ['{2}{W}{W}', 'Legendary Planeswalker — Gideon', '+1: Put a loyalty counter on Gideon, Champion of Justice for each creature target opponent controls.', '0: Until end of turn, Gideon, Champion of Justice becomes a Human Soldier creature with power and toughness each equal to the number of loyalty counters on him and gains indestructible. He’s still a planeswalker. Prevent all damage that would be dealt to him this turn.', '−15: Exile all other permanents.', 'Loyalty: 4'])</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('Infernal Offering', ['{4}{B}', 'Sorcery', 'Choose an opponent. You and that player each sacrifice a creature. Each player who sacrificed a creature this way draws two cards.', 'Choose an opponent. Return a creature card from your graveyard to the battlefield, then that player returns a creature card from their graveyard to the battlefield.'])</t>
+          <t>('Gift of Paradise', ['{2}{G}', 'Enchantment — Aura', 'Enchant land', 'When Gift of Paradise enters the battlefield, you gain 3 life.', 'Enchanted land has “{T}: Add two mana of any one color.”'])</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('Inferno Project', ['{6}{R}', 'Creature — Elemental', 'Trample', 'Inferno Project enters the battlefield with X +1/+1 counters on it, where X is the total mana value of instant and sorcery cards in your graveyard.', '0/0'])</t>
+          <t>('Gingerbread Cabin', ['Land — Forest', '({T}: Add {G}.)', 'Gingerbread Cabin enters the battlefield tapped unless you control three or more other Forests.', 'When Gingerbread Cabin enters the battlefield untapped, create a Food token. (It’s an artifact with “{2}, {T}, Sacrifice this artifact: You gain 3 life.”)'])</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('Inkshield', ['{3}{W}{B}', 'Instant', 'Prevent all combat damage that would be dealt to you this turn. For each 1 damage prevented this way, create a 2/1 white and black Inkling creature token with flying.'])</t>
+          <t>('Gluttonous Troll', ['{2}{B}{G}', 'Creature — Troll', 'Trample', 'When Gluttonous Troll enters the battlefield, create a number of Food tokens equal to the number of opponents you have. (Food tokens are artifacts with “{2}, {T}, Sacrifice this artifact: You gain 3 life.”)', '{1}{G}, Sacrifice another nonland permanent: Gluttonous Troll gets +2/+2 until end of turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('Inspiring Refrain', ['{4}{U}{U}', 'Sorcery', 'Draw two cards. Exile Inspiring Refrain with three time counters on it.', 'Suspend 3—{2}{U} (Rather than cast this card from your hand, pay {2}{U} and exile it with four time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)'])</t>
+          <t>('Golgari Rot Farm', ['Land', 'Golgari Rot Farm enters the battlefield tapped.', 'When Golgari Rot Farm enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {B}{G}.'])</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('Izzet Boilerworks', ['Land', 'Izzet Boilerworks enters the battlefield tapped.', 'When Izzet Boilerworks enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {U}{R}.'])</t>
+          <t>('Great Furnace', ['Artifact Land', '{T}: Add {R}.'])</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('Izzet Signet', ['{2}', 'Artifact', '{1}, {T}: Add {U}{R}.'])</t>
+          <t>('Greed', ['{3}{B}', 'Enchantment', '{B}, Pay 2 life: Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('Jaya Ballard', ['{2}{R}{R}{R}', 'Legendary Planeswalker — Jaya', '+1: Add {R}{R}{R}. Spend this mana only to cast instant or sorcery spells.', '+1: Discard up to three cards, then draw that many cards.', '−8: You get an emblem with “You may cast instant and sorcery spells from your graveyard. If a spell cast this way would be put into your graveyard, exile it instead.”', 'Loyalty: 5'])</t>
+          <t>('Guardian Archon', ['{4}{W}{W}', 'Creature — Archon', 'Flying', 'As Guardian Archon enters the battlefield, secretly choose an opponent.', 'Reveal the player you chose: You and target permanent you control each gain protection from the chosen player until end of turn. Activate only once.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('Jor Kadeen, the Prevailer', ['{3}{R}{W}', 'Legendary Creature — Human Warrior', 'First strike', 'Metalcraft — Creatures you control get +3/+0 as long as you control three or more artifacts.', '5/4'])</t>
+          <t>('Guardian Augmenter', ['{2}{G}', 'Creature — Troll Wizard', 'Flash', 'Commander creatures you control get +2/+2.', 'Commanders you control have hexproof.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('Kaseto, Orochi Archmage', ['{1}{G}{U}', 'Legendary Creature — Snake Wizard', '{G}{U}: Target creature can’t be blocked this turn. If that creature is a Snake, it gets +2/+2 until end of turn.', '2/2'])</t>
+          <t>('Gyome, Master Chef', ['{2}{B}{G}', 'Legendary Creature — Troll Warlock', 'Trample', 'At the beginning of your end step, create a number of Food tokens equal to the number of nontoken creatures you had enter the battlefield under your control this turn.', '{1}, Sacrifice a Food: Target creature gains indestructible until end of turn. Tap it.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('Kazandu Tuskcaller', ['{1}{G}', 'Creature — Human Shaman', 'Level up {1}{G} ({1}{G}: Put a level counter on this. Level up only as a sorcery.)', 'LEVEL 2-5', '1/1', '{T}: Create a 3/3 green Elephant creature token.', 'LEVEL 6+', '1/1', '{T}: Create two 3/3 green Elephant creature tokens.', '1/1'])</t>
+          <t>('Healing Technique', ['{3}{G}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Return target card from your graveyard to your hand. You gain life equal to that card’s mana value. Exile Healing Technique.'])</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('Keen Duelist', ['{1}{B}', 'Creature — Human Wizard', 'At the beginning of your upkeep, you and target opponent each reveal the top card of your library. You each lose life equal to the mana value of the card revealed by the other player. You each put the card you revealed into your hand.', '2/2'])</t>
+          <t>('Hedron Archive', ['{4}', 'Artifact', '{T}: Add {C}{C}.', '{2}, {T}, Sacrifice Hedron Archive: Draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('Key to the City', ['{2}', 'Artifact', '{T}, Discard a card: Up to one target creature can’t be blocked this turn.', 'Whenever Key to the City becomes untapped, you may pay {2}. If you do, draw a card.'])</t>
+          <t>('Hellkite Igniter', ['{5}{R}{R}', 'Creature — Dragon', 'Flying, haste', '{1}{R}: Hellkite Igniter gets +X/+0 until end of turn, where X is the number of artifacts you control.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('Knight of the White Orchid', ['{W}{W}', 'Creature — Human Knight', 'First strike', 'When Knight of the White Orchid enters the battlefield, if an opponent controls more lands than you, you may search your library for a Plains card, put it onto the battlefield, then shuffle your library.', '2/2'])</t>
+          <t>('Hellkite Tyrant', ['{4}{R}{R}', 'Creature — Dragon', 'Flying, trample', 'Whenever Hellkite Tyrant deals combat damage to a player, gain control of all artifacts that player controls.', 'At the beginning of your upkeep, if you control twenty or more artifacts, you win the game.', '6/5'])</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>("Kodama's Reach", ['{2}{G}', 'Sorcery — Arcane', 'Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.'])</t>
+          <t>('High Market', ['Land', '{T}: Add {C}.', '{T}, Sacrifice a creature: You gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('Krosan Grip', ['{2}{G}', 'Instant', 'Split second (As long as this spell is on the stack, players can’t cast spells or activate abilities that aren’t mana abilities.)', 'Destroy target artifact or enchantment.'])</t>
+          <t>('Hoard-Smelter Dragon', ['{4}{R}{R}', 'Creature — Dragon', 'Flying', '{3}{R}: Destroy target artifact. Hoard-Smelter Dragon gets +X/+0 until end of turn, where X is that artifact’s converted mana cost.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('Laelia, the Blade Reforged', ['{2}{R}', 'Legendary Creature — Spirit Warrior', 'Haste', 'Whenever Laelia, the Blade Reforged attacks, exile the top card of your library. You may play that card this turn.', 'Whenever you exile one or more cards from your library and/or your graveyard, put a +1/+1 counter on Laelia.', '2/2'])</t>
+          <t>('Hornet Nest', ['{2}{G}', 'Creature — Insect', 'Defender (This creature can’t attack.)', 'Whenever Hornet Nest is dealt damage, create that many 1/1 green Insect creature tokens with flying and deathtouch. (Any amount of damage a creature with deathtouch deals to a creature is enough to destroy it.)', '0/2'])</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('Living Lore', ['{3}{U}', 'Creature — Avatar', 'As Living Lore enters the battlefield, exile an instant or sorcery card from your graveyard.', 'Living Lore’s power and toughness are each equal to the exiled card’s converted mana cost.', 'Whenever Living Lore deals combat damage, you may sacrifice it. If you do, you may cast the exiled card without paying its mana cost.', '*/*'])</t>
+          <t>('Hornet Queen', ['{4}{G}{G}{G}', 'Creature — Insect', 'Flying', 'Deathtouch (Any amount of damage this deals to a creature is enough to destroy it.)', 'When Hornet Queen enters the battlefield, create four 1/1 green Insect creature tokens with flying and deathtouch.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('Llanowar Reborn', ['Land', 'Llanowar Reborn enters the battlefield tapped.', '{T}: Add {G}.', 'Graft 1 (This land enters the battlefield with a +1/+1 counter on it. Whenever a creature enters the battlefield, you may move a +1/+1 counter from this land onto it.)'])</t>
+          <t>('Humble Defector', ['{1}{R}', 'Creature — Human Rogue', '{T}: Draw two cards. Target opponent gains control of Humble Defector. Activate this ability only during your turn.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('Losheel, Clockwork Scholar', ['{2}{W}', 'Legendary Creature — Elephant Artificer', 'Prevent all combat damage that would be dealt to attacking artifact creatures you control.', 'Whenever one or more artifact creatures enter the battlefield under your control, draw a card. This ability triggers only once each turn.', '2/4'])</t>
+          <t>('Hunted Lammasu', ['{2}{W}{W}', 'Creature — Lammasu', 'Flying', 'When Hunted Lammasu enters the battlefield, target opponent creates a 4/4 black Horror creature token.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>('Lumbering Falls', ['Land', 'Lumbering Falls enters the battlefield tapped.', '{T}: Add {G} or {U}.', '{2}{G}{U}: Lumbering Falls becomes a 3/3 green and blue Elemental creature with hexproof until end of turn. It’s still a land.'])</t>
+          <t>('Hydra Broodmaster', ['{4}{G}{G}', 'Creature — Hydra', '{X}{X}{G}: Monstrosity X. (If this creature isn’t monstrous, put X +1/+1 counters on it and it becomes monstrous.)', 'When Hydra Broodmaster becomes monstrous, create X X/X green Hydra creature tokens.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('Mage-Ring Network', ['Land', '{T}: Add {C}.', '{1}, {T}: Put a storage counter on Mage-Ring Network.', '{T}, Remove any number of storage counters from Mage-Ring Network: Add {C} for each storage counter removed this way.'])</t>
+          <t>('Ichor Wellspring', ['{2}', 'Artifact', 'When Ichor Wellspring enters the battlefield or is put into a graveyard from the battlefield, draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('Magister of Worth', ['{4}{W}{B}', 'Creature — Angel', 'Flying', 'Will of the council — When Magister of Worth enters the battlefield, starting with you, each player votes for grace or condemnation. If grace gets more votes, each player returns each creature card from their graveyard to the battlefield. If condemnation gets more votes or the vote is tied, destroy all creatures other than Magister of Worth.', '4/4'])</t>
+          <t>('Idol of Oblivion', ['{2}', 'Artifact', '{T}: Draw a card. Activate this ability only if you created a token this turn.', '{8}, {T}, Sacrifice Idol of Oblivion: Create a 10/10 colorless Eldrazi creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('Mana Geyser', ['{3}{R}{R}', 'Sorcery', 'Add {R} for each tapped land your opponents control.'])</t>
+          <t>('Incarnation Technique', ['{4}{B}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it.)', 'Mill five cards, then return a creature card from your graveyard to the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>('Managorger Hydra', ['{2}{G}', 'Creature — Hydra', 'Trample', 'Whenever a player casts a spell, put a +1/+1 counter on Managorger Hydra.', '1/1'])</t>
+          <t>('Incubation Druid', ['{1}{G}', 'Creature — Elf Druid', '{T}: Add one mana of any type that a land you control could produce. If Incubation Druid has a +1/+1 counter on it, add three mana of that type instead.', '{3}{G}{G}: Adapt 3. (If this creature has no +1/+1 counters on it, put three +1/+1 counters on it.)', '0/2'])</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('Marshland Bloodcaster', ['{4}{B}', 'Creature — Vampire Warlock', 'Flying', '{1}{B}, {T}: Rather than pay the mana cost of the next spell you cast this turn, you may pay life equal to that spell’s mana value.', '3/5'])</t>
+          <t>('Incubation', ['{G/U}', 'Sorcery', 'Look at the top five cards of your library. You may reveal a creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', 'Incongruity', '{1}{G}{U}', 'Instant', 'Exile target creature. That creature’s controller creates a 3/3 green Frog Lizard creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>('Martial Impetus', ['{2}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +1/+1 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', 'Whenever enchanted creature attacks, each other creature that’s attacking one of your opponents gets +1/+1 until end of turn.'])</t>
+          <t>('Infernal Offering', ['{4}{B}', 'Sorcery', 'Choose an opponent. You and that player each sacrifice a creature. Each player who sacrificed a creature this way draws two cards.', 'Choose an opponent. Return a creature card from your graveyard to the battlefield, then that player returns a creature card from their graveyard to the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('Master Biomancer', ['{2}{G}{U}', 'Creature — Elf Wizard', 'Each other creature you control enters the battlefield with a number of additional +1/+1 counters on it equal to Master Biomancer’s power and as a Mutant in addition to its other types.', '2/4'])</t>
+          <t>('Inferno Project', ['{6}{R}', 'Creature — Elemental', 'Trample', 'Inferno Project enters the battlefield with X +1/+1 counters on it, where X is the total mana value of instant and sorcery cards in your graveyard.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>('Memorial to Genius', ['Land', 'Memorial to Genius enters the battlefield tapped.', '{T}: Add {U}.', '{4}{U}, {T}, Sacrifice Memorial to Genius: Draw two cards.'])</t>
+          <t>('Inkshield', ['{3}{W}{B}', 'Instant', 'Prevent all combat damage that would be dealt to you this turn. For each 1 damage prevented this way, create a 2/1 white and black Inkling creature token with flying.'])</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('Metallurgic Summonings', ['{3}{U}{U}', 'Enchantment', 'Whenever you cast an instant or sorcery spell, create an X/X colorless Construct artifact creature token, where X is that spell’s converted mana cost.', '{3}{U}{U}, Exile Metallurgic Summonings: Return all instant and sorcery cards from your graveyard to your hand. Activate this ability only if you control six or more artifacts.'])</t>
+          <t>('Inspiring Refrain', ['{4}{U}{U}', 'Sorcery', 'Draw two cards. Exile Inspiring Refrain with three time counters on it.', 'Suspend 3—{2}{U} (Rather than cast this card from your hand, pay {2}{U} and exile it with four time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('Meteor Golem', ['{7}', 'Artifact Creature — Golem', 'When Meteor Golem enters the battlefield, destroy target nonland permanent an opponent controls.', '3/3'])</t>
+          <t>('Izzet Boilerworks', ['Land', 'Izzet Boilerworks enters the battlefield tapped.', 'When Izzet Boilerworks enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {U}{R}.'])</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>('Mikokoro, Center of the Sea', ['Legendary Land', '{T}: Add {C}.', '{2}, {T}: Each player draws a card.'])</t>
+          <t>('Izzet Signet', ['{2}', 'Artifact', '{1}, {T}: Add {U}{R}.'])</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
+          <t>('Jaya Ballard', ['{2}{R}{R}{R}', 'Legendary Planeswalker — Jaya', '+1: Add {R}{R}{R}. Spend this mana only to cast instant or sorcery spells.', '+1: Discard up to three cards, then draw that many cards.', '−8: You get an emblem with “You may cast instant and sorcery spells from your graveyard. If a spell cast this way would be put into your graveyard, exile it instead.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>('Mind Stone', ['{2}', 'Artifact', '{T}: Add {C}.', '{1}, {T}, Sacrifice Mind Stone: Draw a card.'])</t>
+          <t>('Jor Kadeen, the Prevailer', ['{3}{R}{W}', 'Legendary Creature — Human Warrior', 'First strike', 'Metalcraft — Creatures you control get +3/+0 as long as you control three or more artifacts.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('Monologue Tax', ['{2}{W}', 'Enchantment', 'Whenever an opponent casts their second spell each turn, you create a Treasure token.'])</t>
+          <t>('Jungle Hollow', ['Land', 'Jungle Hollow enters the battlefield tapped.', 'When Jungle Hollow enters the battlefield, you gain 1 life.', '{T}: Add {B} or {G}.'])</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('Mosswort Bridge', ['Land', 'Hideaway (This land enters the battlefield tapped. When it does, look at the top four cards of your library, exile one face down, then put the rest on the bottom of your library.)', '{T}: Add {G}.', '{G}, {T}: You may play the exiled card without paying its mana cost if creatures you control have total power 10 or greater.'])</t>
+          <t>('Kaseto, Orochi Archmage', ['{1}{G}{U}', 'Legendary Creature — Snake Wizard', '{G}{U}: Target creature can’t be blocked this turn. If that creature is a Snake, it gets +2/+2 until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>('Muse Vortex', ['{X}{U}{U}', 'Sorcery', 'Exile the top X cards of your library. You may cast an instant or sorcery spell with mana value X or less from among them without paying its mana cost. Then put the exiled instant or sorcery cards that weren’t cast this way into your hand the rest on the bottom of your library in a random order.'])</t>
+          <t>('Kazandu Tuskcaller', ['{1}{G}', 'Creature — Human Shaman', 'Level up {1}{G} ({1}{G}: Put a level counter on this. Level up only as a sorcery.)', 'LEVEL 2-5', '1/1', '{T}: Create a 3/3 green Elephant creature token.', 'LEVEL 6+', '1/1', '{T}: Create two 3/3 green Elephant creature tokens.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('Mycosynth Wellspring', ['{2}', 'Artifact', 'When Mycosynth Wellspring enters the battlefield or is put into a graveyard from the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>('Keen Duelist', ['{1}{B}', 'Creature — Human Wizard', 'At the beginning of your upkeep, you and target opponent each reveal the top card of your library. You each lose life equal to the mana value of the card revealed by the other player. You each put the card you revealed into your hand.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('Myr Battlesphere', ['{7}', 'Artifact Creature — Myr Construct', 'When Myr Battlesphere enters the battlefield, create four 1/1 colorless Myr artifact creature tokens.', 'Whenever Myr Battlesphere attacks, you may tap X untapped Myr you control. If you do, Myr Battlesphere gets +X/+0 until end of turn and deals X damage to the player or planeswalker it’s attacking.', '4/7'])</t>
+          <t>('Key to the City', ['{2}', 'Artifact', '{T}, Discard a card: Up to one target creature can’t be blocked this turn.', 'Whenever Key to the City becomes untapped, you may pay {2}. If you do, draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('Naru Meha, Master Wizard', ['{2}{U}{U}', 'Legendary Creature — Human Wizard', 'Flash', 'When Naru Meha, Master Wizard enters the battlefield, copy target instant or sorcery spell you control. You may choose new targets for the copy.', 'Other Wizards you control get +1/+1.', '3/3'])</t>
+          <t>('Knight of the White Orchid', ['{W}{W}', 'Creature — Human Knight', 'First strike', 'When Knight of the White Orchid enters the battlefield, if an opponent controls more lands than you, you may search your library for a Plains card, put it onto the battlefield, then shuffle your library.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('Necropolis Regent', ['{3}{B}{B}{B}', 'Creature — Vampire', 'Flying', 'Whenever a creature you control deals combat damage to a player, put that many +1/+1 counters on it.', '6/5'])</t>
+          <t>("Kodama's Reach", ['{2}{G}', 'Sorcery — Arcane', 'Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>('Nils, Discipline Enforcer', ['{2}{W}', 'Legendary Creature — Human Cleric', 'At the beginning of your end step, for each player, put a +1/+1 counter on up to one target creature that player controls.', 'Each creature with one or more counters on it can’t attack you or planeswalkers you control unless its controller pays {X}, where X is the number of counters on that creature.', '2/2'])</t>
+          <t>('Krosan Grip', ['{2}{G}', 'Instant', 'Split second (As long as this spell is on the stack, players can’t cast spells or activate abilities that aren’t mana abilities.)', 'Destroy target artifact or enchantment.'])</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>("Nissa's Expedition", ['{4}{G}', 'Sorcery', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.'])</t>
+          <t>('Laelia, the Blade Reforged', ['{2}{R}', 'Legendary Creature — Spirit Warrior', 'Haste', 'Whenever Laelia, the Blade Reforged attacks, exile the top card of your library. You may play that card this turn.', 'Whenever you exile one or more cards from your library and/or your graveyard, put a +1/+1 counter on Laelia.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('Novijen, Heart of Progress', ['Land', '{T}: Add {C}.', '{G}{U}, {T}: Put a +1/+1 counter on each creature that entered the battlefield this turn.'])</t>
+          <t>('Leyline Prowler', ['{1}{B}{G}', 'Creature — Nightmare Beast', 'Deathtouch, lifelink', '{T}: Add one mana of any color.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('Oblation', ['{2}{W}', 'Instant', 'The owner of target nonland permanent shuffles it into their library, then draws two cards.'])</t>
+          <t>('Living Lore', ['{3}{U}', 'Creature — Avatar', 'As Living Lore enters the battlefield, exile an instant or sorcery card from your graveyard.', 'Living Lore’s power and toughness are each equal to the exiled card’s converted mana cost.', 'Whenever Living Lore deals combat damage, you may sacrifice it. If you do, you may cast the exiled card without paying its mana cost.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('Octavia, Living Thesis', ['{8}{U}{U}', 'Legendary Creature — Elemental Octopus', 'This spell costs {8} less to cast if you have eight or more instant and/or sorcery cards in your graveyard.', 'Ward {8}', 'Magecraft — Whenever you cast an instant or sorcery spell, target creature has base power and toughness 8/8 until end of turn.', '8/8'])</t>
+          <t>('Llanowar Reborn', ['Land', 'Llanowar Reborn enters the battlefield tapped.', '{T}: Add {G}.', 'Graft 1 (This land enters the battlefield with a +1/+1 counter on it. Whenever a creature enters the battlefield, you may move a +1/+1 counter from this land onto it.)'])</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>('Oran-Rief, the Vastwood', ['Land', 'Oran-Rief, the Vastwood enters the battlefield tapped.', '{T}: Add {G}.', '{T}: Put a +1/+1 counter on each green creature that entered the battlefield this turn.'])</t>
+          <t>('Llanowar Wastes', ['Land', '{T}: Add {C}.', '{T}: Add {B} or {G}. Llanowar Wastes deals 1 damage to you.'])</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>('Oreskos Explorer', ['{1}{W}', 'Creature — Cat Scout', 'When Oreskos Explorer enters the battlefield, search your library for up to X Plains cards, where X is the number of players who control more lands than you. Reveal those cards, put them into your hand, then shuffle your library.', '2/2'])</t>
+          <t>('Lonely Sandbar', ['Land', 'Lonely Sandbar enters the battlefield tapped.', '{T}: Add {U}.', 'Cycling {U} ({U}, Discard this card: Draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('Orzhov Advokist', ['{2}{W}', 'Creature — Human Advisor', 'At the beginning of your upkeep, each player may put two +1/+1 counters on a creature they control. If a player does, creatures that player controls can’t attack you or a planeswalker you control until your next turn.', '1/4'])</t>
+          <t>('Losheel, Clockwork Scholar', ['{2}{W}', 'Legendary Creature — Elephant Artificer', 'Prevent all combat damage that would be dealt to attacking artifact creatures you control.', 'Whenever one or more artifact creatures enter the battlefield under your control, draw a card. This ability triggers only once each turn.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('Orzhov Basilica', ['Land', 'Orzhov Basilica enters the battlefield tapped.', 'When Orzhov Basilica enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {W}{B}.'])</t>
+          <t>('Loxodon Warhammer', ['{3}', 'Artifact — Equipment', 'Equipped creature gets +3/+0 and has trample and lifelink.', 'Equip {3}'])</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('Orzhov Signet', ['{2}', 'Artifact', '{1}, {T}: Add {W}{B}.'])</t>
+          <t>('Lumbering Falls', ['Land', 'Lumbering Falls enters the battlefield tapped.', '{T}: Add {G} or {U}.', '{2}{G}{U}: Lumbering Falls becomes a 3/3 green and blue Elemental creature with hexproof until end of turn. It’s still a land.'])</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('Osgir, the Reconstructor', ['{2}{R}{W}', 'Legendary Creature — Giant Artificer', 'Vigilance', '{1}, Sacrifice an artifact: Target creature you control gets +2/+0 until end of turn.', '{X}, {T}, Exile an artifact with mana value X from your graveyard: Create two tokens that are copies of the exiled card. Activate only as a sorcery.', '4/4'])</t>
+          <t>('Mage-Ring Network', ['Land', '{T}: Add {C}.', '{1}, {T}: Put a storage counter on Mage-Ring Network.', '{T}, Remove any number of storage counters from Mage-Ring Network: Add {C} for each storage counter removed this way.'])</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('Oversimplify', ['{3}{G}{U}', 'Sorcery', 'Exile all creatures. Each player creates a 0/0 green and blue Fractal creature token and puts a number of +1/+1 counters on it equal to the total power of creatures they controlled that were exiled this way.'])</t>
+          <t>('Magister of Worth', ['{4}{W}{B}', 'Creature — Angel', 'Flying', 'Will of the council — When Magister of Worth enters the battlefield, starting with you, each player votes for grace or condemnation. If grace gets more votes, each player returns each creature card from their graveyard to the battlefield. If condemnation gets more votes or the vote is tied, destroy all creatures other than Magister of Worth.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('Paradox Zone', ['{4}{G}', 'Enchantment', 'Paradox Zone enters the battlefield with a growth counter on it.', 'At the beginning of your end step, double the number of growth counters on Paradox Zone. Then create a 0/0 blue and green Fractal creature token. Put X +1/+1 counters on it, where X is the number of growth counters on Paradox Zone.'])</t>
+          <t>('Mana Geyser', ['{3}{R}{R}', 'Sorcery', 'Add {R} for each tapped land your opponents control.'])</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('Parasitic Impetus', ['{2}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', 'Whenever enchanted creature attacks, its controller loses 2 life and you gain 2 life.'])</t>
+          <t>('Managorger Hydra', ['{2}{G}', 'Creature — Hydra', 'Trample', 'Whenever a player casts a spell, put a +1/+1 counter on Managorger Hydra.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('Pendant of Prosperity', ['{3}', 'Artifact', 'Pendant of Prosperity enters the battlefield under the control of an opponent of your choice.', '{2}, {T}: Draw a card, then you may put a land card from your hand onto the battlefield. Pendant of Prosperity’s owner draws a card, then that player may put a land card from their hand onto the battlefield.'])</t>
+          <t>('Marshland Bloodcaster', ['{4}{B}', 'Creature — Vampire Warlock', 'Flying', '{1}{B}, {T}: Rather than pay the mana cost of the next spell you cast this turn, you may pay life equal to that spell’s mana value.', '3/5'])</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('Perplexing Test', ['{3}{U}{U}', 'Instant', 'Choose one —', '• Return all creature tokens to their owners’ hands.', '• Return all nontoken creatures to their owners’ hands.'])</t>
+          <t>('Martial Impetus', ['{2}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +1/+1 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', 'Whenever enchanted creature attacks, each other creature that’s attacking one of your opponents gets +1/+1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('Pest Infestation', ['{X}{X}{G}', 'Sorcery', 'Destroy up to X target artifacts and/or enchantments. Create twice X 1/1 black and green Pest creature tokens with “When this creature dies, you gain 1 life.”'])</t>
+          <t>('Master Biomancer', ['{2}{G}{U}', 'Creature — Elf Wizard', 'Each other creature you control enters the battlefield with a number of additional +1/+1 counters on it equal to Master Biomancer’s power and as a Mutant in addition to its other types.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>("Phyrexia's Core", ['Land', '{T}: Add {C}.', '{1}, {T}, Sacrifice an artifact: You gain 1 life.'])</t>
+          <t>('Memorial to Genius', ['Land', 'Memorial to Genius enters the battlefield tapped.', '{T}: Add {U}.', '{4}{U}, {T}, Sacrifice Memorial to Genius: Draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('Pia Nalaar', ['{2}{R}', 'Legendary Creature — Human Artificer', 'When Pia Nalaar enters the battlefield, create a 1/1 colorless Thopter artifact creature token with flying.', '{1}{R}: Target artifact creature gets +1/+0 until end of turn.', '{1}, Sacrifice an artifact: Target creature can’t block this turn.', '2/2'])</t>
+          <t>('Metallurgic Summonings', ['{3}{U}{U}', 'Enchantment', 'Whenever you cast an instant or sorcery spell, create an X/X colorless Construct artifact creature token, where X is that spell’s converted mana cost.', '{3}{U}{U}, Exile Metallurgic Summonings: Return all instant and sorcery cards from your graveyard to your hand. Activate this ability only if you control six or more artifacts.'])</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>("Pilgrim's Eye", ['{3}', 'Artifact Creature — Thopter', 'Flying', 'When Pilgrim’s Eye enters the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '1/1'])</t>
+          <t>('Meteor Golem', ['{7}', 'Artifact Creature — Golem', 'When Meteor Golem enters the battlefield, destroy target nonland permanent an opponent controls.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>('Plaxcaster Frogling', ['{1}{G}{U}', 'Creature — Frog Mutant', 'Graft 3 (This creature enters the battlefield with three +1/+1 counters on it. Whenever another creature enters the battlefield, you may move a +1/+1 counter from this creature onto it.)', '{2}: Target creature with a +1/+1 counter on it gains shroud until end of turn. (It can’t be the target of spells or abilities.)', '0/0'])</t>
+          <t>('Mikokoro, Center of the Sea', ['Legendary Land', '{T}: Add {C}.', '{2}, {T}: Each player draws a card.'])</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>('Ponder', ['{U}', 'Sorcery', 'Look at the top three cards of your library, then put them back in any order. You may shuffle your library.', 'Draw a card.'])</t>
+          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('Primal Empathy', ['{1}{G}{U}', 'Enchantment', 'At the beginning of your upkeep, draw a card if you control a creature with the greatest power among creatures on the battlefield. Otherwise, put a +1/+1 counter on a creature you control.'])</t>
+          <t>('Mind Stone', ['{2}', 'Artifact', '{T}: Add {C}.', '{1}, {T}, Sacrifice Mind Stone: Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('Promise of Loyalty', ['{4}{W}', 'Sorcery', 'Each player puts a vow counter on a creature they control and sacrifices the rest. Each of those creatures can’t attack you for as long as it has a vow counter on it.'])</t>
+          <t>('Moldervine Reclamation', ['{3}{B}{G}', 'Enchantment', 'Whenever a creature you control dies, you gain 1 life and draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>("Pyromancer's Goggles", ['{5}', 'Legendary Artifact', '{T}: Add {R}. When that mana is spent to cast a red instant or sorcery spell, copy that spell and you may choose new targets for the copy.'])</t>
+          <t>('Monologue Tax', ['{2}{W}', 'Enchantment', 'Whenever an opponent casts their second spell each turn, you create a Treasure token.'])</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('Quicksmith Genius', ['{2}{R}', 'Creature — Human Artificer', 'Whenever an artifact enters the battlefield under your control, you may discard a card. If you do, draw a card.', '3/2'])</t>
+          <t>('Mosswort Bridge', ['Land', 'Hideaway (This land enters the battlefield tapped. When it does, look at the top four cards of your library, exile one face down, then put the rest on the bottom of your library.)', '{T}: Add {G}.', '{G}, {T}: You may play the exiled card without paying its mana cost if creatures you control have total power 10 or greater.'])</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('Radiant Performer', ['{3}{R}{R}', 'Creature — Human Wizard', 'Flash', 'When Radiant Performer enters the battlefield, if you cast it from your hand, choose target spell or ability that targets only a single permanent or player. Copy that spell or ability for each other permanent or player the spell or ability could target. Each copy targets a different one of those permanents and players.', '2/2'])</t>
+          <t>('Muse Vortex', ['{X}{U}{U}', 'Sorcery', 'Exile the top X cards of your library. You may cast an instant or sorcery spell with mana value X or less from among them without paying its mana cost. Then put the exiled instant or sorcery cards that weren’t cast this way into your hand and the rest on the bottom of your library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('Rampaging Baloths', ['{4}{G}{G}', 'Creature — Beast', 'Trample', 'Landfall — Whenever a land enters the battlefield under your control, you may create a 4/4 green Beast creature token.', '6/6'])</t>
+          <t>('Mycosynth Wellspring', ['{2}', 'Artifact', 'When Mycosynth Wellspring enters the battlefield or is put into a graveyard from the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('Rapid Hybridization', ['{U}', 'Instant', 'Destroy target creature. It can’t be regenerated. That creature’s controller creates a 3/3 green Frog Lizard creature token.'])</t>
+          <t>('Myr Battlesphere', ['{7}', 'Artifact Creature — Myr Construct', 'When Myr Battlesphere enters the battlefield, create four 1/1 colorless Myr artifact creature tokens.', 'Whenever Myr Battlesphere attacks, you may tap X untapped Myr you control. If you do, Myr Battlesphere gets +X/+0 until end of turn and deals X damage to the player or planeswalker it’s attacking.', '4/7'])</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('Reef Worm', ['{3}{U}', 'Creature — Worm', 'When Reef Worm dies, create a 3/3 blue Fish creature token with “When this creature dies, create a 6/6 blue Whale creature token with ‘When this creature dies, create a 9/9 blue Kraken creature token.’”', '0/1'])</t>
+          <t>('Myriad Landscape', ['Land', 'Myriad Landscape enters the battlefield tapped.', '{T}: Add {C}.', '{2}, {T}, Sacrifice Myriad Landscape: Search your library for up to two basic land cards that share a land type, put them onto the battlefield tapped, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('Reinterpret', ['{2}{U}{R}', 'Instant', 'Counter target spell. You may cast a spell with an equal or lesser mana value from your hand without paying its mana cost.'])</t>
+          <t>('Naru Meha, Master Wizard', ['{2}{U}{U}', 'Legendary Creature — Human Wizard', 'Flash', 'When Naru Meha, Master Wizard enters the battlefield, copy target instant or sorcery spell you control. You may choose new targets for the copy.', 'Other Wizards you control get +1/+1.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>('Reliquary Tower', ['Land', 'You have no maximum hand size.', '{T}: Add {C}.'])</t>
+          <t>('Necropolis Regent', ['{3}{B}{B}{B}', 'Creature — Vampire', 'Flying', 'Whenever a creature you control deals combat damage to a player, put that many +1/+1 counters on it.', '6/5'])</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>('Replication Technique', ['{4}{U}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Create a token that’s a copy of target permanent you control.'])</t>
+          <t>('Nils, Discipline Enforcer', ['{2}{W}', 'Legendary Creature — Human Cleric', 'At the beginning of your end step, for each player, put a +1/+1 counter on up to one target creature that player controls.', 'Each creature with one or more counters on it can’t attack you or planeswalkers you control unless its controller pays {X}, where X is the number of counters on that creature.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>('Return of the Wildspeaker', ['{4}{G}', 'Instant', 'Choose one —', '• Draw cards equal to the greatest power among non-Human creatures you control.', '• Non-Human creatures you control get +3/+3 until end of turn.'])</t>
+          <t>("Nissa's Expedition", ['{4}{G}', 'Sorcery', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('Return to Dust', ['{2}{W}{W}', 'Instant', 'Exile target artifact or enchantment. If you cast this spell during your main phase, you may exile up to one other target artifact or enchantment.'])</t>
+          <t>("Nissa's Renewal", ['{5}{G}', 'Sorcery', 'Search your library for up to three basic land cards, put them onto the battlefield tapped, then shuffle your library. You gain 7 life.'])</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('Revival Experiment', ['{4}{B}{G}', 'Sorcery', 'For each permanent type, return up to one card of that type from your graveyard to the battlefield. You lose 3 life for each card returned this way. Exile Revival Experiment.'])</t>
+          <t>('Novijen, Heart of Progress', ['Land', '{T}: Add {C}.', '{G}{U}, {T}: Put a +1/+1 counter on each creature that entered the battlefield this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('Rionya, Fire Dancer', ['{3}{R}{R}', 'Legendary Creature — Human Wizard', 'At the beginning of combat on your turn, create X tokens that are copies of another target creature you control, where X is one plus the number of instant and sorcery spells you’ve cast this turn. They gain haste. Exile them at the beginning of the next end step.', '3/4'])</t>
+          <t>('Noxious Gearhulk', ['{4}{B}{B}', 'Artifact Creature — Construct', 'Menace', 'When Noxious Gearhulk enters the battlefield, you may destroy another target creature. If a creature is destroyed this way, you gain life equal to its toughness.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('Rite of Replication', ['{2}{U}{U}', 'Sorcery', 'Kicker {5} (You may pay an additional {5} as you cast this spell.)', 'Create a token that’s a copy of target creature. If this spell was kicked, create five of those tokens instead.'])</t>
+          <t>('Oblation', ['{2}{W}', 'Instant', 'The owner of target nonland permanent shuffles it into their library, then draws two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>('Rousing Refrain', ['{3}{R}{R}', 'Sorcery', 'Add {R} for each card in target opponent’s hand. Until end of turn, you don’t lose this mana as steps and phases end. Exile Rousing Refrain with three time counters on it.', 'Suspend 3—{1}{R} (Rather than cast this card from your hand, you may pay {1}{R} and exile it with three time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)'])</t>
+          <t>('Ob Nixilis Reignited', ['{3}{B}{B}', 'Legendary Planeswalker — Nixilis', '+1: You draw a card and you lose 1 life.', '−3: Destroy target creature.', '−8: Target opponent gets an emblem with “Whenever a player draws a card, you lose 2 life.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('Rout', ['{3}{W}{W}', 'Sorcery', 'You may cast Rout as though it had flash if you pay {2} more to cast it. (You may cast it any time you could cast an instant.)', 'Destroy all creatures. They can’t be regenerated.'])</t>
+          <t>('Octavia, Living Thesis', ['{8}{U}{U}', 'Legendary Creature — Elemental Octopus', 'This spell costs {8} less to cast if you have eight or more instant and/or sorcery cards in your graveyard.', 'Ward {8}', 'Magecraft — Whenever you cast an instant or sorcery spell, target creature has base power and toughness 8/8 until end of turn.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>('Ruin Grinder', ['{5}{R}', 'Artifact Creature — Construct', 'Menace', 'When Ruin Grinder dies, each player may discard their hand and draw seven cards.', 'Mountaincycling {2} ({2}, Discard this card: Search your library for a Mountain card. Reveal it, put it into your hand, then shuffle.)', '7/4'])</t>
+          <t>('Opal Palace', ['Land', '{T}: Add {C}.', '{1}, {T}: Add one mana of any color in your commander’s color identity. If you spend this mana to cast your commander, it enters the battlefield with a number of additional +1/+1 counters on it equal to the number of times it’s been cast from the command zone this game.'])</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>('Ruxa, Patient Professor', ['{2}{G}{G}', 'Legendary Creature — Bear Druid', 'Whenever Ruxa, Patient Professor enters the battlefield or attacks, return target creature card with no abilities from your graveyard to your hand.', 'Creatures you control with no abilities get +1/+1.', 'You may have creatures you control with no abilities assign their combat damage as though they weren’t blocked.', '4/4'])</t>
+          <t>('Oran-Rief, the Vastwood', ['Land', 'Oran-Rief, the Vastwood enters the battlefield tapped.', '{T}: Add {G}.', '{T}: Put a +1/+1 counter on each green creature that entered the battlefield this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('Sanctum Gargoyle', ['{3}{W}', 'Artifact Creature — Gargoyle', 'Flying', 'When Sanctum Gargoyle enters the battlefield, you may return target artifact card from your graveyard to your hand.', '2/3'])</t>
+          <t>('Oreskos Explorer', ['{1}{W}', 'Creature — Cat Scout', 'When Oreskos Explorer enters the battlefield, search your library for up to X Plains cards, where X is the number of players who control more lands than you. Reveal those cards, put them into your hand, then shuffle your library.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('Scavenger Grounds', ['Land — Desert', '{T}: Add {C}.', '{2}, {T}, Sacrifice a Desert: Exile all cards from all graveyards.'])</t>
+          <t>('Orzhov Advokist', ['{2}{W}', 'Creature — Human Advisor', 'At the beginning of your upkeep, each player may put two +1/+1 counters on a creature they control. If a player does, creatures that player controls can’t attack you or a planeswalker you control until your next turn.', '1/4'])</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>('Scholarship Sponsor', ['{3}{W}', 'Creature — Human Advisor', 'When Scholarship Sponsor enters the battlefield, each player who controls fewer lands than the player who controls the most lands searches their library for a number of basic land cards less than or equal to the difference, puts those cards onto the battlefield tapped, then shuffles.', '3/3'])</t>
+          <t>('Orzhov Basilica', ['Land', 'Orzhov Basilica enters the battlefield tapped.', 'When Orzhov Basilica enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {W}{B}.'])</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>('Scrap Trawler', ['{3}', 'Artifact Creature — Construct', 'Whenever Scrap Trawler or another artifact you control is put into a graveyard from the battlefield, return to your hand target artifact card in your graveyard with lesser converted mana cost.', '3/2'])</t>
+          <t>('Orzhov Signet', ['{2}', 'Artifact', '{1}, {T}: Add {W}{B}.'])</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>('Sculpting Steel', ['{3}', 'Artifact', 'You may have Sculpting Steel enter the battlefield as a copy of any artifact on the battlefield.'])</t>
+          <t>('Osgir, the Reconstructor', ['{2}{R}{W}', 'Legendary Creature — Giant Artificer', 'Vigilance', '{1}, Sacrifice an artifact: Target creature you control gets +2/+0 until end of turn.', '{X}, {T}, Exile an artifact with mana value X from your graveyard: Create two tokens that are copies of the exiled card. Activate only as a sorcery.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>('Seething Song', ['{2}{R}', 'Instant', 'Add {R}{R}{R}{R}{R}.'])</t>
+          <t>('Oversimplify', ['{3}{G}{U}', 'Sorcery', 'Exile all creatures. Each player creates a 0/0 green and blue Fractal creature token and puts a number of +1/+1 counters on it equal to the total power of creatures they controlled that were exiled this way.'])</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>('Selfless Squire', ['{3}{W}', 'Creature — Human Soldier', 'Flash', 'When Selfless Squire enters the battlefield, prevent all damage that would be dealt to you this turn.', 'Whenever damage that would be dealt to you is prevented, put that many +1/+1 counters on Selfless Squire.', '1/1'])</t>
+          <t>('Paradise Plume', ['{4}', 'Artifact', 'As Paradise Plume enters the battlefield, choose a color.', 'Whenever a player casts a spell of the chosen color, you may gain 1 life.', '{T}: Add one mana of the chosen color.'])</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('Sequence Engine', ['{2}{G}', 'Artifact', '{X}, {T}: Exile target creature card with mana value X from a graveyard. Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it. Activate only as a sorcery.'])</t>
+          <t>('Paradox Zone', ['{4}{G}', 'Enchantment', 'Paradox Zone enters the battlefield with a growth counter on it.', 'At the beginning of your end step, double the number of growth counters on Paradox Zone. Then create a 0/0 blue and green Fractal creature token. Put X +1/+1 counters on it, where X is the number of growth counters on Paradox Zone.'])</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('Serum Visions', ['{U}', 'Sorcery', 'Draw a card. Scry 2.'])</t>
+          <t>('Parasitic Impetus', ['{2}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', 'Whenever enchanted creature attacks, its controller loses 2 life and you gain 2 life.'])</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>('Shamanic Revelation', ['{3}{G}{G}', 'Sorcery', 'Draw a card for each creature you control.', 'Ferocious — You gain 4 life for each creature you control with power 4 or greater.'])</t>
+          <t>('Pendant of Prosperity', ['{3}', 'Artifact', 'Pendant of Prosperity enters the battlefield under the control of an opponent of your choice.', '{2}, {T}: Draw a card, then you may put a land card from your hand onto the battlefield. Pendant of Prosperity’s owner draws a card, then that player may put a land card from their hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>('Shivan Reef', ['Land', '{T}: Add {C}.', '{T}: Add {U} or {R}. Shivan Reef deals 1 damage to you.'])</t>
+          <t>('Perplexing Test', ['{3}{U}{U}', 'Instant', 'Choose one —', '• Return all creature tokens to their owners’ hands.', '• Return all nontoken creatures to their owners’ hands.'])</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>('Simic Growth Chamber', ['Land', 'Simic Growth Chamber enters the battlefield tapped.', 'When Simic Growth Chamber enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {G}{U}.'])</t>
+          <t>('Pest Infestation', ['{X}{X}{G}', 'Sorcery', 'Destroy up to X target artifacts and/or enchantments. Create twice X 1/1 black and green Pest creature tokens with “When this creature dies, you gain 1 life.”'])</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>('Simic Signet', ['{2}', 'Artifact', '{1}, {T}: Add {G}{U}.'])</t>
+          <t>("Phyrexia's Core", ['Land', '{T}: Add {C}.', '{1}, {T}, Sacrifice an artifact: You gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>("Slayers' Stronghold", ['Land', '{T}: Add {C}.', '{R}{W}, {T}: Target creature gets +2/+0 and gains vigilance and haste until end of turn.'])</t>
+          <t>('Pia Nalaar', ['{2}{R}', 'Legendary Creature — Human Artificer', 'When Pia Nalaar enters the battlefield, create a 1/1 colorless Thopter artifact creature token with flying.', '{1}{R}: Target artifact creature gets +1/+0 until end of turn.', '{1}, Sacrifice an artifact: Target creature can’t block this turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>('Sly Instigator', ['{3}{U}', 'Creature — Human Wizard', '{U}, {T}: Until your next turn, target creature an opponent controls can’t be blocked. Goad that creature. (Until your next turn, that creature attacks each combat if able and attacks a player other than you if able.)', '2/4'])</t>
+          <t>("Pilgrim's Eye", ['{3}', 'Artifact Creature — Thopter', 'Flying', 'When Pilgrim’s Eye enters the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>('Solemn Simulacrum', ['{4}', 'Artifact Creature — Golem', 'When Solemn Simulacrum enters the battlefield, you may search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.', 'When Solemn Simulacrum dies, you may draw a card.', '2/2'])</t>
+          <t>('Plaxcaster Frogling', ['{1}{G}{U}', 'Creature — Frog Mutant', 'Graft 3 (This creature enters the battlefield with three +1/+1 counters on it. Whenever another creature enters the battlefield, you may move a +1/+1 counter from this creature onto it.)', '{2}: Target creature with a +1/+1 counter on it gains shroud until end of turn. (It can’t be the target of spells or abilities.)', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>('Sol Ring', ['{1}', 'Artifact', '{T}: Add {C}{C}.'])</t>
+          <t>('Ponder', ['{U}', 'Sorcery', 'Look at the top three cards of your library, then put them back in any order. You may shuffle your library.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>('Soul Snare', ['{W}', 'Enchantment', '{W}, Sacrifice Soul Snare: Exile target creature that’s attacking you or a planeswalker you control.'])</t>
+          <t>('Primal Empathy', ['{1}{G}{U}', 'Enchantment', 'At the beginning of your upkeep, draw a card if you control a creature with the greatest power among creatures on the battlefield. Otherwise, put a +1/+1 counter on a creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>('Spawning Kraken', ['{5}{U}', 'Creature — Kraken', 'Whenever a Kraken, Leviathan, Octopus, or Serpent you control deals combat damage to a player, create a 9/9 blue Kraken creature token.', '6/6'])</t>
+          <t>('Pristine Talisman', ['{3}', 'Artifact', '{T}: Add {C}. You gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>('Spectral Searchlight', ['{3}', 'Artifact', '{T}: Choose a player. That player adds one mana of any color they choose.'])</t>
+          <t>('Promise of Loyalty', ['{4}{W}', 'Sorcery', 'Each player puts a vow counter on a creature they control and sacrifices the rest. Each of those creatures can’t attack you for as long as it has a vow counter on it.'])</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>('Spitting Image', ['{4}{G/U}{G/U}', 'Sorcery', 'Create a token that’s a copy of target creature.', 'Retrace (You may cast this card from your graveyard by discarding a land card in addition to paying its other costs.)'])</t>
+          <t>('Pulse of Murasa', ['{2}{G}', 'Instant', 'Return target creature or land card from a graveyard to its owner’s hand. You gain 6 life.'])</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('Sproutback Trudge', ['{7}{G}{G}', 'Creature — Fungus Beast', 'This spell costs {X} less to cast, where X is the amount of life you gained this turn.', 'Trample', 'At the beginning of your end step, if you gained life this turn, you may cast Sproutback Trudge from your graveyard.', '9/7'])</t>
+          <t>("Pyromancer's Goggles", ['{5}', 'Legendary Artifact', '{T}: Add {R}. When that mana is spent to cast a red instant or sorcery spell, copy that spell and you may choose new targets for the copy.'])</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>('Stalking Leonin', ['{2}{W}', 'Creature — Cat Archer', 'When Stalking Leonin enters the battlefield, secretly choose an opponent.', 'Reveal the player you chose: Exile target creature that’s attacking you if it’s controlled by the chosen player. Activate this ability only once.', '3/3'])</t>
+          <t>('Quicksmith Genius', ['{2}{R}', 'Creature — Human Artificer', 'Whenever an artifact enters the battlefield under your control, you may discard a card. If you do, draw a card.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>('Steel Hellkite', ['{6}', 'Artifact Creature — Dragon', 'Flying', '{2}: Steel Hellkite gets +1/+0 until end of turn.', '{X}: Destroy each nonland permanent with converted mana cost X whose controller was dealt combat damage by Steel Hellkite this turn. Activate this ability only once each turn.', '5/5'])</t>
+          <t>('Radiant Fountain', ['Land', 'When Radiant Fountain enters the battlefield, you gain 2 life.', '{T}: Add {C}.'])</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>('Steel Overseer', ['{2}', 'Artifact Creature — Construct', '{T}: Put a +1/+1 counter on each artifact creature you control.', '1/1'])</t>
+          <t>('Radiant Performer', ['{3}{R}{R}', 'Creature — Human Wizard', 'Flash', 'When Radiant Performer enters the battlefield, if you cast it from your hand, choose target spell or ability that targets only a single permanent or player. Copy that spell or ability for each other permanent or player the spell or ability could target. Each copy targets a different one of those permanents and players.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>('Stinging Study', ['{4}{B}', 'Instant', 'You draw X cards and you lose X life, where X is the mana value of a commander you own on the battlefield or in the command zone.'])</t>
+          <t>('Rampaging Baloths', ['{4}{G}{G}', 'Creature — Beast', 'Trample', 'Landfall — Whenever a land enters the battlefield under your control, you may create a 4/4 green Beast creature token.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>('Study Hall', ['Land', '{T}: Add {C}.', '{1}, {T}: Add one mana of any color. When you spend this mana to cast your commander, scry X, where X is the number of times it’s been cast from the command zone this game.'])</t>
+          <t>('Rampant Growth', ['{1}{G}', 'Sorcery', 'Search your library for a basic land card and put that card onto the battlefield tapped. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>("Sunbird's Invocation", ['{5}{R}', 'Enchantment', 'Whenever you cast a spell from your hand, reveal the top X cards of your library, where X is that spell’s converted mana cost. You may cast a spell with converted mana cost X or less from among cards revealed this way without paying its mana cost. Put the rest on the bottom of your library in a random order.'])</t>
+          <t>('Rapid Hybridization', ['{U}', 'Instant', 'Destroy target creature. It can’t be regenerated. That creature’s controller creates a 3/3 green Frog Lizard creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>('Sunhome, Fortress of the Legion', ['Land', '{T}: Add {C}.', '{2}{R}{W}, {T}: Target creature gains double strike until end of turn.'])</t>
+          <t>('Reckless Spite', ['{1}{B}{B}', 'Instant', 'Destroy two target nonblack creatures. You lose 5 life.'])</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>('Sunscorch Regent', ['{3}{W}{W}', 'Creature — Dragon', 'Flying', 'Whenever an opponent casts a spell, put a +1/+1 counter on Sunscorch Regent and you gain 1 life.', '4/3'])</t>
+          <t>('Reef Worm', ['{3}{U}', 'Creature — Worm', 'When Reef Worm dies, create a 3/3 blue Fish creature token with “When this creature dies, create a 6/6 blue Whale creature token with ‘When this creature dies, create a 9/9 blue Kraken creature token.’”', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>('Sun Titan', ['{4}{W}{W}', 'Creature — Giant', 'Vigilance', 'Whenever Sun Titan enters the battlefield or attacks, you may return target permanent card with converted mana cost 3 or less from your graveyard to the battlefield.', '6/6'])</t>
+          <t>('Reinterpret', ['{2}{U}{R}', 'Instant', 'Counter target spell. You may cast a spell with an equal or lesser mana value from your hand without paying its mana cost.'])</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>('Surge to Victory', ['{4}{R}{R}', 'Sorcery', 'Exile target instant or sorcery card from your graveyard. Creatures you control get +X/+0 until end of turn, where X is that card’s mana value. Whenever a creature you control deals combat damage to a player this turn, copy the exiled card. You may cast the copy without paying its mana cost.'])</t>
+          <t>('Reliquary Tower', ['Land', 'You have no maximum hand size.', '{T}: Add {C}.'])</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>('Swarm Intelligence', ['{6}{U}', 'Enchantment', 'Whenever you cast an instant or sorcery spell, you may copy that spell. You may choose new targets for the copy.'])</t>
+          <t>('Replication Technique', ['{4}{U}', 'Sorcery', 'Demonstrate (When you cast this spell, you may copy it. If you do, choose an opponent to also copy it. Players may choose new targets for their copies.)', 'Create a token that’s a copy of target permanent you control.'])</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>('Tainted Field', ['Land', '{T}: Add {C}.', '{T}: Add {W} or {B}. Activate this ability only if you control a Swamp.'])</t>
+          <t>('Return of the Wildspeaker', ['{4}{G}', 'Instant', 'Choose one —', '• Draw cards equal to the greatest power among non-Human creatures you control.', '• Non-Human creatures you control get +3/+3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>('Talisman of Creativity', ['{2}', 'Artifact', '{T}: Add {C}.', '{T}: Add {U} or {R}. Talisman of Creativity deals 1 damage to you.'])</t>
+          <t>('Return to Dust', ['{2}{W}{W}', 'Instant', 'Exile target artifact or enchantment. If you cast this spell during your main phase, you may exile up to one other target artifact or enchantment.'])</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>('Talrand, Sky Summoner', ['{2}{U}{U}', 'Legendary Creature — Merfolk Wizard', 'Whenever you cast an instant or sorcery spell, create a 2/2 blue Drake creature token with flying.', '2/2'])</t>
+          <t>('Revival Experiment', ['{4}{B}{G}', 'Sorcery', 'For each permanent type, return up to one card of that type from your graveyard to the battlefield. You lose 3 life for each card returned this way. Exile Revival Experiment.'])</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>('Temple of Epiphany', ['Land', 'Temple of Epiphany enters the battlefield tapped.', 'When Temple of Epiphany enters the battlefield, scry 1.', '{T}: Add {U} or {R}.'])</t>
+          <t>('Rionya, Fire Dancer', ['{3}{R}{R}', 'Legendary Creature — Human Wizard', 'At the beginning of combat on your turn, create X tokens that are copies of another target creature you control, where X is one plus the number of instant and sorcery spells you’ve cast this turn. They gain haste. Exile them at the beginning of the next end step.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>('Temple of Mystery', ['Land', 'Temple of Mystery enters the battlefield tapped.', 'When Temple of Mystery enters the battlefield, scry 1.', '{T}: Add {G} or {U}.'])</t>
+          <t>('Rite of Replication', ['{2}{U}{U}', 'Sorcery', 'Kicker {5} (You may pay an additional {5} as you cast this spell.)', 'Create a token that’s a copy of target creature. If this spell was kicked, create five of those tokens instead.'])</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>('Temple of Silence', ['Land', 'Temple of Silence enters the battlefield tapped.', 'When Temple of Silence enters the battlefield, scry 1.', '{T}: Add {W} or {B}.'])</t>
+          <t>("Rogue's Passage", ['Land', '{T}: Add {C}.', '{4}, {T}: Target creature can’t be blocked this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>('Temple of Triumph', ['Land', 'Temple of Triumph enters the battlefield tapped.', 'When Temple of Triumph enters the battlefield, scry 1.', '{T}: Add {R} or {W}.'])</t>
+          <t>('Rousing Refrain', ['{3}{R}{R}', 'Sorcery', 'Add {R} for each card in target opponent’s hand. Until end of turn, you don’t lose this mana as steps and phases end. Exile Rousing Refrain with three time counters on it.', 'Suspend 3—{1}{R} (Rather than cast this card from your hand, you may pay {1}{R} and exile it with three time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>('Tempting Contract', ['{4}', 'Artifact', 'At the beginning of your upkeep, each opponent may create a Treasure token. For each opponent who does, you create a Treasure token.'])</t>
+          <t>('Rout', ['{3}{W}{W}', 'Sorcery', 'You may cast Rout as though it had flash if you pay {2} more to cast it. (You may cast it any time you could cast an instant.)', 'Destroy all creatures. They can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>('Terastodon', ['{6}{G}{G}', 'Creature — Elephant', 'When Terastodon enters the battlefield, you may destroy up to three target noncreature permanents. For each permanent put into a graveyard this way, its controller creates a 3/3 green Elephant creature token.', '9/9'])</t>
+          <t>('Ruin Grinder', ['{5}{R}', 'Artifact Creature — Construct', 'Menace', 'When Ruin Grinder dies, each player may discard their hand and draw seven cards.', 'Mountaincycling {2} ({2}, Discard this card: Search your library for a Mountain card. Reveal it, put it into your hand, then shuffle.)', '7/4'])</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>('Teysa, Envoy of Ghosts', ['{5}{W}{B}', 'Legendary Creature — Human Advisor', 'Vigilance, protection from creatures', 'Whenever a creature deals combat damage to you, destroy that creature. Create a 1/1 white and black Spirit creature token with flying.', '4/4'])</t>
+          <t>('Ruxa, Patient Professor', ['{2}{G}{G}', 'Legendary Creature — Bear Druid', 'Whenever Ruxa, Patient Professor enters the battlefield or attacks, return target creature card with no abilities from your graveyard to your hand.', 'Creatures you control with no abilities get +1/+1.', 'You may have creatures you control with no abilities assign their combat damage as though they weren’t blocked.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>('Theoretical Duplication', ['{2}{U}', 'Instant', 'Whenever a nontoken creature enters the battlefield under an opponent’s control this turn, create a token that’s a copy of that creature.'])</t>
+          <t>('Sanctum Gargoyle', ['{3}{W}', 'Artifact Creature — Gargoyle', 'Flying', 'When Sanctum Gargoyle enters the battlefield, you may return target artifact card from your graveyard to your hand.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>('Thopter Engineer', ['{2}{R}', 'Creature — Human Artificer', 'When Thopter Engineer enters the battlefield, create a 1/1 colorless Thopter artifact creature token with flying.', 'Artifact creatures you control have haste. (They can attack and {T} as soon as they come under your control.)', '1/3'])</t>
+          <t>('Sangromancer', ['{2}{B}{B}', 'Creature — Vampire Shaman', 'Flying', 'Whenever a creature an opponent controls dies, you may gain 3 life.', 'Whenever an opponent discards a card, you may gain 3 life.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>('Thousand-Year Elixir', ['{3}', 'Artifact', 'You may activate abilities of creatures you control as though those creatures had haste.', '{1}, {T}: Untap target creature.'])</t>
+          <t>('Sanguine Bond', ['{3}{B}{B}', 'Enchantment', 'Whenever you gain life, target opponent loses that much life.'])</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>('Tivash, Gloom Summoner', ['{4}{B}', 'Legendary Creature — Human Warlock', 'Lifelink', 'At the beginning of your end step, if you gained life this turn, you may pay X life, where X is the amount of life you gained this turn. If you do, create an X/X black Demon creature token with flying.', '4/4'])</t>
+          <t>('Sapling of Colfenor', ['{3}{B/G}{B/G}', 'Legendary Creature — Treefolk Shaman', 'Indestructible', 'Whenever Sapling of Colfenor attacks, reveal the top card of your library. If it’s a creature card, you gain life equal to that card’s toughness, lose life equal to its power, then put it into your hand.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>('Together Forever', ['{W}{W}', 'Enchantment', 'When Together Forever enters the battlefield, support 2. (Put a +1/+1 counter on each of up to two target creatures.)', '{1}: Choose target creature with a counter on it. When that creature dies this turn, return that card to its owner’s hand.'])</t>
+          <t>('Sapseep Forest', ['Land — Forest', '({T}: Add {G}.)', 'Sapseep Forest enters the battlefield tapped.', '{G}, {T}: You gain 1 life. Activate this ability only if you control two or more green permanents.'])</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>('Tragic Arrogance', ['{3}{W}{W}', 'Sorcery', 'For each player, you choose from among the permanents that player controls an artifact, a creature, an enchantment, and a planeswalker. Then each player sacrifices all other nonland permanents they control.'])</t>
+          <t>('Scavenger Grounds', ['Land — Desert', '{T}: Add {C}.', '{2}, {T}, Sacrifice a Desert: Exile all cards from all graveyards.'])</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>('Tranquil Thicket', ['Land', 'Tranquil Thicket enters the battlefield tapped.', '{T}: Add {G}.', 'Cycling {G} ({G}, Discard this card: Draw a card.)'])</t>
+          <t>('Scholarship Sponsor', ['{3}{W}', 'Creature — Human Advisor', 'When Scholarship Sponsor enters the battlefield, each player who controls fewer lands than the player who controls the most lands searches their library for a number of basic land cards less than or equal to the difference, puts those cards onto the battlefield tapped, then shuffles.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>('Traumatic Visions', ['{3}{U}{U}', 'Instant', 'Counter target spell.', 'Basic landcycling {1}{U} ({1}{U}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.)'])</t>
+          <t>('Scrap Trawler', ['{3}', 'Artifact Creature — Construct', 'Whenever Scrap Trawler or another artifact you control is put into a graveyard from the battlefield, return to your hand target artifact card in your graveyard with lesser converted mana cost.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>('Treasure Cruise', ['{7}{U}', 'Sorcery', 'Delve (Each card you exile from your graveyard while casting this spell pays for {1}.)', 'Draw three cards.'])</t>
+          <t>('Sculpting Steel', ['{3}', 'Artifact', 'You may have Sculpting Steel enter the battlefield as a copy of any artifact on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>('Triplicate Titan', ['{9}', 'Artifact Creature — Golem', 'Flying, vigilance, trample', 'When Triplicate Titan dies, create a 3/3 colorless Golem artifact creature token with flying, a 3/3 colorless Golem artifact creature token with vigilance, and a 3/3 colorless Golem artifact creature token with trample.', '9/9'])</t>
+          <t>('Secluded Steppe', ['Land', 'Secluded Steppe enters the battlefield tapped.', '{T}: Add {W}.', 'Cycling {W} ({W}, Discard this card: Draw a card.)'])</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>('Trudge Garden', ['{2}{G}', 'Enchantment', 'Whenever you gain life, you may pay {2}. If you do, create a 4/4 green Fungus Beast creature token with trample.'])</t>
+          <t>('Seething Song', ['{2}{R}', 'Instant', 'Add {R}{R}{R}{R}{R}.'])</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>('Trygon Predator', ['{1}{G}{U}', 'Creature — Beast', 'Flying', 'Whenever Trygon Predator deals combat damage to a player, you may destroy target artifact or enchantment that player controls.', '2/3'])</t>
+          <t>('Selfless Squire', ['{3}{W}', 'Creature — Human Soldier', 'Flash', 'When Selfless Squire enters the battlefield, prevent all damage that would be dealt to you this turn.', 'Whenever damage that would be dealt to you is prevented, put that many +1/+1 counters on Selfless Squire.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>('Unstable Obelisk', ['{3}', 'Artifact', '{T}: Add {C}.', '{7}, {T}, Sacrifice Unstable Obelisk: Destroy target permanent.'])</t>
+          <t>('Sequence Engine', ['{2}{G}', 'Artifact', '{X}, {T}: Exile target creature card with mana value X from a graveyard. Create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it. Activate only as a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>('Utter End', ['{2}{W}{B}', 'Instant', 'Exile target nonland permanent.'])</t>
+          <t>('Serum Visions', ['{U}', 'Sorcery', 'Draw a card. Scry 2.'])</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>('Veinwitch Coven', ['{2}{B}', 'Creature — Vampire Warlock', 'Menace', 'Whenever you gain life, you pay {B}. If you do, return target creature card from your graveyard to your hand.', '3/3'])</t>
+          <t>('Shamanic Revelation', ['{3}{G}{G}', 'Sorcery', 'Draw a card for each creature you control.', 'Ferocious — You gain 4 life for each creature you control with power 4 or greater.'])</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>('Veyran, Voice of Duality', ['{1}{U}{R}', 'Legendary Creature — Efreet Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, Veyran, Voice of Duality gets +1/+1 until end of turn.', 'If you casting or copying an instant or sorcery spell causes a triggered ability of a permanent you control to trigger, that ability triggers an additional time.', '2/2'])</t>
+          <t>('Shivan Reef', ['Land', '{T}: Add {C}.', '{T}: Add {U} or {R}. Shivan Reef deals 1 damage to you.'])</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>('Victory Chimes', ['{3}', 'Artifact', 'Untap Victory Chimes during each other player’s untap step.', '{T}: A player of your choice adds {C}.'])</t>
+          <t>('Silversmote Ghoul', ['{2}{B}', 'Creature — Zombie Vampire', 'At the beginning of your end step, if you gained 3 or more life this turn, return Silversmote Ghoul from your graveyard to the battlefield tapped.', '{1}{B}, Sacrifice Silversmote Ghoul: Draw a card.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>('Volcanic Vision', ['{5}{R}{R}', 'Sorcery', 'Return target instant or sorcery card from your graveyard to your hand. Volcanic Vision deals damage equal to that card’s converted mana cost to each creature your opponents control. Exile Volcanic Vision.'])</t>
+          <t>('Simic Growth Chamber', ['Land', 'Simic Growth Chamber enters the battlefield tapped.', 'When Simic Growth Chamber enters the battlefield, return a land you control to its owner’s hand.', '{T}: Add {G}{U}.'])</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>('Vow of Duty', ['{2}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2, has vigilance, and can’t attack you or a planeswalker you control.'])</t>
+          <t>('Simic Signet', ['{2}', 'Artifact', '{1}, {T}: Add {G}{U}.'])</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>('Wake the Past', ['{5}{R}{W}', 'Sorcery', 'Return all artifact cards from your graveyard to the battlefield. They gain haste until end of turn.'])</t>
+          <t>("Slayers' Stronghold", ['Land', '{T}: Add {C}.', '{R}{W}, {T}: Target creature gets +2/+0 and gains vigilance and haste until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>('Wildfire Devils', ['{3}{R}', 'Creature — Devil', 'When Wildfire Devils enters the battlefield and at the beginning of your upkeep, choose a player at random. That player exiles an instant or sorcery card from their graveyard. Copy that card. You may cast the copy without paying its mana cost.', '4/2'])</t>
+          <t>('Sly Instigator', ['{3}{U}', 'Creature — Human Wizard', '{U}, {T}: Until your next turn, target creature an opponent controls can’t be blocked. Goad that creature. (Until your next turn, that creature attacks each combat if able and attacks a player other than you if able.)', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>('Willowdusk, Essence Seer', ['{1}{B}{G}', 'Legendary Creature — Dryad Druid', '{1}, {T}: Choose another target creature. Put a number of +1/+1 counters on it equal to the amount of life you gained this turn or the amount of life you lost this turn, whichever is greater. Activate only as a sorcery.', '3/3'])</t>
+          <t>('Solemn Simulacrum', ['{4}', 'Artifact Creature — Golem', 'When Solemn Simulacrum enters the battlefield, you may search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.', 'When Solemn Simulacrum dies, you may draw a card.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>('Windborn Muse', ['{3}{W}', 'Creature — Spirit', 'Flying', 'Creatures can’t attack you unless their controller pays {2} for each creature they control that’s attacking you.', '2/3'])</t>
+          <t>('Sol Ring', ['{1}', 'Artifact', '{T}: Add {C}{C}.'])</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>("Witch's Clinic", ['Land', '{T}: Add {C}.', '{2}, {T}: Target commander gains lifelink until end of turn.'])</t>
+          <t>('Soul Snare', ['{W}', 'Enchantment', '{W}, Sacrifice Soul Snare: Exile target creature that’s attacking you or a planeswalker you control.'])</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>('Yavimaya Coast', ['Land', '{T}: Add {C}.', '{T}: Add {G} or {U}. Yavimaya Coast deals 1 damage to you.'])</t>
+          <t>('Spawning Kraken', ['{5}{U}', 'Creature — Kraken', 'Whenever a Kraken, Leviathan, Octopus, or Serpent you control deals combat damage to a player, create a 9/9 blue Kraken creature token.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>('Yedora, Grave Gardener', ['{4}{G}', 'Legendary Creature — Treefolk Druid', 'Whenever another nontoken creature you control dies, you may return it to the battlefield face down under its owner’s control. It’s a Forest land. (It has no other types or abilities.)', '5/5'])</t>
+          <t>('Spectral Searchlight', ['{3}', 'Artifact', '{T}: Choose a player. That player adds one mana of any color they choose.'])</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>('Zaffai, Thunder Conductor', ['{2}{U}{R}', 'Legendary Creature — Human Shaman', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, scry 1. If that spell’s mana value is 5 or greater, create a 4/4 blue and red Elemental creature token. If that spell’s mana value is 10 or greater, Zaffai, Thunder Conductor deals 10 damage to an opponent chosen at random.', '1/4'])</t>
+          <t>('Spitting Image', ['{4}{G/U}{G/U}', 'Sorcery', 'Create a token that’s a copy of target creature.', 'Retrace (You may cast this card from your graveyard by discarding a land card in addition to paying its other costs.)'])</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
+        <is>
+          <t>('Sproutback Trudge', ['{7}{G}{G}', 'Creature — Fungus Beast', 'This spell costs {X} less to cast, where X is the amount of life you gained this turn.', 'Trample', 'At the beginning of your end step, if you gained life this turn, you may cast Sproutback Trudge from your graveyard.', '9/7'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>('Stalking Leonin', ['{2}{W}', 'Creature — Cat Archer', 'When Stalking Leonin enters the battlefield, secretly choose an opponent.', 'Reveal the player you chose: Exile target creature that’s attacking you if it’s controlled by the chosen player. Activate this ability only once.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>('Steel Hellkite', ['{6}', 'Artifact Creature — Dragon', 'Flying', '{2}: Steel Hellkite gets +1/+0 until end of turn.', '{X}: Destroy each nonland permanent with converted mana cost X whose controller was dealt combat damage by Steel Hellkite this turn. Activate this ability only once each turn.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>('Steel Overseer', ['{2}', 'Artifact Creature — Construct', '{T}: Put a +1/+1 counter on each artifact creature you control.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>('Stinging Study', ['{4}{B}', 'Instant', 'You draw X cards and you lose X life, where X is the mana value of a commander you own on the battlefield or in the command zone.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>('Study Hall', ['Land', '{T}: Add {C}.', '{1}, {T}: Add one mana of any color. When you spend this mana to cast your commander, scry X, where X is the number of times it’s been cast from the command zone this game.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>('Suffer the Past', ['{X}{B}', 'Instant', 'Exile X target cards from target player’s graveyard. For each card exiled this way, that player loses 1 life and you gain 1 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>("Sunbird's Invocation", ['{5}{R}', 'Enchantment', 'Whenever you cast a spell from your hand, reveal the top X cards of your library, where X is that spell’s converted mana cost. You may cast a spell with converted mana cost X or less from among cards revealed this way without paying its mana cost. Put the rest on the bottom of your library in a random order.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>('Sun Droplet', ['{2}', 'Artifact', 'Whenever you’re dealt damage, put that many charge counters on Sun Droplet.', 'At the beginning of each upkeep, you may remove a charge counter from Sun Droplet. If you do, you gain 1 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>('Sunhome, Fortress of the Legion', ['Land', '{T}: Add {C}.', '{2}{R}{W}, {T}: Target creature gains double strike until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>('Sunscorch Regent', ['{3}{W}{W}', 'Creature — Dragon', 'Flying', 'Whenever an opponent casts a spell, put a +1/+1 counter on Sunscorch Regent and you gain 1 life.', '4/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>('Sun Titan', ['{4}{W}{W}', 'Creature — Giant', 'Vigilance', 'Whenever Sun Titan enters the battlefield or attacks, you may return target permanent card with converted mana cost 3 or less from your graveyard to the battlefield.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>('Surge to Victory', ['{4}{R}{R}', 'Sorcery', 'Exile target instant or sorcery card from your graveyard. Creatures you control get +X/+0 until end of turn, where X is that card’s mana value. Whenever a creature you control deals combat damage to a player this turn, copy the exiled card. You may cast the copy without paying its mana cost.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>('Swarm Intelligence', ['{6}{U}', 'Enchantment', 'Whenever you cast an instant or sorcery spell, you may copy that spell. You may choose new targets for the copy.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>('Tainted Field', ['Land', '{T}: Add {C}.', '{T}: Add {W} or {B}. Activate this ability only if you control a Swamp.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>('Tainted Wood', ['Land', '{T}: Add {C}.', '{T}: Add {B} or {G}. Activate this ability only if you control a Swamp.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>('Talisman of Creativity', ['{2}', 'Artifact', '{T}: Add {C}.', '{T}: Add {U} or {R}. Talisman of Creativity deals 1 damage to you.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>('Talisman of Resilience', ['{2}', 'Artifact', '{T}: Add {C}.', '{T}: Add {B} or {G}. Talisman of Resilience deals 1 damage to you.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>('Talrand, Sky Summoner', ['{2}{U}{U}', 'Legendary Creature — Merfolk Wizard', 'Whenever you cast an instant or sorcery spell, create a 2/2 blue Drake creature token with flying.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>('Taste of Death', ['{4}{B}{B}', 'Sorcery', 'Each player sacrifices three creatures. You create three Food tokens. (They’re artifacts with “{2}, {T}, Sacrifice this artifact: You gain 3 life.”)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>('Temple of Epiphany', ['Land', 'Temple of Epiphany enters the battlefield tapped.', 'When Temple of Epiphany enters the battlefield, scry 1.', '{T}: Add {U} or {R}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>('Temple of Malady', ['Land', 'Temple of Malady enters the battlefield tapped.', 'When Temple of Malady enters the battlefield, scry 1.', '{T}: Add {B} or {G}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>('Temple of Mystery', ['Land', 'Temple of Mystery enters the battlefield tapped.', 'When Temple of Mystery enters the battlefield, scry 1.', '{T}: Add {G} or {U}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>('Temple of Silence', ['Land', 'Temple of Silence enters the battlefield tapped.', 'When Temple of Silence enters the battlefield, scry 1.', '{T}: Add {W} or {B}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>('Temple of the False God', ['Land', '{T}: Add {C}{C}. Activate this ability only if you control five or more lands.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>('Temple of Triumph', ['Land', 'Temple of Triumph enters the battlefield tapped.', 'When Temple of Triumph enters the battlefield, scry 1.', '{T}: Add {R} or {W}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>('Tempting Contract', ['{4}', 'Artifact', 'At the beginning of your upkeep, each opponent may create a Treasure token. For each opponent who does, you create a Treasure token.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>('Terastodon', ['{6}{G}{G}', 'Creature — Elephant', 'When Terastodon enters the battlefield, you may destroy up to three target noncreature permanents. For each permanent put into a graveyard this way, its controller creates a 3/3 green Elephant creature token.', '9/9'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>('Teysa, Envoy of Ghosts', ['{5}{W}{B}', 'Legendary Creature — Human Advisor', 'Vigilance, protection from creatures', 'Whenever a creature deals combat damage to you, destroy that creature. Create a 1/1 white and black Spirit creature token with flying.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>('Theoretical Duplication', ['{2}{U}', 'Instant', 'Whenever a nontoken creature enters the battlefield under an opponent’s control this turn, create a token that’s a copy of that creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>('Thopter Engineer', ['{2}{R}', 'Creature — Human Artificer', 'When Thopter Engineer enters the battlefield, create a 1/1 colorless Thopter artifact creature token with flying.', 'Artifact creatures you control have haste. (They can attack and {T} as soon as they come under your control.)', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>('Thousand-Year Elixir', ['{3}', 'Artifact', 'You may activate abilities of creatures you control as though those creatures had haste.', '{1}, {T}: Untap target creature.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>('Tivash, Gloom Summoner', ['{4}{B}', 'Legendary Creature — Human Warlock', 'Lifelink', 'At the beginning of your end step, if you gained life this turn, you may pay X life, where X is the amount of life you gained this turn. If you do, create an X/X black Demon creature token with flying.', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>('Together Forever', ['{W}{W}', 'Enchantment', 'When Together Forever enters the battlefield, support 2. (Put a +1/+1 counter on each of up to two target creatures.)', '{1}: Choose target creature with a counter on it. When that creature dies this turn, return that card to its owner’s hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>('Tragic Arrogance', ['{3}{W}{W}', 'Sorcery', 'For each player, you choose from among the permanents that player controls an artifact, a creature, an enchantment, and a planeswalker. Then each player sacrifices all other nonland permanents they control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>('Tranquil Thicket', ['Land', 'Tranquil Thicket enters the battlefield tapped.', '{T}: Add {G}.', 'Cycling {G} ({G}, Discard this card: Draw a card.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>('Traumatic Visions', ['{3}{U}{U}', 'Instant', 'Counter target spell.', 'Basic landcycling {1}{U} ({1}{U}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>('Treasure Cruise', ['{7}{U}', 'Sorcery', 'Delve (Each card you exile from your graveyard while casting this spell pays for {1}.)', 'Draw three cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>('Triplicate Titan', ['{9}', 'Artifact Creature — Golem', 'Flying, vigilance, trample', 'When Triplicate Titan dies, create a 3/3 colorless Golem artifact creature token with flying, a 3/3 colorless Golem artifact creature token with vigilance, and a 3/3 colorless Golem artifact creature token with trample.', '9/9'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>('Trudge Garden', ['{2}{G}', 'Enchantment', 'Whenever you gain life, you may pay {2}. If you do, create a 4/4 green Fungus Beast creature token with trample.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>('Trygon Predator', ['{1}{G}{U}', 'Creature — Beast', 'Flying', 'Whenever Trygon Predator deals combat damage to a player, you may destroy target artifact or enchantment that player controls.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>('Unstable Obelisk', ['{3}', 'Artifact', '{T}: Add {C}.', '{7}, {T}, Sacrifice Unstable Obelisk: Destroy target permanent.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>('Utter End', ['{2}{W}{B}', 'Instant', 'Exile target nonland permanent.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>('Vampire Nighthawk', ['{1}{B}{B}', 'Creature — Vampire Shaman', 'Flying, deathtouch, lifelink', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>('Veinwitch Coven', ['{2}{B}', 'Creature — Vampire Warlock', 'Menace', 'Whenever you gain life, you pay {B}. If you do, return target creature card from your graveyard to your hand.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>("Venser's Journal", ['{5}', 'Artifact', 'You have no maximum hand size.', 'At the beginning of your upkeep, you gain 1 life for each card in your hand.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>("Verdant Sun's Avatar", ['{5}{G}{G}', 'Creature — Dinosaur Avatar', 'Whenever Verdant Sun’s Avatar or another creature enters the battlefield under your control, you gain life equal to that creature’s toughness.', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>('Veyran, Voice of Duality', ['{1}{U}{R}', 'Legendary Creature — Efreet Wizard', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, Veyran, Voice of Duality gets +1/+1 until end of turn.', 'If you casting or copying an instant or sorcery spell causes a triggered ability of a permanent you control to trigger, that ability triggers an additional time.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>('Victory Chimes', ['{3}', 'Artifact', 'Untap Victory Chimes during each other player’s untap step.', '{T}: A player of your choice adds {C}.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>('Volcanic Vision', ['{5}{R}{R}', 'Sorcery', 'Return target instant or sorcery card from your graveyard to your hand. Volcanic Vision deals damage equal to that card’s converted mana cost to each creature your opponents control. Exile Volcanic Vision.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>('Vow of Duty', ['{2}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2, has vigilance, and can’t attack you or a planeswalker you control.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>('Wake the Past', ['{5}{R}{W}', 'Sorcery', 'Return all artifact cards from your graveyard to the battlefield. They gain haste until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>('Well of Lost Dreams', ['{4}', 'Artifact', 'Whenever you gain life, you may pay {X}, where X is less than or equal to the amount of life you gained. If you do, draw X cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>('Wildfire Devils', ['{3}{R}', 'Creature — Devil', 'When Wildfire Devils enters the battlefield and at the beginning of your upkeep, choose a player at random. That player exiles an instant or sorcery card from their graveyard. Copy that card. You may cast the copy without paying its mana cost.', '4/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>('Willowdusk, Essence Seer', ['{1}{B}{G}', 'Legendary Creature — Dryad Druid', '{1}, {T}: Choose another target creature. Put a number of +1/+1 counters on it equal to the amount of life you gained this turn or the amount of life you lost this turn, whichever is greater. Activate only as a sorcery.', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>('Windborn Muse', ['{3}{W}', 'Creature — Spirit', 'Flying', 'Creatures can’t attack you unless their controller pays {2} for each creature they control that’s attacking you.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>("Witch's Clinic", ['Land', '{T}: Add {C}.', '{2}, {T}: Target commander gains lifelink until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>('Yavimaya Coast', ['Land', '{T}: Add {C}.', '{T}: Add {G} or {U}. Yavimaya Coast deals 1 damage to you.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>('Yedora, Grave Gardener', ['{4}{G}', 'Legendary Creature — Treefolk Druid', 'Whenever another nontoken creature you control dies, you may return it to the battlefield face down under its owner’s control. It’s a Forest land. (It has no other types or abilities.)', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>('Zaffai, Thunder Conductor', ['{2}{U}{R}', 'Legendary Creature — Human Shaman', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, scry 1. If that spell’s mana value is 5 or greater, create a 4/4 blue and red Elemental creature token. If that spell’s mana value is 10 or greater, Zaffai, Thunder Conductor deals 10 damage to an opponent chosen at random.', '1/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
         <is>
           <t>('Zetalpa, Primal Dawn', ['{6}{W}{W}', 'Legendary Creature — Elder Dinosaur', 'Flying, double strike, vigilance, trample, indestructible', '4/8'])</t>
         </is>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Commander 2021 (C21).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Commander 2021 (C21).xlsx
@@ -612,7 +612,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Blighted Woodland', ['Land', '{T}: Add {C}.', '{3}{G}, {T}, Sacrifice Blighted Woodland: Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.'])</t>
+          <t>('Blighted Woodland', ['Land', '{T}: Add {C}.', '{3}{G}, {T}, Sacrifice Blighted Woodland: Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Bloodthirsty Blade', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +2/+0 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', '{1}: Attach Bloodthirsty Blade to target creature an opponent controls. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Bloodthirsty Blade', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +2/+0 and is goaded. (It attacks each combat if able and attacks a player other than you if able.)', '{1}: Attach Bloodthirsty Blade to target creature an opponent controls. Activate only as a sorcery.'])</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Boreas Charger', ['{2}{W}', 'Creature — Pegasus', 'Flying', 'When Boreas Charger leaves the battlefield, choose an opponent who controls more lands than you. Search your library for a number of Plains cards equal to the difference and reveal them. Put one of them onto the battlefield tapped and the rest into your hand. Then shuffle your library.', '2/1'])</t>
+          <t>('Boreas Charger', ['{2}{W}', 'Creature — Pegasus', 'Flying', 'When Boreas Charger leaves the battlefield, choose an opponent who controls more lands than you. Search your library for a number of Plains cards equal to the difference, reveal those cards, put one of them onto the battlefield tapped and the rest into your hand, then shuffle.', '2/1'])</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Bosh, Iron Golem', ['{8}', 'Legendary Artifact Creature — Golem', 'Trample', '{3}{R}, Sacrifice an artifact: Bosh, Iron Golem deals damage equal to the sacrificed artifact’s converted mana cost to any target.', '6/7'])</t>
+          <t>('Bosh, Iron Golem', ['{8}', 'Legendary Artifact Creature — Golem', 'Trample', '{3}{R}, Sacrifice an artifact: Bosh, Iron Golem deals damage equal to the sacrificed artifact’s mana value to any target.', '6/7'])</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Burnished Hart', ['{3}', 'Artifact Creature — Elk', '{3}, Sacrifice Burnished Hart: Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.', '2/2'])</t>
+          <t>('Burnished Hart', ['{3}', 'Artifact Creature — Elk', '{3}, Sacrifice Burnished Hart: Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle.', '2/2'])</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Combustible Gearhulk', ['{4}{R}{R}', 'Artifact Creature — Construct', 'First strike', 'When Combustible Gearhulk enters the battlefield, target opponent may have you draw three cards. If the player doesn’t, you mill three cards, then Combustible Gearhulk deals damage to that player equal to the total converted mana cost of those cards.', '6/6'])</t>
+          <t>('Combustible Gearhulk', ['{4}{R}{R}', 'Artifact Creature — Construct', 'First strike', 'When Combustible Gearhulk enters the battlefield, target opponent may have you draw three cards. If the player doesn’t, you mill three cards, then Combustible Gearhulk deals damage to that player equal to the total mana value of those cards.', '6/6'])</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('Cultivate', ['{2}{G}', 'Sorcery', 'Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.'])</t>
+          <t>('Cultivate', ['{2}{G}', 'Sorcery', 'Search your library for up to two basic land cards, reveal those cards, put one onto the battlefield tapped and the other into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('Epic Experiment', ['{X}{U}{R}', 'Sorcery', 'Exile the top X cards of your library. You may cast instant and sorcery spells with converted mana cost X or less from among them without paying their mana costs. Then put all cards exiled this way that weren’t cast into your graveyard.'])</t>
+          <t>('Epic Experiment', ['{X}{U}{R}', 'Sorcery', 'Exile the top X cards of your library. You may cast instant and sorcery spells with mana value X or less from among them without paying their mana costs. Then put all cards exiled this way that weren’t cast into your graveyard.'])</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('Erratic Cyclops', ['{3}{R}', 'Creature — Cyclops Shaman', 'Trample', 'Whenever you cast an instant or sorcery spell, Erratic Cyclops gets +X/+0 until end of turn, where X is that spell’s converted mana cost.', '0/8'])</t>
+          <t>('Erratic Cyclops', ['{3}{R}', 'Creature — Cyclops Shaman', 'Trample', 'Whenever you cast an instant or sorcery spell, Erratic Cyclops gets +X/+0 until end of turn, where X is that spell’s mana value.', '0/8'])</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('Feed the Swarm', ['{1}{B}', 'Sorcery', 'Destroy target creature or enchantment an opponent controls. You lose life equal to that permanent’s converted mana cost.'])</t>
+          <t>('Feed the Swarm', ['{1}{B}', 'Sorcery', 'Destroy target creature or enchantment an opponent controls. You lose life equal to that permanent’s mana value.'])</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('Fiery Fall', ['{5}{R}', 'Instant', 'Fiery Fall deals 5 damage to target creature.', 'Basic landcycling {1}{R} ({1}{R}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.)'])</t>
+          <t>('Fiery Fall', ['{5}{R}', 'Instant', 'Fiery Fall deals 5 damage to target creature.', 'Basic landcycling {1}{R} ({1}{R}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle.)'])</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('Gaze of Granite', ['{X}{B}{B}{G}', 'Sorcery', 'Destroy each nonland permanent with converted mana cost X or less.'])</t>
+          <t>('Gaze of Granite', ['{X}{B}{B}{G}', 'Sorcery', 'Destroy each nonland permanent with mana value X or less.'])</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('Hoard-Smelter Dragon', ['{4}{R}{R}', 'Creature — Dragon', 'Flying', '{3}{R}: Destroy target artifact. Hoard-Smelter Dragon gets +X/+0 until end of turn, where X is that artifact’s converted mana cost.', '5/5'])</t>
+          <t>('Hoard-Smelter Dragon', ['{4}{R}{R}', 'Creature — Dragon', 'Flying', '{3}{R}: Destroy target artifact. Hoard-Smelter Dragon gets +X/+0 until end of turn, where X is that artifact’s mana value.', '5/5'])</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('Humble Defector', ['{1}{R}', 'Creature — Human Rogue', '{T}: Draw two cards. Target opponent gains control of Humble Defector. Activate this ability only during your turn.', '2/1'])</t>
+          <t>('Humble Defector', ['{1}{R}', 'Creature — Human Rogue', '{T}: Draw two cards. Target opponent gains control of Humble Defector. Activate only during your turn.', '2/1'])</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('Idol of Oblivion', ['{2}', 'Artifact', '{T}: Draw a card. Activate this ability only if you created a token this turn.', '{8}, {T}, Sacrifice Idol of Oblivion: Create a 10/10 colorless Eldrazi creature token.'])</t>
+          <t>('Idol of Oblivion', ['{2}', 'Artifact', '{T}: Draw a card. Activate only if you created a token this turn.', '{8}, {T}, Sacrifice Idol of Oblivion: Create a 10/10 colorless Eldrazi creature token.'])</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('Inspiring Refrain', ['{4}{U}{U}', 'Sorcery', 'Draw two cards. Exile Inspiring Refrain with three time counters on it.', 'Suspend 3—{2}{U} (Rather than cast this card from your hand, pay {2}{U} and exile it with four time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)'])</t>
+          <t>('Inspiring Refrain', ['{4}{U}{U}', 'Sorcery', 'Draw two cards. Exile Inspiring Refrain with three time counters on it.', 'Suspend 3—{2}{U} (Rather than cast this card from your hand, you may pay {2}{U} and exile it with three time counters on it. At the beginning of your upkeep, remove a time counter. When the last is removed, cast it without paying its mana cost.)'])</t>
         </is>
       </c>
     </row>
@@ -1522,14 +1522,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('Knight of the White Orchid', ['{W}{W}', 'Creature — Human Knight', 'First strike', 'When Knight of the White Orchid enters the battlefield, if an opponent controls more lands than you, you may search your library for a Plains card, put it onto the battlefield, then shuffle your library.', '2/2'])</t>
+          <t>('Knight of the White Orchid', ['{W}{W}', 'Creature — Human Knight', 'First strike', 'When Knight of the White Orchid enters the battlefield, if an opponent controls more lands than you, you may search your library for a Plains card, put it onto the battlefield, then shuffle.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>("Kodama's Reach", ['{2}{G}', 'Sorcery — Arcane', 'Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.'])</t>
+          <t>("Kodama's Reach", ['{2}{G}', 'Sorcery — Arcane', 'Search your library for up to two basic land cards, reveal those cards, put one onto the battlefield tapped and the other into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('Laelia, the Blade Reforged', ['{2}{R}', 'Legendary Creature — Spirit Warrior', 'Haste', 'Whenever Laelia, the Blade Reforged attacks, exile the top card of your library. You may play that card this turn.', 'Whenever you exile one or more cards from your library and/or your graveyard, put a +1/+1 counter on Laelia.', '2/2'])</t>
+          <t>('Laelia, the Blade Reforged', ['{2}{R}', 'Legendary Creature — Spirit Warrior', 'Haste', 'Whenever Laelia, the Blade Reforged attacks, exile the top card of your library. You may play that card this turn.', 'Whenever a spell or ability you control exiles one or more cards from your library and/or your graveyard, put a +1/+1 counter on Laelia.', '2/2'])</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('Living Lore', ['{3}{U}', 'Creature — Avatar', 'As Living Lore enters the battlefield, exile an instant or sorcery card from your graveyard.', 'Living Lore’s power and toughness are each equal to the exiled card’s converted mana cost.', 'Whenever Living Lore deals combat damage, you may sacrifice it. If you do, you may cast the exiled card without paying its mana cost.', '*/*'])</t>
+          <t>('Living Lore', ['{3}{U}', 'Creature — Avatar', 'As Living Lore enters the battlefield, exile an instant or sorcery card from your graveyard.', 'Living Lore’s power and toughness are each equal to the exiled card’s mana value.', 'Whenever Living Lore deals combat damage, you may sacrifice it. If you do, you may cast the exiled card without paying its mana cost.', '*/*'])</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('Metallurgic Summonings', ['{3}{U}{U}', 'Enchantment', 'Whenever you cast an instant or sorcery spell, create an X/X colorless Construct artifact creature token, where X is that spell’s converted mana cost.', '{3}{U}{U}, Exile Metallurgic Summonings: Return all instant and sorcery cards from your graveyard to your hand. Activate this ability only if you control six or more artifacts.'])</t>
+          <t>('Metallurgic Summonings', ['{3}{U}{U}', 'Enchantment', 'Whenever you cast an instant or sorcery spell, create an X/X colorless Construct artifact creature token, where X is that spell’s mana value.', '{3}{U}{U}, Exile Metallurgic Summonings: Return all instant and sorcery cards from your graveyard to your hand. Activate only if you control six or more artifacts.'])</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
+          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
         </is>
       </c>
     </row>
@@ -1718,14 +1718,14 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('Muse Vortex', ['{X}{U}{U}', 'Sorcery', 'Exile the top X cards of your library. You may cast an instant or sorcery spell with mana value X or less from among them without paying its mana cost. Then put the exiled instant or sorcery cards that weren’t cast this way into your hand and the rest on the bottom of your library in a random order.'])</t>
+          <t>('Muse Vortex', ['{X}{U}{U}', 'Sorcery', 'Exile the top X cards of your library. You may cast an instant or sorcery spell with mana value X or less from among them without paying its mana cost. Then put the exiled instant and sorcery cards that weren’t cast this way into your hand and the rest on the bottom of your library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('Mycosynth Wellspring', ['{2}', 'Artifact', 'When Mycosynth Wellspring enters the battlefield or is put into a graveyard from the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>('Mycosynth Wellspring', ['{2}', 'Artifact', 'When Mycosynth Wellspring enters the battlefield or is put into a graveyard from the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('Myriad Landscape', ['Land', 'Myriad Landscape enters the battlefield tapped.', '{T}: Add {C}.', '{2}, {T}, Sacrifice Myriad Landscape: Search your library for up to two basic land cards that share a land type, put them onto the battlefield tapped, then shuffle your library.'])</t>
+          <t>('Myriad Landscape', ['Land', 'Myriad Landscape enters the battlefield tapped.', '{T}: Add {C}.', '{2}, {T}, Sacrifice Myriad Landscape: Search your library for up to two basic land cards that share a land type, put them onto the battlefield tapped, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -1767,14 +1767,14 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>("Nissa's Expedition", ['{4}{G}', 'Sorcery', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle your library.'])</t>
+          <t>("Nissa's Expedition", ['{4}{G}', 'Sorcery', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Search your library for up to two basic land cards, put them onto the battlefield tapped, then shuffle.'])</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>("Nissa's Renewal", ['{5}{G}', 'Sorcery', 'Search your library for up to three basic land cards, put them onto the battlefield tapped, then shuffle your library. You gain 7 life.'])</t>
+          <t>("Nissa's Renewal", ['{5}{G}', 'Sorcery', 'Search your library for up to three basic land cards, put them onto the battlefield tapped, then shuffle. You gain 7 life.'])</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('Octavia, Living Thesis', ['{8}{U}{U}', 'Legendary Creature — Elemental Octopus', 'This spell costs {8} less to cast if you have eight or more instant and/or sorcery cards in your graveyard.', 'Ward {8}', 'Magecraft — Whenever you cast an instant or sorcery spell, target creature has base power and toughness 8/8 until end of turn.', '8/8'])</t>
+          <t>('Octavia, Living Thesis', ['{8}{U}{U}', 'Legendary Creature — Elemental Octopus', 'This spell costs {8} less to cast if you have eight or more instant and/or sorcery cards in your graveyard.', 'Ward {8}', 'Magecraft — Whenever you cast or copy an instant or sorcery spell, target creature has base power and toughness 8/8 until end of turn.', '8/8'])</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1830,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('Oreskos Explorer', ['{1}{W}', 'Creature — Cat Scout', 'When Oreskos Explorer enters the battlefield, search your library for up to X Plains cards, where X is the number of players who control more lands than you. Reveal those cards, put them into your hand, then shuffle your library.', '2/2'])</t>
+          <t>('Oreskos Explorer', ['{1}{W}', 'Creature — Cat Scout', 'When Oreskos Explorer enters the battlefield, search your library for up to X Plains cards, where X is the number of players who control more lands than you. Reveal those cards, put them into your hand, then shuffle.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('Orzhov Advokist', ['{2}{W}', 'Creature — Human Advisor', 'At the beginning of your upkeep, each player may put two +1/+1 counters on a creature they control. If a player does, creatures that player controls can’t attack you or a planeswalker you control until your next turn.', '1/4'])</t>
+          <t>('Orzhov Advokist', ['{2}{W}', 'Creature — Human Advisor', 'At the beginning of your upkeep, each player may put two +1/+1 counters on a creature they control. If a player does, creatures that player controls can’t attack you or planeswalkers you control until your next turn.', '1/4'])</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>('Osgir, the Reconstructor', ['{2}{R}{W}', 'Legendary Creature — Giant Artificer', 'Vigilance', '{1}, Sacrifice an artifact: Target creature you control gets +2/+0 until end of turn.', '{X}, {T}, Exile an artifact with mana value X from your graveyard: Create two tokens that are copies of the exiled card. Activate only as a sorcery.', '4/4'])</t>
+          <t>('Osgir, the Reconstructor', ['{2}{R}{W}', 'Legendary Creature — Giant Artificer', 'Vigilance', '{1}, Sacrifice an artifact: Target creature you control gets +2/+0 until end of turn.', '{X}, {T}, Exile an artifact card with mana value X from your graveyard: Create two tokens that are copies of the exiled card. Activate only as a sorcery.', '4/4'])</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('Paradox Zone', ['{4}{G}', 'Enchantment', 'Paradox Zone enters the battlefield with a growth counter on it.', 'At the beginning of your end step, double the number of growth counters on Paradox Zone. Then create a 0/0 blue and green Fractal creature token. Put X +1/+1 counters on it, where X is the number of growth counters on Paradox Zone.'])</t>
+          <t>('Paradox Zone', ['{4}{G}', 'Enchantment', 'Paradox Zone enters the battlefield with a growth counter on it.', 'At the beginning of your end step, double the number of growth counters on Paradox Zone. Then create a 0/0 green and blue Fractal creature token. Put X +1/+1 counters on it, where X is the number of growth counters on Paradox Zone.'])</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>("Pilgrim's Eye", ['{3}', 'Artifact Creature — Thopter', 'Flying', 'When Pilgrim’s Eye enters the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '1/1'])</t>
+          <t>("Pilgrim's Eye", ['{3}', 'Artifact Creature — Thopter', 'Flying', 'When Pilgrim’s Eye enters the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle.', '1/1'])</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>('Ponder', ['{U}', 'Sorcery', 'Look at the top three cards of your library, then put them back in any order. You may shuffle your library.', 'Draw a card.'])</t>
+          <t>('Ponder', ['{U}', 'Sorcery', 'Look at the top three cards of your library, then put them back in any order. You may shuffle.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>('Promise of Loyalty', ['{4}{W}', 'Sorcery', 'Each player puts a vow counter on a creature they control and sacrifices the rest. Each of those creatures can’t attack you for as long as it has a vow counter on it.'])</t>
+          <t>('Promise of Loyalty', ['{4}{W}', 'Sorcery', 'Each player puts a vow counter on a creature they control and sacrifices the rest. Each of those creatures can’t attack you or planeswalkers you control for as long as it has a vow counter on it.'])</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>('Rampant Growth', ['{1}{G}', 'Sorcery', 'Search your library for a basic land card and put that card onto the battlefield tapped. Then shuffle your library.'])</t>
+          <t>('Rampant Growth', ['{1}{G}', 'Sorcery', 'Search your library for a basic land card, put that card onto the battlefield tapped, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>('Ruin Grinder', ['{5}{R}', 'Artifact Creature — Construct', 'Menace', 'When Ruin Grinder dies, each player may discard their hand and draw seven cards.', 'Mountaincycling {2} ({2}, Discard this card: Search your library for a Mountain card. Reveal it, put it into your hand, then shuffle.)', '7/4'])</t>
+          <t>('Ruin Grinder', ['{5}{R}', 'Artifact Creature — Construct', 'Menace', 'When Ruin Grinder dies, each player may discard their hand and draw seven cards.', 'Mountaincycling {2} ({2}, Discard this card: Search your library for a Mountain card, reveal it, put it into your hand, then shuffle.)', '7/4'])</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>('Sapseep Forest', ['Land — Forest', '({T}: Add {G}.)', 'Sapseep Forest enters the battlefield tapped.', '{G}, {T}: You gain 1 life. Activate this ability only if you control two or more green permanents.'])</t>
+          <t>('Sapseep Forest', ['Land — Forest', '({T}: Add {G}.)', 'Sapseep Forest enters the battlefield tapped.', '{G}, {T}: You gain 1 life. Activate only if you control two or more green permanents.'])</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>('Scrap Trawler', ['{3}', 'Artifact Creature — Construct', 'Whenever Scrap Trawler or another artifact you control is put into a graveyard from the battlefield, return to your hand target artifact card in your graveyard with lesser converted mana cost.', '3/2'])</t>
+          <t>('Scrap Trawler', ['{3}', 'Artifact Creature — Construct', 'Whenever Scrap Trawler or another artifact you control is put into a graveyard from the battlefield, return to your hand target artifact card in your graveyard with lesser mana value.', '3/2'])</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>('Solemn Simulacrum', ['{4}', 'Artifact Creature — Golem', 'When Solemn Simulacrum enters the battlefield, you may search your library for a basic land card, put that card onto the battlefield tapped, then shuffle your library.', 'When Solemn Simulacrum dies, you may draw a card.', '2/2'])</t>
+          <t>('Solemn Simulacrum', ['{4}', 'Artifact Creature — Golem', 'When Solemn Simulacrum enters the battlefield, you may search your library for a basic land card, put that card onto the battlefield tapped, then shuffle.', 'When Solemn Simulacrum dies, you may draw a card.', '2/2'])</t>
         </is>
       </c>
     </row>
@@ -2327,14 +2327,14 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>('Stalking Leonin', ['{2}{W}', 'Creature — Cat Archer', 'When Stalking Leonin enters the battlefield, secretly choose an opponent.', 'Reveal the player you chose: Exile target creature that’s attacking you if it’s controlled by the chosen player. Activate this ability only once.', '3/3'])</t>
+          <t>('Stalking Leonin', ['{2}{W}', 'Creature — Cat Archer', 'When Stalking Leonin enters the battlefield, secretly choose an opponent.', 'Reveal the player you chose: Exile target creature that’s attacking you if it’s controlled by the chosen player. Activate only once.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>('Steel Hellkite', ['{6}', 'Artifact Creature — Dragon', 'Flying', '{2}: Steel Hellkite gets +1/+0 until end of turn.', '{X}: Destroy each nonland permanent with converted mana cost X whose controller was dealt combat damage by Steel Hellkite this turn. Activate this ability only once each turn.', '5/5'])</t>
+          <t>('Steel Hellkite', ['{6}', 'Artifact Creature — Dragon', 'Flying', '{2}: Steel Hellkite gets +1/+0 until end of turn.', '{X}: Destroy each nonland permanent with mana value X whose controller was dealt combat damage by Steel Hellkite this turn. Activate only once each turn.', '5/5'])</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>("Sunbird's Invocation", ['{5}{R}', 'Enchantment', 'Whenever you cast a spell from your hand, reveal the top X cards of your library, where X is that spell’s converted mana cost. You may cast a spell with converted mana cost X or less from among cards revealed this way without paying its mana cost. Put the rest on the bottom of your library in a random order.'])</t>
+          <t>("Sunbird's Invocation", ['{5}{R}', 'Enchantment', 'Whenever you cast a spell from your hand, reveal the top X cards of your library, where X is that spell’s mana value. You may cast a spell with mana value X or less from among cards revealed this way without paying its mana cost. Put the rest on the bottom of your library in a random order.'])</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>('Sun Titan', ['{4}{W}{W}', 'Creature — Giant', 'Vigilance', 'Whenever Sun Titan enters the battlefield or attacks, you may return target permanent card with converted mana cost 3 or less from your graveyard to the battlefield.', '6/6'])</t>
+          <t>('Sun Titan', ['{4}{W}{W}', 'Creature — Giant', 'Vigilance', 'Whenever Sun Titan enters the battlefield or attacks, you may return target permanent card with mana value 3 or less from your graveyard to the battlefield.', '6/6'])</t>
         </is>
       </c>
     </row>
@@ -2418,14 +2418,14 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>('Tainted Field', ['Land', '{T}: Add {C}.', '{T}: Add {W} or {B}. Activate this ability only if you control a Swamp.'])</t>
+          <t>('Tainted Field', ['Land', '{T}: Add {C}.', '{T}: Add {W} or {B}. Activate only if you control a Swamp.'])</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>('Tainted Wood', ['Land', '{T}: Add {C}.', '{T}: Add {B} or {G}. Activate this ability only if you control a Swamp.'])</t>
+          <t>('Tainted Wood', ['Land', '{T}: Add {C}.', '{T}: Add {B} or {G}. Activate only if you control a Swamp.'])</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>('Temple of the False God', ['Land', '{T}: Add {C}{C}. Activate this ability only if you control five or more lands.'])</t>
+          <t>('Temple of the False God', ['Land', '{T}: Add {C}{C}. Activate only if you control five or more lands.'])</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>('Traumatic Visions', ['{3}{U}{U}', 'Instant', 'Counter target spell.', 'Basic landcycling {1}{U} ({1}{U}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.)'])</t>
+          <t>('Traumatic Visions', ['{3}{U}{U}', 'Instant', 'Counter target spell.', 'Basic landcycling {1}{U} ({1}{U}, Discard this card: Search your library for a basic land card, reveal it, put it into your hand, then shuffle.)'])</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>('Veinwitch Coven', ['{2}{B}', 'Creature — Vampire Warlock', 'Menace', 'Whenever you gain life, you pay {B}. If you do, return target creature card from your graveyard to your hand.', '3/3'])</t>
+          <t>('Veinwitch Coven', ['{2}{B}', 'Creature — Vampire Warlock', 'Menace', 'Whenever you gain life, you may pay {B}. If you do, return target creature card from your graveyard to your hand.', '3/3'])</t>
         </is>
       </c>
     </row>
@@ -2663,14 +2663,14 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>('Volcanic Vision', ['{5}{R}{R}', 'Sorcery', 'Return target instant or sorcery card from your graveyard to your hand. Volcanic Vision deals damage equal to that card’s converted mana cost to each creature your opponents control. Exile Volcanic Vision.'])</t>
+          <t>('Volcanic Vision', ['{5}{R}{R}', 'Sorcery', 'Return target instant or sorcery card from your graveyard to your hand. Volcanic Vision deals damage equal to that card’s mana value to each creature your opponents control. Exile Volcanic Vision.'])</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>('Vow of Duty', ['{2}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2, has vigilance, and can’t attack you or a planeswalker you control.'])</t>
+          <t>('Vow of Duty', ['{2}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2, has vigilance, and can’t attack you or planeswalkers you control.'])</t>
         </is>
       </c>
     </row>
